--- a/Översikt HYLTE.xlsx
+++ b/Översikt HYLTE.xlsx
@@ -572,7 +572,7 @@
         <v>43986</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44873</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43923</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43769</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>44693</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>43342</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
         <v>43467</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>43983</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         <v>44601</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         <v>43319</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1404,7 +1404,7 @@
         <v>43348</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1461,7 +1461,7 @@
         <v>43374</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1518,7 +1518,7 @@
         <v>43409</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1632,7 +1632,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1689,7 +1689,7 @@
         <v>43413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         <v>43415</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>43415</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1860,7 +1860,7 @@
         <v>43415</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         <v>43418</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1974,7 +1974,7 @@
         <v>43419</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>43420</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>43420</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>43423</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         <v>43423</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>43425</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>43431</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
         <v>43432</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>43432</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>43432</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>43432</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>43432</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>43433</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>43433</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>43433</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>43433</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>43437</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>43437</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>43437</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         <v>43437</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>43437</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>43437</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         <v>43441</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         <v>43441</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3342,7 +3342,7 @@
         <v>43445</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         <v>43447</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>43447</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>43447</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3570,7 +3570,7 @@
         <v>43454</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         <v>43467</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
         <v>43467</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3741,7 +3741,7 @@
         <v>43467</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>43467</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3855,7 +3855,7 @@
         <v>43468</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
         <v>43468</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3969,7 +3969,7 @@
         <v>43468</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4026,7 +4026,7 @@
         <v>43472</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
         <v>43472</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4140,7 +4140,7 @@
         <v>43472</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4197,7 +4197,7 @@
         <v>43472</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4254,7 +4254,7 @@
         <v>43472</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         <v>43473</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>43473</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>43473</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>43473</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         <v>43475</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
         <v>43475</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>43475</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>43476</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4767,7 +4767,7 @@
         <v>43479</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>43479</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4881,7 +4881,7 @@
         <v>43482</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4938,7 +4938,7 @@
         <v>43483</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43493</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>43503</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>43503</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>43505</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         <v>43516</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>43516</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>43516</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>43516</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>43516</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5508,7 +5508,7 @@
         <v>43521</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
         <v>43523</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         <v>43524</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5679,7 +5679,7 @@
         <v>43528</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         <v>43531</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>43535</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         <v>43536</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>43536</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>43542</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>43542</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>43542</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>43542</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>43544</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>43545</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>43545</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>43549</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>43549</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>43550</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>43550</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>43552</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>43552</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>43553</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>43557</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6824,7 +6824,7 @@
         <v>43558</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>43558</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>43563</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         <v>43564</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>43564</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>43565</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>43566</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>43570</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>43573</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>43581</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>43584</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43587</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7508,7 +7508,7 @@
         <v>43606</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7565,7 +7565,7 @@
         <v>43612</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7622,7 +7622,7 @@
         <v>43612</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7679,7 +7679,7 @@
         <v>43612</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7736,7 +7736,7 @@
         <v>43616</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         <v>43619</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7850,7 +7850,7 @@
         <v>43620</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>43620</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>43656</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8021,7 +8021,7 @@
         <v>43658</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>43663</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8135,7 +8135,7 @@
         <v>43664</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8192,7 +8192,7 @@
         <v>43665</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8249,7 +8249,7 @@
         <v>43665</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         <v>43668</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8363,7 +8363,7 @@
         <v>43668</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8420,7 +8420,7 @@
         <v>43668</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8477,7 +8477,7 @@
         <v>43668</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8534,7 +8534,7 @@
         <v>43682</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8591,7 +8591,7 @@
         <v>43682</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         <v>43682</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         <v>43682</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8762,7 +8762,7 @@
         <v>43682</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8819,7 +8819,7 @@
         <v>43689</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>43705</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8933,7 +8933,7 @@
         <v>43706</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8990,7 +8990,7 @@
         <v>43712</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9047,7 +9047,7 @@
         <v>43712</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9104,7 +9104,7 @@
         <v>43712</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9161,7 +9161,7 @@
         <v>43731</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9218,7 +9218,7 @@
         <v>43731</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9275,7 +9275,7 @@
         <v>43732</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9332,7 +9332,7 @@
         <v>43738</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9389,7 +9389,7 @@
         <v>43739</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9446,7 +9446,7 @@
         <v>43739</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>43741</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9560,7 +9560,7 @@
         <v>43742</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>43742</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>43742</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>43768</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>43770</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>43774</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>43775</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9959,7 +9959,7 @@
         <v>43775</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10016,7 +10016,7 @@
         <v>43790</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>43796</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10130,7 +10130,7 @@
         <v>43803</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10187,7 +10187,7 @@
         <v>43837</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>43837</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>43839</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10358,7 +10358,7 @@
         <v>43846</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>43850</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10472,7 +10472,7 @@
         <v>43852</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10529,7 +10529,7 @@
         <v>43854</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10586,7 +10586,7 @@
         <v>43858</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10643,7 +10643,7 @@
         <v>43859</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10705,7 +10705,7 @@
         <v>43871</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10762,7 +10762,7 @@
         <v>43871</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         <v>43875</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10876,7 +10876,7 @@
         <v>43880</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10933,7 +10933,7 @@
         <v>43880</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10990,7 +10990,7 @@
         <v>43886</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11052,7 +11052,7 @@
         <v>43901</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11109,7 +11109,7 @@
         <v>43901</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11166,7 +11166,7 @@
         <v>43901</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11223,7 +11223,7 @@
         <v>43903</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11280,7 +11280,7 @@
         <v>43908</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11337,7 +11337,7 @@
         <v>43908</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11394,7 +11394,7 @@
         <v>43913</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>43916</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11508,7 +11508,7 @@
         <v>43916</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>43927</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>43936</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>43937</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>43941</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>43943</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         <v>43943</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11907,7 +11907,7 @@
         <v>43949</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>43957</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>43957</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>43963</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>43966</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>43969</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>43983</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         <v>43983</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12363,7 +12363,7 @@
         <v>43983</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         <v>44000</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12477,7 +12477,7 @@
         <v>44007</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         <v>44019</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12591,7 +12591,7 @@
         <v>44020</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12648,7 +12648,7 @@
         <v>44020</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>44020</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12762,7 +12762,7 @@
         <v>44021</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12819,7 +12819,7 @@
         <v>44021</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12881,7 +12881,7 @@
         <v>44022</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12938,7 +12938,7 @@
         <v>44022</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12995,7 +12995,7 @@
         <v>44025</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13052,7 +13052,7 @@
         <v>44028</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13109,7 +13109,7 @@
         <v>44036</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13166,7 +13166,7 @@
         <v>44039</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13223,7 +13223,7 @@
         <v>44041</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13280,7 +13280,7 @@
         <v>44043</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13337,7 +13337,7 @@
         <v>44046</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13394,7 +13394,7 @@
         <v>44055</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13451,7 +13451,7 @@
         <v>44060</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>44062</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         <v>44088</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         <v>44092</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13679,7 +13679,7 @@
         <v>44095</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13736,7 +13736,7 @@
         <v>44095</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13793,7 +13793,7 @@
         <v>44095</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>44103</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>44107</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44107</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44122</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44122</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>44123</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>44123</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>44124</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>44132</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>44132</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>44133</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>44133</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44140</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44141</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>44144</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>44145</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>44146</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>44146</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14891,7 +14891,7 @@
         <v>44147</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>44147</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>44147</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15062,7 +15062,7 @@
         <v>44147</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>44147</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44159</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44159</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15290,7 +15290,7 @@
         <v>44162</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>44166</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15404,7 +15404,7 @@
         <v>44168</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15461,7 +15461,7 @@
         <v>44172</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15518,7 +15518,7 @@
         <v>44173</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15575,7 +15575,7 @@
         <v>44174</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15632,7 +15632,7 @@
         <v>44174</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15689,7 +15689,7 @@
         <v>44180</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         <v>44187</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15803,7 +15803,7 @@
         <v>44193</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>44199</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>44210</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15974,7 +15974,7 @@
         <v>44216</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16031,7 +16031,7 @@
         <v>44221</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16088,7 +16088,7 @@
         <v>44224</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16145,7 +16145,7 @@
         <v>44230</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16202,7 +16202,7 @@
         <v>44230</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16259,7 +16259,7 @@
         <v>44231</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16316,7 +16316,7 @@
         <v>44236</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16373,7 +16373,7 @@
         <v>44236</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16430,7 +16430,7 @@
         <v>44236</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16487,7 +16487,7 @@
         <v>44238</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16544,7 +16544,7 @@
         <v>44242</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16601,7 +16601,7 @@
         <v>44243</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16658,7 +16658,7 @@
         <v>44245</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16715,7 +16715,7 @@
         <v>44250</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16772,7 +16772,7 @@
         <v>44250</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16829,7 +16829,7 @@
         <v>44251</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>44256</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16943,7 +16943,7 @@
         <v>44261</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         <v>44263</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         <v>44263</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17119,7 +17119,7 @@
         <v>44266</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
         <v>44266</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17243,7 +17243,7 @@
         <v>44267</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17305,7 +17305,7 @@
         <v>44267</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17367,7 +17367,7 @@
         <v>44267</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17429,7 +17429,7 @@
         <v>44267</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17491,7 +17491,7 @@
         <v>44267</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17553,7 +17553,7 @@
         <v>44278</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17610,7 +17610,7 @@
         <v>44295</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17667,7 +17667,7 @@
         <v>44298</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17724,7 +17724,7 @@
         <v>44298</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17781,7 +17781,7 @@
         <v>44302</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
         <v>44302</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>44307</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17952,7 +17952,7 @@
         <v>44322</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18009,7 +18009,7 @@
         <v>44322</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         <v>44335</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18123,7 +18123,7 @@
         <v>44336</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18180,7 +18180,7 @@
         <v>44340</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>44356</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18294,7 +18294,7 @@
         <v>44356</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18351,7 +18351,7 @@
         <v>44357</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
         <v>44357</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18470,7 +18470,7 @@
         <v>44363</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18527,7 +18527,7 @@
         <v>44365</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18584,7 +18584,7 @@
         <v>44371</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18641,7 +18641,7 @@
         <v>44371</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18698,7 +18698,7 @@
         <v>44375</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18755,7 +18755,7 @@
         <v>44378</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18812,7 +18812,7 @@
         <v>44384</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18869,7 +18869,7 @@
         <v>44389</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18926,7 +18926,7 @@
         <v>44407</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18983,7 +18983,7 @@
         <v>44427</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19040,7 +19040,7 @@
         <v>44442</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19097,7 +19097,7 @@
         <v>44448</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19154,7 +19154,7 @@
         <v>44454</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19211,7 +19211,7 @@
         <v>44454</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19268,7 +19268,7 @@
         <v>44454</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19325,7 +19325,7 @@
         <v>44455</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19382,7 +19382,7 @@
         <v>44469</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19439,7 +19439,7 @@
         <v>44475</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19496,7 +19496,7 @@
         <v>44476</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19553,7 +19553,7 @@
         <v>44477</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19610,7 +19610,7 @@
         <v>44477</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19667,7 +19667,7 @@
         <v>44480</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19724,7 +19724,7 @@
         <v>44481</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19781,7 +19781,7 @@
         <v>44482</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19838,7 +19838,7 @@
         <v>44483</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19895,7 +19895,7 @@
         <v>44483</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -19952,7 +19952,7 @@
         <v>44487</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20014,7 +20014,7 @@
         <v>44487</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20076,7 +20076,7 @@
         <v>44488</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         <v>44489</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20190,7 +20190,7 @@
         <v>44489</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20247,7 +20247,7 @@
         <v>44489</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20304,7 +20304,7 @@
         <v>44501</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20361,7 +20361,7 @@
         <v>44502</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20418,7 +20418,7 @@
         <v>44508</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20475,7 +20475,7 @@
         <v>44510</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20532,7 +20532,7 @@
         <v>44515</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20594,7 +20594,7 @@
         <v>44529</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20651,7 +20651,7 @@
         <v>44530</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20708,7 +20708,7 @@
         <v>44557</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20765,7 +20765,7 @@
         <v>44559</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20822,7 +20822,7 @@
         <v>44559</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20879,7 +20879,7 @@
         <v>44573</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -20936,7 +20936,7 @@
         <v>44573</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -20993,7 +20993,7 @@
         <v>44575</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21050,7 +21050,7 @@
         <v>44592</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21107,7 +21107,7 @@
         <v>44592</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21164,7 +21164,7 @@
         <v>44596</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21226,7 +21226,7 @@
         <v>44600</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
         <v>44607</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>44613</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21397,7 +21397,7 @@
         <v>44621</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44631</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44634</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44637</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>44644</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21687,7 +21687,7 @@
         <v>44655</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         <v>44659</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21806,7 +21806,7 @@
         <v>44659</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>44659</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>44659</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -21987,7 +21987,7 @@
         <v>44671</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>44671</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>44693</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>44697</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>44711</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>44712</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>44714</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>44714</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22448,7 +22448,7 @@
         <v>44719</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22505,7 +22505,7 @@
         <v>44735</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22562,7 +22562,7 @@
         <v>44735</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22619,7 +22619,7 @@
         <v>44735</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22676,7 +22676,7 @@
         <v>44753</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22733,7 +22733,7 @@
         <v>44756</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22790,7 +22790,7 @@
         <v>44756</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22847,7 +22847,7 @@
         <v>44762</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -22904,7 +22904,7 @@
         <v>44778</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -22961,7 +22961,7 @@
         <v>44778</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23018,7 +23018,7 @@
         <v>44778</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23075,7 +23075,7 @@
         <v>44817</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23132,7 +23132,7 @@
         <v>44823</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23189,7 +23189,7 @@
         <v>44830</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23246,7 +23246,7 @@
         <v>44830</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23303,7 +23303,7 @@
         <v>44845</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23360,7 +23360,7 @@
         <v>44847</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23417,7 +23417,7 @@
         <v>44847</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23474,7 +23474,7 @@
         <v>44847</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23531,7 +23531,7 @@
         <v>44865</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23588,7 +23588,7 @@
         <v>44865</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23645,7 +23645,7 @@
         <v>44868</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23702,7 +23702,7 @@
         <v>44869</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23759,7 +23759,7 @@
         <v>44872</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23816,7 +23816,7 @@
         <v>44873</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -23873,7 +23873,7 @@
         <v>44876</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -23930,7 +23930,7 @@
         <v>44887</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -23987,7 +23987,7 @@
         <v>44889</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24044,7 +24044,7 @@
         <v>44893</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24101,7 +24101,7 @@
         <v>44900</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24158,7 +24158,7 @@
         <v>44900</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24215,7 +24215,7 @@
         <v>44900</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24272,7 +24272,7 @@
         <v>44900</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24329,7 +24329,7 @@
         <v>44903</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         <v>44903</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24443,7 +24443,7 @@
         <v>44926</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24505,7 +24505,7 @@
         <v>44951</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24562,7 +24562,7 @@
         <v>44964</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24619,7 +24619,7 @@
         <v>44964</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24676,7 +24676,7 @@
         <v>44970</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24733,7 +24733,7 @@
         <v>44970</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24790,7 +24790,7 @@
         <v>44974</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -24847,7 +24847,7 @@
         <v>44974</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -24904,7 +24904,7 @@
         <v>44974</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -24961,7 +24961,7 @@
         <v>44980</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25018,7 +25018,7 @@
         <v>44999</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         <v>45013</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25132,7 +25132,7 @@
         <v>45019</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25189,7 +25189,7 @@
         <v>45019</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25246,7 +25246,7 @@
         <v>45020</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25303,7 +25303,7 @@
         <v>45030</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25365,7 +25365,7 @@
         <v>45037</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25422,7 +25422,7 @@
         <v>45040</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25479,7 +25479,7 @@
         <v>45044</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25536,7 +25536,7 @@
         <v>45058</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25593,7 +25593,7 @@
         <v>45061</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25650,7 +25650,7 @@
         <v>45062</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25707,7 +25707,7 @@
         <v>45063</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25764,7 +25764,7 @@
         <v>45070</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25821,7 +25821,7 @@
         <v>45070</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -25878,7 +25878,7 @@
         <v>45070</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -25935,7 +25935,7 @@
         <v>45075</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -25992,7 +25992,7 @@
         <v>45084</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26049,7 +26049,7 @@
         <v>45084</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26106,7 +26106,7 @@
         <v>45089</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26163,7 +26163,7 @@
         <v>45091</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26220,7 +26220,7 @@
         <v>45092</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26277,7 +26277,7 @@
         <v>45092</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26334,7 +26334,7 @@
         <v>45097</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26391,7 +26391,7 @@
         <v>45097</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26448,7 +26448,7 @@
         <v>45097</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26505,7 +26505,7 @@
         <v>45097</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26562,7 +26562,7 @@
         <v>45099</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26619,7 +26619,7 @@
         <v>45109</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26676,7 +26676,7 @@
         <v>45109</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26733,7 +26733,7 @@
         <v>45110</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26790,7 +26790,7 @@
         <v>45110</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -26847,7 +26847,7 @@
         <v>45114</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -26904,7 +26904,7 @@
         <v>45117</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -26961,7 +26961,7 @@
         <v>45128</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27018,7 +27018,7 @@
         <v>45131</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27075,7 +27075,7 @@
         <v>45145</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27132,7 +27132,7 @@
         <v>45149</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27189,7 +27189,7 @@
         <v>45153</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27251,7 +27251,7 @@
         <v>45153</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27308,7 +27308,7 @@
         <v>45154</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27365,7 +27365,7 @@
         <v>45155</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27422,7 +27422,7 @@
         <v>45162</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27479,7 +27479,7 @@
         <v>45163</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27536,7 +27536,7 @@
         <v>45167</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27593,7 +27593,7 @@
         <v>45167</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27643,14 +27643,14 @@
     <row r="470" ht="15" customHeight="1">
       <c r="A470" t="inlineStr">
         <is>
-          <t>A 40731-2023</t>
+          <t>A 40725-2023</t>
         </is>
       </c>
       <c r="B470" s="1" t="n">
         <v>45170</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27663,7 +27663,7 @@
         </is>
       </c>
       <c r="G470" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H470" t="n">
         <v>0</v>
@@ -27700,14 +27700,14 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>A 40725-2023</t>
+          <t>A 40731-2023</t>
         </is>
       </c>
       <c r="B471" s="1" t="n">
         <v>45170</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27720,7 +27720,7 @@
         </is>
       </c>
       <c r="G471" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H471" t="n">
         <v>0</v>

--- a/Översikt HYLTE.xlsx
+++ b/Översikt HYLTE.xlsx
@@ -572,7 +572,7 @@
         <v>43986</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44873</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43923</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43769</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>44693</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>43342</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
         <v>43467</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>43983</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         <v>44601</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         <v>43319</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1404,7 +1404,7 @@
         <v>43348</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1461,7 +1461,7 @@
         <v>43374</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1518,7 +1518,7 @@
         <v>43409</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1632,7 +1632,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1689,7 +1689,7 @@
         <v>43413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         <v>43415</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>43415</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1860,7 +1860,7 @@
         <v>43415</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         <v>43418</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1974,7 +1974,7 @@
         <v>43419</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>43420</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>43420</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>43423</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         <v>43423</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>43425</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>43431</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
         <v>43432</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>43432</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>43432</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>43432</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>43432</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>43433</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>43433</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>43433</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>43433</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>43437</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>43437</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>43437</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         <v>43437</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>43437</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>43437</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         <v>43441</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         <v>43441</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3342,7 +3342,7 @@
         <v>43445</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         <v>43447</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>43447</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>43447</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3570,7 +3570,7 @@
         <v>43454</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         <v>43467</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
         <v>43467</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3741,7 +3741,7 @@
         <v>43467</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>43467</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3855,7 +3855,7 @@
         <v>43468</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
         <v>43468</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3969,7 +3969,7 @@
         <v>43468</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4026,7 +4026,7 @@
         <v>43472</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
         <v>43472</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4140,7 +4140,7 @@
         <v>43472</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4197,7 +4197,7 @@
         <v>43472</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4254,7 +4254,7 @@
         <v>43472</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         <v>43473</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>43473</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>43473</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>43473</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         <v>43475</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
         <v>43475</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>43475</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>43476</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4767,7 +4767,7 @@
         <v>43479</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>43479</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4881,7 +4881,7 @@
         <v>43482</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4938,7 +4938,7 @@
         <v>43483</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43493</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>43503</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>43503</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>43505</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         <v>43516</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>43516</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>43516</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>43516</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>43516</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5508,7 +5508,7 @@
         <v>43521</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
         <v>43523</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         <v>43524</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5679,7 +5679,7 @@
         <v>43528</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         <v>43531</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>43535</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         <v>43536</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>43536</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>43542</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>43542</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>43542</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>43542</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>43544</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>43545</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>43545</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>43549</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>43549</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>43550</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>43550</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>43552</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>43552</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>43553</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>43557</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6824,7 +6824,7 @@
         <v>43558</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>43558</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>43563</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         <v>43564</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>43564</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>43565</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>43566</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>43570</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>43573</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>43581</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>43584</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43587</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7508,7 +7508,7 @@
         <v>43606</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7565,7 +7565,7 @@
         <v>43612</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7622,7 +7622,7 @@
         <v>43612</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7679,7 +7679,7 @@
         <v>43612</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7736,7 +7736,7 @@
         <v>43616</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         <v>43619</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7850,7 +7850,7 @@
         <v>43620</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>43620</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>43656</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8021,7 +8021,7 @@
         <v>43658</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>43663</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8135,7 +8135,7 @@
         <v>43664</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8192,7 +8192,7 @@
         <v>43665</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8249,7 +8249,7 @@
         <v>43665</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         <v>43668</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8363,7 +8363,7 @@
         <v>43668</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8420,7 +8420,7 @@
         <v>43668</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8477,7 +8477,7 @@
         <v>43668</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8534,7 +8534,7 @@
         <v>43682</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8591,7 +8591,7 @@
         <v>43682</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         <v>43682</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         <v>43682</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8762,7 +8762,7 @@
         <v>43682</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8819,7 +8819,7 @@
         <v>43689</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>43705</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8933,7 +8933,7 @@
         <v>43706</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8990,7 +8990,7 @@
         <v>43712</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9047,7 +9047,7 @@
         <v>43712</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9104,7 +9104,7 @@
         <v>43712</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9161,7 +9161,7 @@
         <v>43731</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9218,7 +9218,7 @@
         <v>43731</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9275,7 +9275,7 @@
         <v>43732</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9332,7 +9332,7 @@
         <v>43738</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9389,7 +9389,7 @@
         <v>43739</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9446,7 +9446,7 @@
         <v>43739</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>43741</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9560,7 +9560,7 @@
         <v>43742</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>43742</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>43742</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>43768</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>43770</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>43774</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>43775</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9959,7 +9959,7 @@
         <v>43775</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10016,7 +10016,7 @@
         <v>43790</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>43796</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10130,7 +10130,7 @@
         <v>43803</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10187,7 +10187,7 @@
         <v>43837</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>43837</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>43839</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10358,7 +10358,7 @@
         <v>43846</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>43850</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10472,7 +10472,7 @@
         <v>43852</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10529,7 +10529,7 @@
         <v>43854</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10586,7 +10586,7 @@
         <v>43858</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10643,7 +10643,7 @@
         <v>43859</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10705,7 +10705,7 @@
         <v>43871</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10762,7 +10762,7 @@
         <v>43871</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         <v>43875</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10876,7 +10876,7 @@
         <v>43880</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10933,7 +10933,7 @@
         <v>43880</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10990,7 +10990,7 @@
         <v>43886</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11052,7 +11052,7 @@
         <v>43901</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11109,7 +11109,7 @@
         <v>43901</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11166,7 +11166,7 @@
         <v>43901</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11223,7 +11223,7 @@
         <v>43903</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11280,7 +11280,7 @@
         <v>43908</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11337,7 +11337,7 @@
         <v>43908</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11394,7 +11394,7 @@
         <v>43913</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>43916</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11508,7 +11508,7 @@
         <v>43916</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>43927</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>43936</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>43937</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>43941</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>43943</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         <v>43943</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11907,7 +11907,7 @@
         <v>43949</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>43957</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>43957</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>43963</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>43966</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>43969</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>43983</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         <v>43983</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12363,7 +12363,7 @@
         <v>43983</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         <v>44000</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12477,7 +12477,7 @@
         <v>44007</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         <v>44019</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12591,7 +12591,7 @@
         <v>44020</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12648,7 +12648,7 @@
         <v>44020</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>44020</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12762,7 +12762,7 @@
         <v>44021</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12819,7 +12819,7 @@
         <v>44021</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12881,7 +12881,7 @@
         <v>44022</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12938,7 +12938,7 @@
         <v>44022</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12995,7 +12995,7 @@
         <v>44025</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13052,7 +13052,7 @@
         <v>44028</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13109,7 +13109,7 @@
         <v>44036</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13166,7 +13166,7 @@
         <v>44039</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13223,7 +13223,7 @@
         <v>44041</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13280,7 +13280,7 @@
         <v>44043</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13337,7 +13337,7 @@
         <v>44046</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13394,7 +13394,7 @@
         <v>44055</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13451,7 +13451,7 @@
         <v>44060</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>44062</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         <v>44088</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         <v>44092</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13679,7 +13679,7 @@
         <v>44095</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13736,7 +13736,7 @@
         <v>44095</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13793,7 +13793,7 @@
         <v>44095</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>44103</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>44107</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44107</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44122</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44122</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>44123</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>44123</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>44124</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>44132</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>44132</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>44133</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>44133</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44140</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44141</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>44144</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>44145</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>44146</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>44146</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14891,7 +14891,7 @@
         <v>44147</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>44147</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>44147</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15062,7 +15062,7 @@
         <v>44147</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>44147</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44159</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44159</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15290,7 +15290,7 @@
         <v>44162</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>44166</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15404,7 +15404,7 @@
         <v>44168</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15461,7 +15461,7 @@
         <v>44172</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15518,7 +15518,7 @@
         <v>44173</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15575,7 +15575,7 @@
         <v>44174</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15632,7 +15632,7 @@
         <v>44174</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15689,7 +15689,7 @@
         <v>44180</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         <v>44187</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15803,7 +15803,7 @@
         <v>44193</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>44199</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>44210</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15974,7 +15974,7 @@
         <v>44216</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16031,7 +16031,7 @@
         <v>44221</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16088,7 +16088,7 @@
         <v>44224</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16145,7 +16145,7 @@
         <v>44230</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16202,7 +16202,7 @@
         <v>44230</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16259,7 +16259,7 @@
         <v>44231</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16316,7 +16316,7 @@
         <v>44236</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16373,7 +16373,7 @@
         <v>44236</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16430,7 +16430,7 @@
         <v>44236</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16487,7 +16487,7 @@
         <v>44238</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16544,7 +16544,7 @@
         <v>44242</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16601,7 +16601,7 @@
         <v>44243</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16658,7 +16658,7 @@
         <v>44245</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16715,7 +16715,7 @@
         <v>44250</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16772,7 +16772,7 @@
         <v>44250</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16829,7 +16829,7 @@
         <v>44251</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>44256</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16943,7 +16943,7 @@
         <v>44261</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         <v>44263</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         <v>44263</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17119,7 +17119,7 @@
         <v>44266</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
         <v>44266</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17243,7 +17243,7 @@
         <v>44267</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17305,7 +17305,7 @@
         <v>44267</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17367,7 +17367,7 @@
         <v>44267</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17429,7 +17429,7 @@
         <v>44267</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17491,7 +17491,7 @@
         <v>44267</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17553,7 +17553,7 @@
         <v>44278</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17610,7 +17610,7 @@
         <v>44295</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17667,7 +17667,7 @@
         <v>44298</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17724,7 +17724,7 @@
         <v>44298</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17781,7 +17781,7 @@
         <v>44302</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
         <v>44302</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>44307</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17952,7 +17952,7 @@
         <v>44322</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18009,7 +18009,7 @@
         <v>44322</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         <v>44335</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18123,7 +18123,7 @@
         <v>44336</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18180,7 +18180,7 @@
         <v>44340</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>44356</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18294,7 +18294,7 @@
         <v>44356</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18351,7 +18351,7 @@
         <v>44357</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
         <v>44357</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18470,7 +18470,7 @@
         <v>44363</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18527,7 +18527,7 @@
         <v>44365</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18584,7 +18584,7 @@
         <v>44371</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18641,7 +18641,7 @@
         <v>44371</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18698,7 +18698,7 @@
         <v>44375</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18755,7 +18755,7 @@
         <v>44378</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18812,7 +18812,7 @@
         <v>44384</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18869,7 +18869,7 @@
         <v>44389</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18926,7 +18926,7 @@
         <v>44407</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18983,7 +18983,7 @@
         <v>44427</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19040,7 +19040,7 @@
         <v>44442</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19097,7 +19097,7 @@
         <v>44448</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19154,7 +19154,7 @@
         <v>44454</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19211,7 +19211,7 @@
         <v>44454</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19268,7 +19268,7 @@
         <v>44454</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19325,7 +19325,7 @@
         <v>44455</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19382,7 +19382,7 @@
         <v>44469</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19439,7 +19439,7 @@
         <v>44475</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19496,7 +19496,7 @@
         <v>44476</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19553,7 +19553,7 @@
         <v>44477</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19610,7 +19610,7 @@
         <v>44477</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19667,7 +19667,7 @@
         <v>44480</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19724,7 +19724,7 @@
         <v>44481</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19781,7 +19781,7 @@
         <v>44482</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19838,7 +19838,7 @@
         <v>44483</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19895,7 +19895,7 @@
         <v>44483</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -19952,7 +19952,7 @@
         <v>44487</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20014,7 +20014,7 @@
         <v>44487</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20076,7 +20076,7 @@
         <v>44488</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         <v>44489</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20190,7 +20190,7 @@
         <v>44489</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20247,7 +20247,7 @@
         <v>44489</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20304,7 +20304,7 @@
         <v>44501</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20361,7 +20361,7 @@
         <v>44502</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20418,7 +20418,7 @@
         <v>44508</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20475,7 +20475,7 @@
         <v>44510</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20532,7 +20532,7 @@
         <v>44515</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20594,7 +20594,7 @@
         <v>44529</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20651,7 +20651,7 @@
         <v>44530</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20708,7 +20708,7 @@
         <v>44557</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20765,7 +20765,7 @@
         <v>44559</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20822,7 +20822,7 @@
         <v>44559</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20879,7 +20879,7 @@
         <v>44573</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -20936,7 +20936,7 @@
         <v>44573</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -20993,7 +20993,7 @@
         <v>44575</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21050,7 +21050,7 @@
         <v>44592</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21107,7 +21107,7 @@
         <v>44592</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21164,7 +21164,7 @@
         <v>44596</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21226,7 +21226,7 @@
         <v>44600</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
         <v>44607</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>44613</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21397,7 +21397,7 @@
         <v>44621</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44631</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44634</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44637</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>44644</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21687,7 +21687,7 @@
         <v>44655</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         <v>44659</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21806,7 +21806,7 @@
         <v>44659</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>44659</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>44659</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -21987,7 +21987,7 @@
         <v>44671</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>44671</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>44693</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>44697</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>44711</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>44712</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>44714</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>44714</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22448,7 +22448,7 @@
         <v>44719</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22505,7 +22505,7 @@
         <v>44735</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22562,7 +22562,7 @@
         <v>44735</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22619,7 +22619,7 @@
         <v>44735</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22676,7 +22676,7 @@
         <v>44753</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22733,7 +22733,7 @@
         <v>44756</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22790,7 +22790,7 @@
         <v>44756</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22847,7 +22847,7 @@
         <v>44762</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -22904,7 +22904,7 @@
         <v>44778</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -22961,7 +22961,7 @@
         <v>44778</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23018,7 +23018,7 @@
         <v>44778</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23075,7 +23075,7 @@
         <v>44817</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23132,7 +23132,7 @@
         <v>44823</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23189,7 +23189,7 @@
         <v>44830</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23246,7 +23246,7 @@
         <v>44830</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23303,7 +23303,7 @@
         <v>44845</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23360,7 +23360,7 @@
         <v>44847</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23417,7 +23417,7 @@
         <v>44847</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23474,7 +23474,7 @@
         <v>44847</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23531,7 +23531,7 @@
         <v>44865</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23588,7 +23588,7 @@
         <v>44865</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23645,7 +23645,7 @@
         <v>44868</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23702,7 +23702,7 @@
         <v>44869</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23759,7 +23759,7 @@
         <v>44872</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23816,7 +23816,7 @@
         <v>44873</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -23873,7 +23873,7 @@
         <v>44876</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -23930,7 +23930,7 @@
         <v>44887</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -23987,7 +23987,7 @@
         <v>44889</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24044,7 +24044,7 @@
         <v>44893</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24101,7 +24101,7 @@
         <v>44900</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24158,7 +24158,7 @@
         <v>44900</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24215,7 +24215,7 @@
         <v>44900</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24272,7 +24272,7 @@
         <v>44900</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24329,7 +24329,7 @@
         <v>44903</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         <v>44903</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24443,7 +24443,7 @@
         <v>44926</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24505,7 +24505,7 @@
         <v>44951</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24562,7 +24562,7 @@
         <v>44964</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24619,7 +24619,7 @@
         <v>44964</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24676,7 +24676,7 @@
         <v>44970</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24733,7 +24733,7 @@
         <v>44970</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24790,7 +24790,7 @@
         <v>44974</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -24847,7 +24847,7 @@
         <v>44974</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -24904,7 +24904,7 @@
         <v>44974</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -24961,7 +24961,7 @@
         <v>44980</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25018,7 +25018,7 @@
         <v>44999</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         <v>45013</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25132,7 +25132,7 @@
         <v>45019</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25189,7 +25189,7 @@
         <v>45019</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25246,7 +25246,7 @@
         <v>45020</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25303,7 +25303,7 @@
         <v>45030</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25365,7 +25365,7 @@
         <v>45037</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25422,7 +25422,7 @@
         <v>45040</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25479,7 +25479,7 @@
         <v>45044</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25536,7 +25536,7 @@
         <v>45058</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25593,7 +25593,7 @@
         <v>45061</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25650,7 +25650,7 @@
         <v>45062</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25707,7 +25707,7 @@
         <v>45063</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25764,7 +25764,7 @@
         <v>45070</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25821,7 +25821,7 @@
         <v>45070</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -25878,7 +25878,7 @@
         <v>45070</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -25935,7 +25935,7 @@
         <v>45075</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -25992,7 +25992,7 @@
         <v>45084</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26049,7 +26049,7 @@
         <v>45084</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26106,7 +26106,7 @@
         <v>45089</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26163,7 +26163,7 @@
         <v>45091</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26220,7 +26220,7 @@
         <v>45092</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26277,7 +26277,7 @@
         <v>45092</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26334,7 +26334,7 @@
         <v>45097</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26391,7 +26391,7 @@
         <v>45097</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26448,7 +26448,7 @@
         <v>45097</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26505,7 +26505,7 @@
         <v>45097</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26562,7 +26562,7 @@
         <v>45099</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26619,7 +26619,7 @@
         <v>45109</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26676,7 +26676,7 @@
         <v>45109</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26733,7 +26733,7 @@
         <v>45110</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26790,7 +26790,7 @@
         <v>45110</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -26847,7 +26847,7 @@
         <v>45114</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -26904,7 +26904,7 @@
         <v>45117</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -26961,7 +26961,7 @@
         <v>45128</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27018,7 +27018,7 @@
         <v>45131</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27075,7 +27075,7 @@
         <v>45145</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27132,7 +27132,7 @@
         <v>45149</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27189,7 +27189,7 @@
         <v>45153</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27251,7 +27251,7 @@
         <v>45153</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27308,7 +27308,7 @@
         <v>45154</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27365,7 +27365,7 @@
         <v>45155</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27422,7 +27422,7 @@
         <v>45162</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27479,7 +27479,7 @@
         <v>45163</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27536,7 +27536,7 @@
         <v>45167</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27593,7 +27593,7 @@
         <v>45167</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27650,7 +27650,7 @@
         <v>45170</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27707,7 +27707,7 @@
         <v>45170</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>

--- a/Översikt HYLTE.xlsx
+++ b/Översikt HYLTE.xlsx
@@ -572,7 +572,7 @@
         <v>43986</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44873</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43923</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43769</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>44693</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>43342</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
         <v>43467</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>43983</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         <v>44601</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         <v>43319</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1404,7 +1404,7 @@
         <v>43348</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1461,7 +1461,7 @@
         <v>43374</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1518,7 +1518,7 @@
         <v>43409</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1632,7 +1632,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1689,7 +1689,7 @@
         <v>43413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         <v>43415</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>43415</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1860,7 +1860,7 @@
         <v>43415</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         <v>43418</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1974,7 +1974,7 @@
         <v>43419</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>43420</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>43420</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>43423</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         <v>43423</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>43425</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>43431</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
         <v>43432</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>43432</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>43432</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>43432</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>43432</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>43433</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>43433</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>43433</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>43433</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>43437</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>43437</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>43437</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         <v>43437</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>43437</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>43437</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         <v>43441</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         <v>43441</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3342,7 +3342,7 @@
         <v>43445</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         <v>43447</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>43447</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>43447</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3570,7 +3570,7 @@
         <v>43454</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         <v>43467</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
         <v>43467</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3741,7 +3741,7 @@
         <v>43467</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>43467</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3855,7 +3855,7 @@
         <v>43468</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
         <v>43468</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3969,7 +3969,7 @@
         <v>43468</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4026,7 +4026,7 @@
         <v>43472</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
         <v>43472</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4140,7 +4140,7 @@
         <v>43472</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4197,7 +4197,7 @@
         <v>43472</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4254,7 +4254,7 @@
         <v>43472</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         <v>43473</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>43473</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>43473</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>43473</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         <v>43475</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
         <v>43475</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>43475</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>43476</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4767,7 +4767,7 @@
         <v>43479</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>43479</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4881,7 +4881,7 @@
         <v>43482</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4938,7 +4938,7 @@
         <v>43483</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43493</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>43503</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>43503</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>43505</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         <v>43516</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>43516</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>43516</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>43516</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>43516</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5508,7 +5508,7 @@
         <v>43521</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
         <v>43523</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         <v>43524</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5679,7 +5679,7 @@
         <v>43528</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         <v>43531</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>43535</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         <v>43536</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>43536</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>43542</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>43542</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>43542</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>43542</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>43544</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>43545</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>43545</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>43549</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>43549</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>43550</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>43550</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>43552</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>43552</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>43553</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>43557</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6824,7 +6824,7 @@
         <v>43558</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>43558</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>43563</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         <v>43564</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>43564</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>43565</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>43566</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>43570</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>43573</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>43581</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>43584</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43587</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7508,7 +7508,7 @@
         <v>43606</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7565,7 +7565,7 @@
         <v>43612</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7622,7 +7622,7 @@
         <v>43612</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7679,7 +7679,7 @@
         <v>43612</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7736,7 +7736,7 @@
         <v>43616</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         <v>43619</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7850,7 +7850,7 @@
         <v>43620</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>43620</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>43656</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8021,7 +8021,7 @@
         <v>43658</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>43663</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8135,7 +8135,7 @@
         <v>43664</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8192,7 +8192,7 @@
         <v>43665</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8249,7 +8249,7 @@
         <v>43665</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         <v>43668</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8363,7 +8363,7 @@
         <v>43668</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8420,7 +8420,7 @@
         <v>43668</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8477,7 +8477,7 @@
         <v>43668</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8534,7 +8534,7 @@
         <v>43682</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8591,7 +8591,7 @@
         <v>43682</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         <v>43682</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         <v>43682</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8762,7 +8762,7 @@
         <v>43682</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8819,7 +8819,7 @@
         <v>43689</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>43705</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8933,7 +8933,7 @@
         <v>43706</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8990,7 +8990,7 @@
         <v>43712</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9047,7 +9047,7 @@
         <v>43712</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9104,7 +9104,7 @@
         <v>43712</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9161,7 +9161,7 @@
         <v>43731</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9218,7 +9218,7 @@
         <v>43731</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9275,7 +9275,7 @@
         <v>43732</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9332,7 +9332,7 @@
         <v>43738</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9389,7 +9389,7 @@
         <v>43739</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9446,7 +9446,7 @@
         <v>43739</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>43741</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9560,7 +9560,7 @@
         <v>43742</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>43742</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>43742</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>43768</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>43770</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>43774</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>43775</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9959,7 +9959,7 @@
         <v>43775</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10016,7 +10016,7 @@
         <v>43790</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>43796</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10130,7 +10130,7 @@
         <v>43803</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10187,7 +10187,7 @@
         <v>43837</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>43837</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>43839</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10358,7 +10358,7 @@
         <v>43846</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>43850</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10472,7 +10472,7 @@
         <v>43852</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10529,7 +10529,7 @@
         <v>43854</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10586,7 +10586,7 @@
         <v>43858</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10643,7 +10643,7 @@
         <v>43859</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10705,7 +10705,7 @@
         <v>43871</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10762,7 +10762,7 @@
         <v>43871</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         <v>43875</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10876,7 +10876,7 @@
         <v>43880</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10933,7 +10933,7 @@
         <v>43880</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10990,7 +10990,7 @@
         <v>43886</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11052,7 +11052,7 @@
         <v>43901</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11109,7 +11109,7 @@
         <v>43901</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11166,7 +11166,7 @@
         <v>43901</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11223,7 +11223,7 @@
         <v>43903</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11280,7 +11280,7 @@
         <v>43908</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11337,7 +11337,7 @@
         <v>43908</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11394,7 +11394,7 @@
         <v>43913</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>43916</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11508,7 +11508,7 @@
         <v>43916</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>43927</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>43936</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>43937</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>43941</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>43943</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         <v>43943</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11907,7 +11907,7 @@
         <v>43949</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>43957</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>43957</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>43963</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>43966</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>43969</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>43983</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         <v>43983</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12363,7 +12363,7 @@
         <v>43983</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         <v>44000</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12477,7 +12477,7 @@
         <v>44007</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         <v>44019</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12591,7 +12591,7 @@
         <v>44020</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12648,7 +12648,7 @@
         <v>44020</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>44020</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12762,7 +12762,7 @@
         <v>44021</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12819,7 +12819,7 @@
         <v>44021</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12881,7 +12881,7 @@
         <v>44022</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12938,7 +12938,7 @@
         <v>44022</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12995,7 +12995,7 @@
         <v>44025</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13052,7 +13052,7 @@
         <v>44028</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13109,7 +13109,7 @@
         <v>44036</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13166,7 +13166,7 @@
         <v>44039</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13223,7 +13223,7 @@
         <v>44041</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13280,7 +13280,7 @@
         <v>44043</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13337,7 +13337,7 @@
         <v>44046</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13394,7 +13394,7 @@
         <v>44055</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13451,7 +13451,7 @@
         <v>44060</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>44062</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         <v>44088</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         <v>44092</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13679,7 +13679,7 @@
         <v>44095</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13736,7 +13736,7 @@
         <v>44095</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13793,7 +13793,7 @@
         <v>44095</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>44103</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>44107</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44107</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44122</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44122</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>44123</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>44123</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>44124</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>44132</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>44132</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>44133</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>44133</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44140</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44141</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>44144</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>44145</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>44146</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>44146</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14891,7 +14891,7 @@
         <v>44147</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>44147</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>44147</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15062,7 +15062,7 @@
         <v>44147</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>44147</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44159</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44159</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15290,7 +15290,7 @@
         <v>44162</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>44166</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15404,7 +15404,7 @@
         <v>44168</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15461,7 +15461,7 @@
         <v>44172</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15518,7 +15518,7 @@
         <v>44173</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15575,7 +15575,7 @@
         <v>44174</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15632,7 +15632,7 @@
         <v>44174</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15689,7 +15689,7 @@
         <v>44180</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         <v>44187</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15803,7 +15803,7 @@
         <v>44193</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>44199</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>44210</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15974,7 +15974,7 @@
         <v>44216</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16031,7 +16031,7 @@
         <v>44221</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16088,7 +16088,7 @@
         <v>44224</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16145,7 +16145,7 @@
         <v>44230</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16202,7 +16202,7 @@
         <v>44230</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16259,7 +16259,7 @@
         <v>44231</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16316,7 +16316,7 @@
         <v>44236</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16373,7 +16373,7 @@
         <v>44236</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16430,7 +16430,7 @@
         <v>44236</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16487,7 +16487,7 @@
         <v>44238</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16544,7 +16544,7 @@
         <v>44242</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16601,7 +16601,7 @@
         <v>44243</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16658,7 +16658,7 @@
         <v>44245</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16715,7 +16715,7 @@
         <v>44250</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16772,7 +16772,7 @@
         <v>44250</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16829,7 +16829,7 @@
         <v>44251</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>44256</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16943,7 +16943,7 @@
         <v>44261</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         <v>44263</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         <v>44263</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17119,7 +17119,7 @@
         <v>44266</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
         <v>44266</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17243,7 +17243,7 @@
         <v>44267</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17305,7 +17305,7 @@
         <v>44267</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17367,7 +17367,7 @@
         <v>44267</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17429,7 +17429,7 @@
         <v>44267</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17491,7 +17491,7 @@
         <v>44267</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17553,7 +17553,7 @@
         <v>44278</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17610,7 +17610,7 @@
         <v>44295</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17667,7 +17667,7 @@
         <v>44298</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17724,7 +17724,7 @@
         <v>44298</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17781,7 +17781,7 @@
         <v>44302</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
         <v>44302</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>44307</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17952,7 +17952,7 @@
         <v>44322</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18009,7 +18009,7 @@
         <v>44322</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         <v>44335</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18123,7 +18123,7 @@
         <v>44336</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18180,7 +18180,7 @@
         <v>44340</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>44356</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18294,7 +18294,7 @@
         <v>44356</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18351,7 +18351,7 @@
         <v>44357</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
         <v>44357</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18470,7 +18470,7 @@
         <v>44363</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18527,7 +18527,7 @@
         <v>44365</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18584,7 +18584,7 @@
         <v>44371</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18641,7 +18641,7 @@
         <v>44371</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18698,7 +18698,7 @@
         <v>44375</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18755,7 +18755,7 @@
         <v>44378</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18812,7 +18812,7 @@
         <v>44384</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18869,7 +18869,7 @@
         <v>44389</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18926,7 +18926,7 @@
         <v>44407</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18983,7 +18983,7 @@
         <v>44427</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19040,7 +19040,7 @@
         <v>44442</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19097,7 +19097,7 @@
         <v>44448</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19154,7 +19154,7 @@
         <v>44454</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19211,7 +19211,7 @@
         <v>44454</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19268,7 +19268,7 @@
         <v>44454</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19325,7 +19325,7 @@
         <v>44455</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19382,7 +19382,7 @@
         <v>44469</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19439,7 +19439,7 @@
         <v>44475</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19496,7 +19496,7 @@
         <v>44476</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19553,7 +19553,7 @@
         <v>44477</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19610,7 +19610,7 @@
         <v>44477</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19667,7 +19667,7 @@
         <v>44480</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19724,7 +19724,7 @@
         <v>44481</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19781,7 +19781,7 @@
         <v>44482</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19838,7 +19838,7 @@
         <v>44483</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19895,7 +19895,7 @@
         <v>44483</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -19952,7 +19952,7 @@
         <v>44487</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20014,7 +20014,7 @@
         <v>44487</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20076,7 +20076,7 @@
         <v>44488</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         <v>44489</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20190,7 +20190,7 @@
         <v>44489</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20247,7 +20247,7 @@
         <v>44489</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20304,7 +20304,7 @@
         <v>44501</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20361,7 +20361,7 @@
         <v>44502</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20418,7 +20418,7 @@
         <v>44508</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20475,7 +20475,7 @@
         <v>44510</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20532,7 +20532,7 @@
         <v>44515</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20594,7 +20594,7 @@
         <v>44529</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20651,7 +20651,7 @@
         <v>44530</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20708,7 +20708,7 @@
         <v>44557</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20765,7 +20765,7 @@
         <v>44559</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20822,7 +20822,7 @@
         <v>44559</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20879,7 +20879,7 @@
         <v>44573</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -20936,7 +20936,7 @@
         <v>44573</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -20993,7 +20993,7 @@
         <v>44575</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21050,7 +21050,7 @@
         <v>44592</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21107,7 +21107,7 @@
         <v>44592</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21164,7 +21164,7 @@
         <v>44596</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21226,7 +21226,7 @@
         <v>44600</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
         <v>44607</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>44613</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21397,7 +21397,7 @@
         <v>44621</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44631</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44634</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44637</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>44644</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21687,7 +21687,7 @@
         <v>44655</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         <v>44659</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21806,7 +21806,7 @@
         <v>44659</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>44659</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>44659</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -21987,7 +21987,7 @@
         <v>44671</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>44671</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>44693</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>44697</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>44711</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>44712</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>44714</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>44714</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22448,7 +22448,7 @@
         <v>44719</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22505,7 +22505,7 @@
         <v>44735</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22562,7 +22562,7 @@
         <v>44735</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22619,7 +22619,7 @@
         <v>44735</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22676,7 +22676,7 @@
         <v>44753</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22733,7 +22733,7 @@
         <v>44756</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22790,7 +22790,7 @@
         <v>44756</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22847,7 +22847,7 @@
         <v>44762</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -22904,7 +22904,7 @@
         <v>44778</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -22961,7 +22961,7 @@
         <v>44778</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23018,7 +23018,7 @@
         <v>44778</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23075,7 +23075,7 @@
         <v>44817</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23132,7 +23132,7 @@
         <v>44823</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23189,7 +23189,7 @@
         <v>44830</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23246,7 +23246,7 @@
         <v>44830</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23303,7 +23303,7 @@
         <v>44845</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23360,7 +23360,7 @@
         <v>44847</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23417,7 +23417,7 @@
         <v>44847</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23474,7 +23474,7 @@
         <v>44847</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23531,7 +23531,7 @@
         <v>44865</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23588,7 +23588,7 @@
         <v>44865</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23645,7 +23645,7 @@
         <v>44868</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23702,7 +23702,7 @@
         <v>44869</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23759,7 +23759,7 @@
         <v>44872</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23816,7 +23816,7 @@
         <v>44873</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -23873,7 +23873,7 @@
         <v>44876</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -23930,7 +23930,7 @@
         <v>44887</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -23987,7 +23987,7 @@
         <v>44889</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24044,7 +24044,7 @@
         <v>44893</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24101,7 +24101,7 @@
         <v>44900</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24158,7 +24158,7 @@
         <v>44900</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24215,7 +24215,7 @@
         <v>44900</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24272,7 +24272,7 @@
         <v>44900</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24329,7 +24329,7 @@
         <v>44903</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         <v>44903</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24443,7 +24443,7 @@
         <v>44926</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24505,7 +24505,7 @@
         <v>44951</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24562,7 +24562,7 @@
         <v>44964</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24619,7 +24619,7 @@
         <v>44964</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24676,7 +24676,7 @@
         <v>44970</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24733,7 +24733,7 @@
         <v>44970</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24790,7 +24790,7 @@
         <v>44974</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -24847,7 +24847,7 @@
         <v>44974</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -24904,7 +24904,7 @@
         <v>44974</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -24961,7 +24961,7 @@
         <v>44980</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25018,7 +25018,7 @@
         <v>44999</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         <v>45013</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25132,7 +25132,7 @@
         <v>45019</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25189,7 +25189,7 @@
         <v>45019</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25246,7 +25246,7 @@
         <v>45020</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25303,7 +25303,7 @@
         <v>45030</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25365,7 +25365,7 @@
         <v>45037</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25422,7 +25422,7 @@
         <v>45040</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25479,7 +25479,7 @@
         <v>45044</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25536,7 +25536,7 @@
         <v>45058</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25593,7 +25593,7 @@
         <v>45061</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25650,7 +25650,7 @@
         <v>45062</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25707,7 +25707,7 @@
         <v>45063</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25764,7 +25764,7 @@
         <v>45070</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25821,7 +25821,7 @@
         <v>45070</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -25878,7 +25878,7 @@
         <v>45070</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -25935,7 +25935,7 @@
         <v>45075</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -25992,7 +25992,7 @@
         <v>45084</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26049,7 +26049,7 @@
         <v>45084</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26106,7 +26106,7 @@
         <v>45089</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26163,7 +26163,7 @@
         <v>45091</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26220,7 +26220,7 @@
         <v>45092</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26277,7 +26277,7 @@
         <v>45092</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26334,7 +26334,7 @@
         <v>45097</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26391,7 +26391,7 @@
         <v>45097</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26448,7 +26448,7 @@
         <v>45097</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26505,7 +26505,7 @@
         <v>45097</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26562,7 +26562,7 @@
         <v>45099</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26619,7 +26619,7 @@
         <v>45109</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26676,7 +26676,7 @@
         <v>45109</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26733,7 +26733,7 @@
         <v>45110</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26790,7 +26790,7 @@
         <v>45110</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -26847,7 +26847,7 @@
         <v>45114</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -26904,7 +26904,7 @@
         <v>45117</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -26961,7 +26961,7 @@
         <v>45128</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27018,7 +27018,7 @@
         <v>45131</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27075,7 +27075,7 @@
         <v>45145</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27132,7 +27132,7 @@
         <v>45149</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27189,7 +27189,7 @@
         <v>45153</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27251,7 +27251,7 @@
         <v>45153</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27308,7 +27308,7 @@
         <v>45154</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27365,7 +27365,7 @@
         <v>45155</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27422,7 +27422,7 @@
         <v>45162</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27479,7 +27479,7 @@
         <v>45163</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27536,7 +27536,7 @@
         <v>45167</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27593,7 +27593,7 @@
         <v>45167</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27650,7 +27650,7 @@
         <v>45170</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27707,7 +27707,7 @@
         <v>45170</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>

--- a/Översikt HYLTE.xlsx
+++ b/Översikt HYLTE.xlsx
@@ -572,7 +572,7 @@
         <v>43986</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44873</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43923</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43769</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>44693</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>43342</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
         <v>43467</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>43983</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         <v>44601</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         <v>43319</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1404,7 +1404,7 @@
         <v>43348</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1461,7 +1461,7 @@
         <v>43374</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1518,7 +1518,7 @@
         <v>43409</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1632,7 +1632,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1689,7 +1689,7 @@
         <v>43413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         <v>43415</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>43415</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1860,7 +1860,7 @@
         <v>43415</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         <v>43418</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1974,7 +1974,7 @@
         <v>43419</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>43420</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>43420</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>43423</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         <v>43423</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>43425</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>43431</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
         <v>43432</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>43432</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>43432</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>43432</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>43432</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>43433</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>43433</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>43433</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>43433</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>43437</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>43437</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>43437</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         <v>43437</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>43437</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>43437</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         <v>43441</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         <v>43441</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3342,7 +3342,7 @@
         <v>43445</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         <v>43447</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>43447</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>43447</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3570,7 +3570,7 @@
         <v>43454</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         <v>43467</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
         <v>43467</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3741,7 +3741,7 @@
         <v>43467</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>43467</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3855,7 +3855,7 @@
         <v>43468</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
         <v>43468</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3969,7 +3969,7 @@
         <v>43468</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4026,7 +4026,7 @@
         <v>43472</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
         <v>43472</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4140,7 +4140,7 @@
         <v>43472</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4197,7 +4197,7 @@
         <v>43472</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4254,7 +4254,7 @@
         <v>43472</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         <v>43473</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>43473</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>43473</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>43473</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         <v>43475</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
         <v>43475</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>43475</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>43476</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4767,7 +4767,7 @@
         <v>43479</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>43479</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4881,7 +4881,7 @@
         <v>43482</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4938,7 +4938,7 @@
         <v>43483</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43493</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>43503</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>43503</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>43505</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         <v>43516</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>43516</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>43516</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>43516</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>43516</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5508,7 +5508,7 @@
         <v>43521</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
         <v>43523</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         <v>43524</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5679,7 +5679,7 @@
         <v>43528</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         <v>43531</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>43535</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         <v>43536</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>43536</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>43542</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>43542</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>43542</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>43542</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>43544</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>43545</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>43545</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>43549</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>43549</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>43550</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>43550</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>43552</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>43552</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>43553</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>43557</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6824,7 +6824,7 @@
         <v>43558</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>43558</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>43563</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         <v>43564</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>43564</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>43565</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>43566</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>43570</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>43573</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>43581</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>43584</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43587</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7508,7 +7508,7 @@
         <v>43606</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7565,7 +7565,7 @@
         <v>43612</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7622,7 +7622,7 @@
         <v>43612</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7679,7 +7679,7 @@
         <v>43612</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7736,7 +7736,7 @@
         <v>43616</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         <v>43619</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7850,7 +7850,7 @@
         <v>43620</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>43620</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>43656</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8021,7 +8021,7 @@
         <v>43658</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>43663</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8135,7 +8135,7 @@
         <v>43664</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8192,7 +8192,7 @@
         <v>43665</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8249,7 +8249,7 @@
         <v>43665</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         <v>43668</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8363,7 +8363,7 @@
         <v>43668</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8420,7 +8420,7 @@
         <v>43668</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8477,7 +8477,7 @@
         <v>43668</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8534,7 +8534,7 @@
         <v>43682</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8591,7 +8591,7 @@
         <v>43682</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         <v>43682</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         <v>43682</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8762,7 +8762,7 @@
         <v>43682</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8819,7 +8819,7 @@
         <v>43689</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>43705</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8933,7 +8933,7 @@
         <v>43706</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8990,7 +8990,7 @@
         <v>43712</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9047,7 +9047,7 @@
         <v>43712</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9104,7 +9104,7 @@
         <v>43712</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9161,7 +9161,7 @@
         <v>43731</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9218,7 +9218,7 @@
         <v>43731</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9275,7 +9275,7 @@
         <v>43732</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9332,7 +9332,7 @@
         <v>43738</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9389,7 +9389,7 @@
         <v>43739</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9446,7 +9446,7 @@
         <v>43739</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>43741</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9560,7 +9560,7 @@
         <v>43742</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>43742</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>43742</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>43768</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>43770</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>43774</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>43775</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9959,7 +9959,7 @@
         <v>43775</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10016,7 +10016,7 @@
         <v>43790</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>43796</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10130,7 +10130,7 @@
         <v>43803</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10187,7 +10187,7 @@
         <v>43837</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>43837</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>43839</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10358,7 +10358,7 @@
         <v>43846</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>43850</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10472,7 +10472,7 @@
         <v>43852</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10529,7 +10529,7 @@
         <v>43854</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10586,7 +10586,7 @@
         <v>43858</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10643,7 +10643,7 @@
         <v>43859</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10705,7 +10705,7 @@
         <v>43871</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10762,7 +10762,7 @@
         <v>43871</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         <v>43875</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10876,7 +10876,7 @@
         <v>43880</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10933,7 +10933,7 @@
         <v>43880</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10990,7 +10990,7 @@
         <v>43886</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11052,7 +11052,7 @@
         <v>43901</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11109,7 +11109,7 @@
         <v>43901</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11166,7 +11166,7 @@
         <v>43901</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11223,7 +11223,7 @@
         <v>43903</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11280,7 +11280,7 @@
         <v>43908</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11337,7 +11337,7 @@
         <v>43908</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11394,7 +11394,7 @@
         <v>43913</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>43916</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11508,7 +11508,7 @@
         <v>43916</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>43927</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>43936</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>43937</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>43941</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>43943</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         <v>43943</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11907,7 +11907,7 @@
         <v>43949</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>43957</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>43957</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>43963</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>43966</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>43969</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>43983</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         <v>43983</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12363,7 +12363,7 @@
         <v>43983</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         <v>44000</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12477,7 +12477,7 @@
         <v>44007</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         <v>44019</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12591,7 +12591,7 @@
         <v>44020</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12648,7 +12648,7 @@
         <v>44020</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>44020</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12762,7 +12762,7 @@
         <v>44021</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12819,7 +12819,7 @@
         <v>44021</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12881,7 +12881,7 @@
         <v>44022</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12938,7 +12938,7 @@
         <v>44022</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12995,7 +12995,7 @@
         <v>44025</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13052,7 +13052,7 @@
         <v>44028</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13109,7 +13109,7 @@
         <v>44036</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13166,7 +13166,7 @@
         <v>44039</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13223,7 +13223,7 @@
         <v>44041</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13280,7 +13280,7 @@
         <v>44043</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13337,7 +13337,7 @@
         <v>44046</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13394,7 +13394,7 @@
         <v>44055</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13451,7 +13451,7 @@
         <v>44060</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>44062</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         <v>44088</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         <v>44092</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13679,7 +13679,7 @@
         <v>44095</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13736,7 +13736,7 @@
         <v>44095</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13793,7 +13793,7 @@
         <v>44095</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>44103</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>44107</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44107</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44122</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44122</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>44123</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>44123</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>44124</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>44132</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>44132</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>44133</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>44133</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44140</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44141</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>44144</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>44145</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>44146</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>44146</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14891,7 +14891,7 @@
         <v>44147</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>44147</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>44147</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15062,7 +15062,7 @@
         <v>44147</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>44147</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44159</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44159</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15290,7 +15290,7 @@
         <v>44162</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>44166</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15404,7 +15404,7 @@
         <v>44168</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15461,7 +15461,7 @@
         <v>44172</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15518,7 +15518,7 @@
         <v>44173</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15575,7 +15575,7 @@
         <v>44174</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15632,7 +15632,7 @@
         <v>44174</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15689,7 +15689,7 @@
         <v>44180</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         <v>44187</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15803,7 +15803,7 @@
         <v>44193</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>44199</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>44210</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15974,7 +15974,7 @@
         <v>44216</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16031,7 +16031,7 @@
         <v>44221</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16088,7 +16088,7 @@
         <v>44224</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16145,7 +16145,7 @@
         <v>44230</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16202,7 +16202,7 @@
         <v>44230</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16259,7 +16259,7 @@
         <v>44231</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16316,7 +16316,7 @@
         <v>44236</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16373,7 +16373,7 @@
         <v>44236</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16430,7 +16430,7 @@
         <v>44236</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16487,7 +16487,7 @@
         <v>44238</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16544,7 +16544,7 @@
         <v>44242</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16601,7 +16601,7 @@
         <v>44243</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16658,7 +16658,7 @@
         <v>44245</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16715,7 +16715,7 @@
         <v>44250</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16772,7 +16772,7 @@
         <v>44250</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16829,7 +16829,7 @@
         <v>44251</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>44256</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16943,7 +16943,7 @@
         <v>44261</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         <v>44263</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         <v>44263</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17119,7 +17119,7 @@
         <v>44266</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
         <v>44266</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17243,7 +17243,7 @@
         <v>44267</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17305,7 +17305,7 @@
         <v>44267</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17367,7 +17367,7 @@
         <v>44267</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17429,7 +17429,7 @@
         <v>44267</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17491,7 +17491,7 @@
         <v>44267</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17553,7 +17553,7 @@
         <v>44278</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17610,7 +17610,7 @@
         <v>44295</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17667,7 +17667,7 @@
         <v>44298</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17724,7 +17724,7 @@
         <v>44298</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17781,7 +17781,7 @@
         <v>44302</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
         <v>44302</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>44307</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17952,7 +17952,7 @@
         <v>44322</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18009,7 +18009,7 @@
         <v>44322</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         <v>44335</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18123,7 +18123,7 @@
         <v>44336</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18180,7 +18180,7 @@
         <v>44340</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>44356</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18294,7 +18294,7 @@
         <v>44356</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18351,7 +18351,7 @@
         <v>44357</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
         <v>44357</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18470,7 +18470,7 @@
         <v>44363</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18527,7 +18527,7 @@
         <v>44365</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18584,7 +18584,7 @@
         <v>44371</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18641,7 +18641,7 @@
         <v>44371</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18698,7 +18698,7 @@
         <v>44375</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18755,7 +18755,7 @@
         <v>44378</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18812,7 +18812,7 @@
         <v>44384</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18869,7 +18869,7 @@
         <v>44389</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18926,7 +18926,7 @@
         <v>44407</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18983,7 +18983,7 @@
         <v>44427</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19040,7 +19040,7 @@
         <v>44442</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19097,7 +19097,7 @@
         <v>44448</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19154,7 +19154,7 @@
         <v>44454</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19211,7 +19211,7 @@
         <v>44454</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19268,7 +19268,7 @@
         <v>44454</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19325,7 +19325,7 @@
         <v>44455</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19382,7 +19382,7 @@
         <v>44469</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19439,7 +19439,7 @@
         <v>44475</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19496,7 +19496,7 @@
         <v>44476</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19553,7 +19553,7 @@
         <v>44477</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19610,7 +19610,7 @@
         <v>44477</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19667,7 +19667,7 @@
         <v>44480</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19724,7 +19724,7 @@
         <v>44481</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19781,7 +19781,7 @@
         <v>44482</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19838,7 +19838,7 @@
         <v>44483</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19895,7 +19895,7 @@
         <v>44483</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -19952,7 +19952,7 @@
         <v>44487</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20014,7 +20014,7 @@
         <v>44487</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20076,7 +20076,7 @@
         <v>44488</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         <v>44489</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20190,7 +20190,7 @@
         <v>44489</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20247,7 +20247,7 @@
         <v>44489</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20304,7 +20304,7 @@
         <v>44501</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20361,7 +20361,7 @@
         <v>44502</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20418,7 +20418,7 @@
         <v>44508</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20475,7 +20475,7 @@
         <v>44510</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20532,7 +20532,7 @@
         <v>44515</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20594,7 +20594,7 @@
         <v>44529</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20651,7 +20651,7 @@
         <v>44530</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20708,7 +20708,7 @@
         <v>44557</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20765,7 +20765,7 @@
         <v>44559</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20822,7 +20822,7 @@
         <v>44559</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20879,7 +20879,7 @@
         <v>44573</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -20936,7 +20936,7 @@
         <v>44573</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -20993,7 +20993,7 @@
         <v>44575</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21050,7 +21050,7 @@
         <v>44592</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21107,7 +21107,7 @@
         <v>44592</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21164,7 +21164,7 @@
         <v>44596</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21226,7 +21226,7 @@
         <v>44600</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
         <v>44607</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>44613</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21397,7 +21397,7 @@
         <v>44621</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44631</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44634</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44637</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>44644</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21687,7 +21687,7 @@
         <v>44655</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         <v>44659</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21806,7 +21806,7 @@
         <v>44659</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>44659</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>44659</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -21987,7 +21987,7 @@
         <v>44671</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>44671</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>44693</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>44697</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>44711</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>44712</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>44714</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>44714</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22448,7 +22448,7 @@
         <v>44719</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22505,7 +22505,7 @@
         <v>44735</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22562,7 +22562,7 @@
         <v>44735</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22619,7 +22619,7 @@
         <v>44735</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22676,7 +22676,7 @@
         <v>44753</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22733,7 +22733,7 @@
         <v>44756</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22790,7 +22790,7 @@
         <v>44756</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22847,7 +22847,7 @@
         <v>44762</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -22904,7 +22904,7 @@
         <v>44778</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -22961,7 +22961,7 @@
         <v>44778</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23018,7 +23018,7 @@
         <v>44778</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23075,7 +23075,7 @@
         <v>44817</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23132,7 +23132,7 @@
         <v>44823</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23189,7 +23189,7 @@
         <v>44830</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23246,7 +23246,7 @@
         <v>44830</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23303,7 +23303,7 @@
         <v>44845</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23360,7 +23360,7 @@
         <v>44847</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23417,7 +23417,7 @@
         <v>44847</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23474,7 +23474,7 @@
         <v>44847</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23531,7 +23531,7 @@
         <v>44865</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23588,7 +23588,7 @@
         <v>44865</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23645,7 +23645,7 @@
         <v>44868</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23702,7 +23702,7 @@
         <v>44869</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23759,7 +23759,7 @@
         <v>44872</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23816,7 +23816,7 @@
         <v>44873</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -23873,7 +23873,7 @@
         <v>44876</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -23930,7 +23930,7 @@
         <v>44887</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -23987,7 +23987,7 @@
         <v>44889</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24044,7 +24044,7 @@
         <v>44893</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24101,7 +24101,7 @@
         <v>44900</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24158,7 +24158,7 @@
         <v>44900</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24215,7 +24215,7 @@
         <v>44900</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24272,7 +24272,7 @@
         <v>44900</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24329,7 +24329,7 @@
         <v>44903</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         <v>44903</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24443,7 +24443,7 @@
         <v>44926</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24505,7 +24505,7 @@
         <v>44951</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24562,7 +24562,7 @@
         <v>44964</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24619,7 +24619,7 @@
         <v>44964</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24676,7 +24676,7 @@
         <v>44970</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24733,7 +24733,7 @@
         <v>44970</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24790,7 +24790,7 @@
         <v>44974</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -24847,7 +24847,7 @@
         <v>44974</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -24904,7 +24904,7 @@
         <v>44974</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -24961,7 +24961,7 @@
         <v>44980</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25018,7 +25018,7 @@
         <v>44999</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         <v>45013</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25132,7 +25132,7 @@
         <v>45019</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25189,7 +25189,7 @@
         <v>45019</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25246,7 +25246,7 @@
         <v>45020</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25303,7 +25303,7 @@
         <v>45030</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25365,7 +25365,7 @@
         <v>45037</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25422,7 +25422,7 @@
         <v>45040</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25479,7 +25479,7 @@
         <v>45044</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25536,7 +25536,7 @@
         <v>45058</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25593,7 +25593,7 @@
         <v>45061</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25650,7 +25650,7 @@
         <v>45062</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25707,7 +25707,7 @@
         <v>45063</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25764,7 +25764,7 @@
         <v>45070</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25821,7 +25821,7 @@
         <v>45070</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -25878,7 +25878,7 @@
         <v>45070</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -25935,7 +25935,7 @@
         <v>45075</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -25992,7 +25992,7 @@
         <v>45084</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26049,7 +26049,7 @@
         <v>45084</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26106,7 +26106,7 @@
         <v>45089</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26163,7 +26163,7 @@
         <v>45091</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26220,7 +26220,7 @@
         <v>45092</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26277,7 +26277,7 @@
         <v>45092</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26334,7 +26334,7 @@
         <v>45097</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26391,7 +26391,7 @@
         <v>45097</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26448,7 +26448,7 @@
         <v>45097</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26505,7 +26505,7 @@
         <v>45097</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26562,7 +26562,7 @@
         <v>45099</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26619,7 +26619,7 @@
         <v>45109</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26676,7 +26676,7 @@
         <v>45109</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26733,7 +26733,7 @@
         <v>45110</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26790,7 +26790,7 @@
         <v>45110</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -26847,7 +26847,7 @@
         <v>45114</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -26904,7 +26904,7 @@
         <v>45117</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -26961,7 +26961,7 @@
         <v>45128</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27018,7 +27018,7 @@
         <v>45131</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27075,7 +27075,7 @@
         <v>45145</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27132,7 +27132,7 @@
         <v>45149</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27189,7 +27189,7 @@
         <v>45153</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27251,7 +27251,7 @@
         <v>45153</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27308,7 +27308,7 @@
         <v>45154</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27365,7 +27365,7 @@
         <v>45155</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27422,7 +27422,7 @@
         <v>45162</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27479,7 +27479,7 @@
         <v>45163</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27536,7 +27536,7 @@
         <v>45167</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27593,7 +27593,7 @@
         <v>45167</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27650,7 +27650,7 @@
         <v>45170</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27707,7 +27707,7 @@
         <v>45170</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>

--- a/Översikt HYLTE.xlsx
+++ b/Översikt HYLTE.xlsx
@@ -572,7 +572,7 @@
         <v>43986</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44873</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43923</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43769</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>44693</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>43342</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
         <v>43467</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>43983</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         <v>44601</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         <v>43319</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1404,7 +1404,7 @@
         <v>43348</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1461,7 +1461,7 @@
         <v>43374</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1518,7 +1518,7 @@
         <v>43409</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1632,7 +1632,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1689,7 +1689,7 @@
         <v>43413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         <v>43415</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>43415</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1860,7 +1860,7 @@
         <v>43415</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         <v>43418</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1974,7 +1974,7 @@
         <v>43419</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>43420</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>43420</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>43423</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         <v>43423</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>43425</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>43431</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
         <v>43432</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>43432</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>43432</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>43432</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>43432</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>43433</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>43433</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>43433</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>43433</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>43437</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>43437</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>43437</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         <v>43437</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>43437</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>43437</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         <v>43441</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         <v>43441</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3342,7 +3342,7 @@
         <v>43445</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         <v>43447</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>43447</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>43447</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3570,7 +3570,7 @@
         <v>43454</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         <v>43467</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
         <v>43467</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3741,7 +3741,7 @@
         <v>43467</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>43467</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3855,7 +3855,7 @@
         <v>43468</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
         <v>43468</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3969,7 +3969,7 @@
         <v>43468</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4026,7 +4026,7 @@
         <v>43472</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
         <v>43472</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4140,7 +4140,7 @@
         <v>43472</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4197,7 +4197,7 @@
         <v>43472</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4254,7 +4254,7 @@
         <v>43472</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         <v>43473</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>43473</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>43473</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>43473</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         <v>43475</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
         <v>43475</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>43475</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>43476</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4767,7 +4767,7 @@
         <v>43479</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>43479</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4881,7 +4881,7 @@
         <v>43482</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4938,7 +4938,7 @@
         <v>43483</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43493</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>43503</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>43503</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>43505</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         <v>43516</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>43516</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>43516</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>43516</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>43516</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5508,7 +5508,7 @@
         <v>43521</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
         <v>43523</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         <v>43524</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5679,7 +5679,7 @@
         <v>43528</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         <v>43531</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>43535</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         <v>43536</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>43536</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>43542</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>43542</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>43542</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>43542</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>43544</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>43545</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>43545</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>43549</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>43549</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>43550</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>43550</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>43552</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>43552</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>43553</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>43557</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6824,7 +6824,7 @@
         <v>43558</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>43558</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>43563</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         <v>43564</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>43564</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>43565</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>43566</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>43570</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>43573</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>43581</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>43584</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43587</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7508,7 +7508,7 @@
         <v>43606</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7565,7 +7565,7 @@
         <v>43612</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7622,7 +7622,7 @@
         <v>43612</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7679,7 +7679,7 @@
         <v>43612</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7736,7 +7736,7 @@
         <v>43616</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         <v>43619</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7850,7 +7850,7 @@
         <v>43620</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>43620</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>43656</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8021,7 +8021,7 @@
         <v>43658</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>43663</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8135,7 +8135,7 @@
         <v>43664</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8192,7 +8192,7 @@
         <v>43665</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8249,7 +8249,7 @@
         <v>43665</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         <v>43668</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8363,7 +8363,7 @@
         <v>43668</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8420,7 +8420,7 @@
         <v>43668</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8477,7 +8477,7 @@
         <v>43668</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8534,7 +8534,7 @@
         <v>43682</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8591,7 +8591,7 @@
         <v>43682</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         <v>43682</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         <v>43682</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8762,7 +8762,7 @@
         <v>43682</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8819,7 +8819,7 @@
         <v>43689</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>43705</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8933,7 +8933,7 @@
         <v>43706</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8990,7 +8990,7 @@
         <v>43712</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9047,7 +9047,7 @@
         <v>43712</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9104,7 +9104,7 @@
         <v>43712</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9161,7 +9161,7 @@
         <v>43731</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9218,7 +9218,7 @@
         <v>43731</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9275,7 +9275,7 @@
         <v>43732</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9332,7 +9332,7 @@
         <v>43738</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9389,7 +9389,7 @@
         <v>43739</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9446,7 +9446,7 @@
         <v>43739</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>43741</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9560,7 +9560,7 @@
         <v>43742</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>43742</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>43742</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>43768</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>43770</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>43774</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>43775</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9959,7 +9959,7 @@
         <v>43775</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10016,7 +10016,7 @@
         <v>43790</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>43796</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10130,7 +10130,7 @@
         <v>43803</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10187,7 +10187,7 @@
         <v>43837</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>43837</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>43839</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10358,7 +10358,7 @@
         <v>43846</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>43850</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10472,7 +10472,7 @@
         <v>43852</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10529,7 +10529,7 @@
         <v>43854</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10586,7 +10586,7 @@
         <v>43858</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10643,7 +10643,7 @@
         <v>43859</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10705,7 +10705,7 @@
         <v>43871</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10762,7 +10762,7 @@
         <v>43871</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         <v>43875</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10876,7 +10876,7 @@
         <v>43880</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10933,7 +10933,7 @@
         <v>43880</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10990,7 +10990,7 @@
         <v>43886</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11052,7 +11052,7 @@
         <v>43901</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11109,7 +11109,7 @@
         <v>43901</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11166,7 +11166,7 @@
         <v>43901</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11223,7 +11223,7 @@
         <v>43903</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11280,7 +11280,7 @@
         <v>43908</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11337,7 +11337,7 @@
         <v>43908</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11394,7 +11394,7 @@
         <v>43913</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>43916</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11508,7 +11508,7 @@
         <v>43916</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>43927</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>43936</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>43937</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>43941</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>43943</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         <v>43943</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11907,7 +11907,7 @@
         <v>43949</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>43957</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>43957</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>43963</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>43966</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>43969</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>43983</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         <v>43983</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12363,7 +12363,7 @@
         <v>43983</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         <v>44000</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12477,7 +12477,7 @@
         <v>44007</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         <v>44019</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12591,7 +12591,7 @@
         <v>44020</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12648,7 +12648,7 @@
         <v>44020</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>44020</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12762,7 +12762,7 @@
         <v>44021</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12819,7 +12819,7 @@
         <v>44021</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12881,7 +12881,7 @@
         <v>44022</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12938,7 +12938,7 @@
         <v>44022</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12995,7 +12995,7 @@
         <v>44025</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13052,7 +13052,7 @@
         <v>44028</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13109,7 +13109,7 @@
         <v>44036</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13166,7 +13166,7 @@
         <v>44039</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13223,7 +13223,7 @@
         <v>44041</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13280,7 +13280,7 @@
         <v>44043</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13337,7 +13337,7 @@
         <v>44046</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13394,7 +13394,7 @@
         <v>44055</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13451,7 +13451,7 @@
         <v>44060</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>44062</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         <v>44088</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         <v>44092</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13679,7 +13679,7 @@
         <v>44095</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13736,7 +13736,7 @@
         <v>44095</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13793,7 +13793,7 @@
         <v>44095</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>44103</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>44107</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44107</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44122</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44122</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>44123</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>44123</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>44124</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>44132</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>44132</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>44133</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>44133</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44140</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44141</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>44144</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>44145</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>44146</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>44146</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14891,7 +14891,7 @@
         <v>44147</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>44147</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>44147</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15062,7 +15062,7 @@
         <v>44147</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>44147</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44159</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44159</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15290,7 +15290,7 @@
         <v>44162</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>44166</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15404,7 +15404,7 @@
         <v>44168</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15461,7 +15461,7 @@
         <v>44172</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15518,7 +15518,7 @@
         <v>44173</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15575,7 +15575,7 @@
         <v>44174</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15632,7 +15632,7 @@
         <v>44174</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15689,7 +15689,7 @@
         <v>44180</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         <v>44187</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15803,7 +15803,7 @@
         <v>44193</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>44199</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>44210</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15974,7 +15974,7 @@
         <v>44216</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16031,7 +16031,7 @@
         <v>44221</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16088,7 +16088,7 @@
         <v>44224</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16145,7 +16145,7 @@
         <v>44230</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16202,7 +16202,7 @@
         <v>44230</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16259,7 +16259,7 @@
         <v>44231</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16316,7 +16316,7 @@
         <v>44236</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16373,7 +16373,7 @@
         <v>44236</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16430,7 +16430,7 @@
         <v>44236</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16487,7 +16487,7 @@
         <v>44238</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16544,7 +16544,7 @@
         <v>44242</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16601,7 +16601,7 @@
         <v>44243</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16658,7 +16658,7 @@
         <v>44245</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16715,7 +16715,7 @@
         <v>44250</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16772,7 +16772,7 @@
         <v>44250</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16829,7 +16829,7 @@
         <v>44251</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>44256</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16943,7 +16943,7 @@
         <v>44261</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         <v>44263</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         <v>44263</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17119,7 +17119,7 @@
         <v>44266</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
         <v>44266</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17243,7 +17243,7 @@
         <v>44267</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17305,7 +17305,7 @@
         <v>44267</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17367,7 +17367,7 @@
         <v>44267</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17429,7 +17429,7 @@
         <v>44267</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17491,7 +17491,7 @@
         <v>44267</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17553,7 +17553,7 @@
         <v>44278</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17610,7 +17610,7 @@
         <v>44295</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17667,7 +17667,7 @@
         <v>44298</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17724,7 +17724,7 @@
         <v>44298</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17781,7 +17781,7 @@
         <v>44302</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
         <v>44302</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>44307</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17952,7 +17952,7 @@
         <v>44322</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18009,7 +18009,7 @@
         <v>44322</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         <v>44335</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18123,7 +18123,7 @@
         <v>44336</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18180,7 +18180,7 @@
         <v>44340</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>44356</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18294,7 +18294,7 @@
         <v>44356</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18351,7 +18351,7 @@
         <v>44357</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
         <v>44357</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18470,7 +18470,7 @@
         <v>44363</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18527,7 +18527,7 @@
         <v>44365</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18584,7 +18584,7 @@
         <v>44371</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18641,7 +18641,7 @@
         <v>44371</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18698,7 +18698,7 @@
         <v>44375</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18755,7 +18755,7 @@
         <v>44378</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18812,7 +18812,7 @@
         <v>44384</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18869,7 +18869,7 @@
         <v>44389</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18926,7 +18926,7 @@
         <v>44407</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18983,7 +18983,7 @@
         <v>44427</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19040,7 +19040,7 @@
         <v>44442</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19097,7 +19097,7 @@
         <v>44448</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19154,7 +19154,7 @@
         <v>44454</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19211,7 +19211,7 @@
         <v>44454</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19268,7 +19268,7 @@
         <v>44454</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19325,7 +19325,7 @@
         <v>44455</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19382,7 +19382,7 @@
         <v>44469</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19439,7 +19439,7 @@
         <v>44475</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19496,7 +19496,7 @@
         <v>44476</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19553,7 +19553,7 @@
         <v>44477</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19610,7 +19610,7 @@
         <v>44477</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19667,7 +19667,7 @@
         <v>44480</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19724,7 +19724,7 @@
         <v>44481</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19781,7 +19781,7 @@
         <v>44482</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19838,7 +19838,7 @@
         <v>44483</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19895,7 +19895,7 @@
         <v>44483</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -19952,7 +19952,7 @@
         <v>44487</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20014,7 +20014,7 @@
         <v>44487</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20076,7 +20076,7 @@
         <v>44488</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         <v>44489</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20190,7 +20190,7 @@
         <v>44489</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20247,7 +20247,7 @@
         <v>44489</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20304,7 +20304,7 @@
         <v>44501</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20361,7 +20361,7 @@
         <v>44502</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20418,7 +20418,7 @@
         <v>44508</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20475,7 +20475,7 @@
         <v>44510</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20532,7 +20532,7 @@
         <v>44515</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20594,7 +20594,7 @@
         <v>44529</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20651,7 +20651,7 @@
         <v>44530</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20708,7 +20708,7 @@
         <v>44557</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20765,7 +20765,7 @@
         <v>44559</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20822,7 +20822,7 @@
         <v>44559</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20879,7 +20879,7 @@
         <v>44573</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -20936,7 +20936,7 @@
         <v>44573</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -20993,7 +20993,7 @@
         <v>44575</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21050,7 +21050,7 @@
         <v>44592</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21107,7 +21107,7 @@
         <v>44592</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21164,7 +21164,7 @@
         <v>44596</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21226,7 +21226,7 @@
         <v>44600</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
         <v>44607</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>44613</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21397,7 +21397,7 @@
         <v>44621</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44631</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44634</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44637</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>44644</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21687,7 +21687,7 @@
         <v>44655</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         <v>44659</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21806,7 +21806,7 @@
         <v>44659</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>44659</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>44659</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -21987,7 +21987,7 @@
         <v>44671</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>44671</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>44693</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>44697</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>44711</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>44712</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>44714</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>44714</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22448,7 +22448,7 @@
         <v>44719</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22505,7 +22505,7 @@
         <v>44735</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22562,7 +22562,7 @@
         <v>44735</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22619,7 +22619,7 @@
         <v>44735</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22676,7 +22676,7 @@
         <v>44753</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22733,7 +22733,7 @@
         <v>44756</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22790,7 +22790,7 @@
         <v>44756</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22847,7 +22847,7 @@
         <v>44762</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -22904,7 +22904,7 @@
         <v>44778</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -22961,7 +22961,7 @@
         <v>44778</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23018,7 +23018,7 @@
         <v>44778</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23075,7 +23075,7 @@
         <v>44817</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23132,7 +23132,7 @@
         <v>44823</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23189,7 +23189,7 @@
         <v>44830</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23246,7 +23246,7 @@
         <v>44830</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23303,7 +23303,7 @@
         <v>44845</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23360,7 +23360,7 @@
         <v>44847</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23417,7 +23417,7 @@
         <v>44847</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23474,7 +23474,7 @@
         <v>44847</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23531,7 +23531,7 @@
         <v>44865</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23588,7 +23588,7 @@
         <v>44865</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23645,7 +23645,7 @@
         <v>44868</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23702,7 +23702,7 @@
         <v>44869</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23759,7 +23759,7 @@
         <v>44872</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23816,7 +23816,7 @@
         <v>44873</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -23873,7 +23873,7 @@
         <v>44876</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -23930,7 +23930,7 @@
         <v>44887</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -23987,7 +23987,7 @@
         <v>44889</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24044,7 +24044,7 @@
         <v>44893</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24101,7 +24101,7 @@
         <v>44900</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24158,7 +24158,7 @@
         <v>44900</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24215,7 +24215,7 @@
         <v>44900</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24272,7 +24272,7 @@
         <v>44900</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24329,7 +24329,7 @@
         <v>44903</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         <v>44903</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24443,7 +24443,7 @@
         <v>44926</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24505,7 +24505,7 @@
         <v>44951</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24562,7 +24562,7 @@
         <v>44964</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24619,7 +24619,7 @@
         <v>44964</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24676,7 +24676,7 @@
         <v>44970</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24733,7 +24733,7 @@
         <v>44970</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24790,7 +24790,7 @@
         <v>44974</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -24847,7 +24847,7 @@
         <v>44974</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -24904,7 +24904,7 @@
         <v>44974</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -24961,7 +24961,7 @@
         <v>44980</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25018,7 +25018,7 @@
         <v>44999</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         <v>45013</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25132,7 +25132,7 @@
         <v>45019</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25189,7 +25189,7 @@
         <v>45019</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25246,7 +25246,7 @@
         <v>45020</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25303,7 +25303,7 @@
         <v>45030</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25365,7 +25365,7 @@
         <v>45037</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25422,7 +25422,7 @@
         <v>45040</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25479,7 +25479,7 @@
         <v>45044</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25536,7 +25536,7 @@
         <v>45058</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25593,7 +25593,7 @@
         <v>45061</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25650,7 +25650,7 @@
         <v>45062</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25707,7 +25707,7 @@
         <v>45063</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25764,7 +25764,7 @@
         <v>45070</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25821,7 +25821,7 @@
         <v>45070</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -25878,7 +25878,7 @@
         <v>45070</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -25935,7 +25935,7 @@
         <v>45075</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -25992,7 +25992,7 @@
         <v>45084</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26049,7 +26049,7 @@
         <v>45084</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26106,7 +26106,7 @@
         <v>45089</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26163,7 +26163,7 @@
         <v>45091</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26220,7 +26220,7 @@
         <v>45092</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26277,7 +26277,7 @@
         <v>45092</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26334,7 +26334,7 @@
         <v>45097</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26391,7 +26391,7 @@
         <v>45097</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26448,7 +26448,7 @@
         <v>45097</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26505,7 +26505,7 @@
         <v>45097</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26562,7 +26562,7 @@
         <v>45099</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26619,7 +26619,7 @@
         <v>45109</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26676,7 +26676,7 @@
         <v>45109</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26733,7 +26733,7 @@
         <v>45110</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26790,7 +26790,7 @@
         <v>45110</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -26847,7 +26847,7 @@
         <v>45114</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -26904,7 +26904,7 @@
         <v>45117</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -26961,7 +26961,7 @@
         <v>45128</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27018,7 +27018,7 @@
         <v>45131</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27075,7 +27075,7 @@
         <v>45145</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27132,7 +27132,7 @@
         <v>45149</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27189,7 +27189,7 @@
         <v>45153</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27251,7 +27251,7 @@
         <v>45153</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27308,7 +27308,7 @@
         <v>45154</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27365,7 +27365,7 @@
         <v>45155</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27422,7 +27422,7 @@
         <v>45162</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27479,7 +27479,7 @@
         <v>45163</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27536,7 +27536,7 @@
         <v>45167</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27593,7 +27593,7 @@
         <v>45167</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27650,7 +27650,7 @@
         <v>45170</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27707,7 +27707,7 @@
         <v>45170</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>

--- a/Översikt HYLTE.xlsx
+++ b/Översikt HYLTE.xlsx
@@ -572,7 +572,7 @@
         <v>43986</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44873</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43923</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43769</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>44693</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>43342</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
         <v>43467</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>43983</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         <v>44601</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         <v>43319</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1404,7 +1404,7 @@
         <v>43348</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1461,7 +1461,7 @@
         <v>43374</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1518,7 +1518,7 @@
         <v>43409</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1632,7 +1632,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1689,7 +1689,7 @@
         <v>43413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         <v>43415</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>43415</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1860,7 +1860,7 @@
         <v>43415</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         <v>43418</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1974,7 +1974,7 @@
         <v>43419</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>43420</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>43420</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>43423</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         <v>43423</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>43425</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>43431</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
         <v>43432</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>43432</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>43432</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>43432</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>43432</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>43433</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>43433</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>43433</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>43433</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>43437</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>43437</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>43437</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         <v>43437</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>43437</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>43437</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         <v>43441</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         <v>43441</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3342,7 +3342,7 @@
         <v>43445</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         <v>43447</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>43447</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>43447</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3570,7 +3570,7 @@
         <v>43454</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         <v>43467</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
         <v>43467</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3741,7 +3741,7 @@
         <v>43467</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>43467</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3855,7 +3855,7 @@
         <v>43468</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
         <v>43468</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3969,7 +3969,7 @@
         <v>43468</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4026,7 +4026,7 @@
         <v>43472</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
         <v>43472</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4140,7 +4140,7 @@
         <v>43472</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4197,7 +4197,7 @@
         <v>43472</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4254,7 +4254,7 @@
         <v>43472</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         <v>43473</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>43473</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>43473</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>43473</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         <v>43475</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
         <v>43475</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>43475</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>43476</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4767,7 +4767,7 @@
         <v>43479</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>43479</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4881,7 +4881,7 @@
         <v>43482</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4938,7 +4938,7 @@
         <v>43483</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43493</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>43503</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>43503</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>43505</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         <v>43516</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>43516</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>43516</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>43516</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>43516</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5508,7 +5508,7 @@
         <v>43521</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
         <v>43523</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         <v>43524</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5679,7 +5679,7 @@
         <v>43528</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         <v>43531</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>43535</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         <v>43536</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>43536</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>43542</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>43542</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>43542</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>43542</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>43544</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>43545</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>43545</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>43549</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>43549</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>43550</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>43550</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>43552</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>43552</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>43553</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>43557</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6824,7 +6824,7 @@
         <v>43558</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>43558</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>43563</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         <v>43564</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>43564</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>43565</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>43566</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>43570</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>43573</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>43581</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>43584</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43587</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7508,7 +7508,7 @@
         <v>43606</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7565,7 +7565,7 @@
         <v>43612</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7622,7 +7622,7 @@
         <v>43612</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7679,7 +7679,7 @@
         <v>43612</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7736,7 +7736,7 @@
         <v>43616</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         <v>43619</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7850,7 +7850,7 @@
         <v>43620</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>43620</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>43656</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8021,7 +8021,7 @@
         <v>43658</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>43663</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8135,7 +8135,7 @@
         <v>43664</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8192,7 +8192,7 @@
         <v>43665</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8249,7 +8249,7 @@
         <v>43665</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         <v>43668</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8363,7 +8363,7 @@
         <v>43668</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8420,7 +8420,7 @@
         <v>43668</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8477,7 +8477,7 @@
         <v>43668</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8534,7 +8534,7 @@
         <v>43682</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8591,7 +8591,7 @@
         <v>43682</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         <v>43682</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         <v>43682</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8762,7 +8762,7 @@
         <v>43682</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8819,7 +8819,7 @@
         <v>43689</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>43705</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8933,7 +8933,7 @@
         <v>43706</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8990,7 +8990,7 @@
         <v>43712</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9047,7 +9047,7 @@
         <v>43712</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9104,7 +9104,7 @@
         <v>43712</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9161,7 +9161,7 @@
         <v>43731</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9218,7 +9218,7 @@
         <v>43731</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9275,7 +9275,7 @@
         <v>43732</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9332,7 +9332,7 @@
         <v>43738</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9389,7 +9389,7 @@
         <v>43739</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9446,7 +9446,7 @@
         <v>43739</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>43741</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9560,7 +9560,7 @@
         <v>43742</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>43742</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>43742</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>43768</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>43770</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>43774</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>43775</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9959,7 +9959,7 @@
         <v>43775</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10016,7 +10016,7 @@
         <v>43790</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>43796</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10130,7 +10130,7 @@
         <v>43803</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10187,7 +10187,7 @@
         <v>43837</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>43837</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>43839</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10358,7 +10358,7 @@
         <v>43846</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>43850</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10472,7 +10472,7 @@
         <v>43852</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10529,7 +10529,7 @@
         <v>43854</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10586,7 +10586,7 @@
         <v>43858</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10643,7 +10643,7 @@
         <v>43859</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10705,7 +10705,7 @@
         <v>43871</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10762,7 +10762,7 @@
         <v>43871</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         <v>43875</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10876,7 +10876,7 @@
         <v>43880</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10933,7 +10933,7 @@
         <v>43880</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10990,7 +10990,7 @@
         <v>43886</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11052,7 +11052,7 @@
         <v>43901</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11109,7 +11109,7 @@
         <v>43901</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11166,7 +11166,7 @@
         <v>43901</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11223,7 +11223,7 @@
         <v>43903</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11280,7 +11280,7 @@
         <v>43908</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11337,7 +11337,7 @@
         <v>43908</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11394,7 +11394,7 @@
         <v>43913</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>43916</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11508,7 +11508,7 @@
         <v>43916</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>43927</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>43936</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>43937</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>43941</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>43943</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         <v>43943</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11907,7 +11907,7 @@
         <v>43949</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>43957</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>43957</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>43963</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>43966</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>43969</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>43983</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         <v>43983</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12363,7 +12363,7 @@
         <v>43983</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         <v>44000</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12477,7 +12477,7 @@
         <v>44007</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         <v>44019</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12591,7 +12591,7 @@
         <v>44020</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12648,7 +12648,7 @@
         <v>44020</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>44020</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12762,7 +12762,7 @@
         <v>44021</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12819,7 +12819,7 @@
         <v>44021</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12881,7 +12881,7 @@
         <v>44022</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12938,7 +12938,7 @@
         <v>44022</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12995,7 +12995,7 @@
         <v>44025</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13052,7 +13052,7 @@
         <v>44028</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13109,7 +13109,7 @@
         <v>44036</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13166,7 +13166,7 @@
         <v>44039</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13223,7 +13223,7 @@
         <v>44041</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13280,7 +13280,7 @@
         <v>44043</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13337,7 +13337,7 @@
         <v>44046</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13394,7 +13394,7 @@
         <v>44055</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13451,7 +13451,7 @@
         <v>44060</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>44062</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         <v>44088</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         <v>44092</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13679,7 +13679,7 @@
         <v>44095</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13736,7 +13736,7 @@
         <v>44095</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13793,7 +13793,7 @@
         <v>44095</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>44103</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>44107</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44107</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44122</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44122</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>44123</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>44123</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>44124</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>44132</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>44132</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>44133</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>44133</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44140</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44141</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>44144</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>44145</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>44146</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>44146</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14891,7 +14891,7 @@
         <v>44147</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>44147</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>44147</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15062,7 +15062,7 @@
         <v>44147</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>44147</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44159</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44159</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15290,7 +15290,7 @@
         <v>44162</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>44166</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15404,7 +15404,7 @@
         <v>44168</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15461,7 +15461,7 @@
         <v>44172</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15518,7 +15518,7 @@
         <v>44173</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15575,7 +15575,7 @@
         <v>44174</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15632,7 +15632,7 @@
         <v>44174</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15689,7 +15689,7 @@
         <v>44180</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         <v>44187</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15803,7 +15803,7 @@
         <v>44193</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>44199</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>44210</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15974,7 +15974,7 @@
         <v>44216</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16031,7 +16031,7 @@
         <v>44221</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16088,7 +16088,7 @@
         <v>44224</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16145,7 +16145,7 @@
         <v>44230</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16202,7 +16202,7 @@
         <v>44230</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16259,7 +16259,7 @@
         <v>44231</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16316,7 +16316,7 @@
         <v>44236</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16373,7 +16373,7 @@
         <v>44236</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16430,7 +16430,7 @@
         <v>44236</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16487,7 +16487,7 @@
         <v>44238</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16544,7 +16544,7 @@
         <v>44242</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16601,7 +16601,7 @@
         <v>44243</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16658,7 +16658,7 @@
         <v>44245</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16715,7 +16715,7 @@
         <v>44250</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16772,7 +16772,7 @@
         <v>44250</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16829,7 +16829,7 @@
         <v>44251</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>44256</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16943,7 +16943,7 @@
         <v>44261</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         <v>44263</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         <v>44263</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17119,7 +17119,7 @@
         <v>44266</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
         <v>44266</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17243,7 +17243,7 @@
         <v>44267</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17305,7 +17305,7 @@
         <v>44267</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17367,7 +17367,7 @@
         <v>44267</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17429,7 +17429,7 @@
         <v>44267</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17491,7 +17491,7 @@
         <v>44267</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17553,7 +17553,7 @@
         <v>44278</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17610,7 +17610,7 @@
         <v>44295</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17667,7 +17667,7 @@
         <v>44298</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17724,7 +17724,7 @@
         <v>44298</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17781,7 +17781,7 @@
         <v>44302</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
         <v>44302</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>44307</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17952,7 +17952,7 @@
         <v>44322</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18009,7 +18009,7 @@
         <v>44322</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         <v>44335</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18123,7 +18123,7 @@
         <v>44336</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18180,7 +18180,7 @@
         <v>44340</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>44356</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18294,7 +18294,7 @@
         <v>44356</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18351,7 +18351,7 @@
         <v>44357</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
         <v>44357</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18470,7 +18470,7 @@
         <v>44363</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18527,7 +18527,7 @@
         <v>44365</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18584,7 +18584,7 @@
         <v>44371</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18641,7 +18641,7 @@
         <v>44371</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18698,7 +18698,7 @@
         <v>44375</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18755,7 +18755,7 @@
         <v>44378</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18812,7 +18812,7 @@
         <v>44384</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18869,7 +18869,7 @@
         <v>44389</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18926,7 +18926,7 @@
         <v>44407</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18983,7 +18983,7 @@
         <v>44427</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19040,7 +19040,7 @@
         <v>44442</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19097,7 +19097,7 @@
         <v>44448</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19154,7 +19154,7 @@
         <v>44454</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19211,7 +19211,7 @@
         <v>44454</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19268,7 +19268,7 @@
         <v>44454</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19325,7 +19325,7 @@
         <v>44455</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19382,7 +19382,7 @@
         <v>44469</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19439,7 +19439,7 @@
         <v>44475</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19496,7 +19496,7 @@
         <v>44476</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19553,7 +19553,7 @@
         <v>44477</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19610,7 +19610,7 @@
         <v>44477</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19667,7 +19667,7 @@
         <v>44480</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19724,7 +19724,7 @@
         <v>44481</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19781,7 +19781,7 @@
         <v>44482</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19838,7 +19838,7 @@
         <v>44483</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19895,7 +19895,7 @@
         <v>44483</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -19952,7 +19952,7 @@
         <v>44487</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20014,7 +20014,7 @@
         <v>44487</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20076,7 +20076,7 @@
         <v>44488</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         <v>44489</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20190,7 +20190,7 @@
         <v>44489</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20247,7 +20247,7 @@
         <v>44489</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20304,7 +20304,7 @@
         <v>44501</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20361,7 +20361,7 @@
         <v>44502</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20418,7 +20418,7 @@
         <v>44508</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20475,7 +20475,7 @@
         <v>44510</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20532,7 +20532,7 @@
         <v>44515</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20594,7 +20594,7 @@
         <v>44529</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20651,7 +20651,7 @@
         <v>44530</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20708,7 +20708,7 @@
         <v>44557</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20765,7 +20765,7 @@
         <v>44559</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20822,7 +20822,7 @@
         <v>44559</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20879,7 +20879,7 @@
         <v>44573</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -20936,7 +20936,7 @@
         <v>44573</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -20993,7 +20993,7 @@
         <v>44575</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21050,7 +21050,7 @@
         <v>44592</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21107,7 +21107,7 @@
         <v>44592</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21164,7 +21164,7 @@
         <v>44596</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21226,7 +21226,7 @@
         <v>44600</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
         <v>44607</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>44613</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21397,7 +21397,7 @@
         <v>44621</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44631</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44634</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44637</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>44644</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21687,7 +21687,7 @@
         <v>44655</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         <v>44659</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21806,7 +21806,7 @@
         <v>44659</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>44659</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>44659</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -21987,7 +21987,7 @@
         <v>44671</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>44671</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>44693</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>44697</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>44711</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>44712</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>44714</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>44714</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22448,7 +22448,7 @@
         <v>44719</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22505,7 +22505,7 @@
         <v>44735</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22562,7 +22562,7 @@
         <v>44735</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22619,7 +22619,7 @@
         <v>44735</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22676,7 +22676,7 @@
         <v>44753</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22733,7 +22733,7 @@
         <v>44756</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22790,7 +22790,7 @@
         <v>44756</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22847,7 +22847,7 @@
         <v>44762</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -22904,7 +22904,7 @@
         <v>44778</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -22961,7 +22961,7 @@
         <v>44778</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23018,7 +23018,7 @@
         <v>44778</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23075,7 +23075,7 @@
         <v>44817</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23132,7 +23132,7 @@
         <v>44823</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23189,7 +23189,7 @@
         <v>44830</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23246,7 +23246,7 @@
         <v>44830</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23303,7 +23303,7 @@
         <v>44845</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23360,7 +23360,7 @@
         <v>44847</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23417,7 +23417,7 @@
         <v>44847</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23474,7 +23474,7 @@
         <v>44847</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23531,7 +23531,7 @@
         <v>44865</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23588,7 +23588,7 @@
         <v>44865</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23645,7 +23645,7 @@
         <v>44868</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23702,7 +23702,7 @@
         <v>44869</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23759,7 +23759,7 @@
         <v>44872</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23816,7 +23816,7 @@
         <v>44873</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -23873,7 +23873,7 @@
         <v>44876</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -23930,7 +23930,7 @@
         <v>44887</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -23987,7 +23987,7 @@
         <v>44889</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24044,7 +24044,7 @@
         <v>44893</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24101,7 +24101,7 @@
         <v>44900</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24158,7 +24158,7 @@
         <v>44900</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24215,7 +24215,7 @@
         <v>44900</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24272,7 +24272,7 @@
         <v>44900</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24329,7 +24329,7 @@
         <v>44903</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         <v>44903</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24443,7 +24443,7 @@
         <v>44926</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24505,7 +24505,7 @@
         <v>44951</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24562,7 +24562,7 @@
         <v>44964</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24619,7 +24619,7 @@
         <v>44964</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24676,7 +24676,7 @@
         <v>44970</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24733,7 +24733,7 @@
         <v>44970</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24790,7 +24790,7 @@
         <v>44974</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -24847,7 +24847,7 @@
         <v>44974</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -24904,7 +24904,7 @@
         <v>44974</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -24961,7 +24961,7 @@
         <v>44980</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25018,7 +25018,7 @@
         <v>44999</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         <v>45013</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25132,7 +25132,7 @@
         <v>45019</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25189,7 +25189,7 @@
         <v>45019</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25246,7 +25246,7 @@
         <v>45020</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25303,7 +25303,7 @@
         <v>45030</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25365,7 +25365,7 @@
         <v>45037</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25422,7 +25422,7 @@
         <v>45040</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25479,7 +25479,7 @@
         <v>45044</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25536,7 +25536,7 @@
         <v>45058</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25593,7 +25593,7 @@
         <v>45061</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25650,7 +25650,7 @@
         <v>45062</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25707,7 +25707,7 @@
         <v>45063</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25764,7 +25764,7 @@
         <v>45070</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25821,7 +25821,7 @@
         <v>45070</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -25878,7 +25878,7 @@
         <v>45070</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -25935,7 +25935,7 @@
         <v>45075</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -25992,7 +25992,7 @@
         <v>45084</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26049,7 +26049,7 @@
         <v>45084</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26106,7 +26106,7 @@
         <v>45089</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26163,7 +26163,7 @@
         <v>45091</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26220,7 +26220,7 @@
         <v>45092</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26277,7 +26277,7 @@
         <v>45092</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26334,7 +26334,7 @@
         <v>45097</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26391,7 +26391,7 @@
         <v>45097</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26448,7 +26448,7 @@
         <v>45097</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26505,7 +26505,7 @@
         <v>45097</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26562,7 +26562,7 @@
         <v>45099</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26619,7 +26619,7 @@
         <v>45109</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26676,7 +26676,7 @@
         <v>45109</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26733,7 +26733,7 @@
         <v>45110</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26790,7 +26790,7 @@
         <v>45110</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -26847,7 +26847,7 @@
         <v>45114</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -26904,7 +26904,7 @@
         <v>45117</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -26961,7 +26961,7 @@
         <v>45128</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27018,7 +27018,7 @@
         <v>45131</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27075,7 +27075,7 @@
         <v>45145</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27132,7 +27132,7 @@
         <v>45149</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27189,7 +27189,7 @@
         <v>45153</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27251,7 +27251,7 @@
         <v>45153</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27308,7 +27308,7 @@
         <v>45154</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27365,7 +27365,7 @@
         <v>45155</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27422,7 +27422,7 @@
         <v>45162</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27479,7 +27479,7 @@
         <v>45163</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27536,7 +27536,7 @@
         <v>45167</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27593,7 +27593,7 @@
         <v>45167</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27650,7 +27650,7 @@
         <v>45170</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27707,7 +27707,7 @@
         <v>45170</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>

--- a/Översikt HYLTE.xlsx
+++ b/Översikt HYLTE.xlsx
@@ -572,7 +572,7 @@
         <v>43986</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44873</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43923</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43769</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>44693</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>43342</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
         <v>43467</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>43983</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         <v>44601</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         <v>43319</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1404,7 +1404,7 @@
         <v>43348</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1461,7 +1461,7 @@
         <v>43374</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1518,7 +1518,7 @@
         <v>43409</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1632,7 +1632,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1689,7 +1689,7 @@
         <v>43413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         <v>43415</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>43415</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1860,7 +1860,7 @@
         <v>43415</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         <v>43418</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1974,7 +1974,7 @@
         <v>43419</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>43420</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>43420</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>43423</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         <v>43423</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>43425</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>43431</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
         <v>43432</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>43432</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>43432</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>43432</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>43432</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>43433</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>43433</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>43433</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>43433</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>43437</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>43437</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>43437</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         <v>43437</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>43437</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>43437</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         <v>43441</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         <v>43441</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3342,7 +3342,7 @@
         <v>43445</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         <v>43447</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>43447</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>43447</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3570,7 +3570,7 @@
         <v>43454</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         <v>43467</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
         <v>43467</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3741,7 +3741,7 @@
         <v>43467</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>43467</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3855,7 +3855,7 @@
         <v>43468</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
         <v>43468</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3969,7 +3969,7 @@
         <v>43468</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4026,7 +4026,7 @@
         <v>43472</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
         <v>43472</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4140,7 +4140,7 @@
         <v>43472</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4197,7 +4197,7 @@
         <v>43472</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4254,7 +4254,7 @@
         <v>43472</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         <v>43473</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>43473</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>43473</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>43473</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         <v>43475</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
         <v>43475</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>43475</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>43476</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4767,7 +4767,7 @@
         <v>43479</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>43479</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4881,7 +4881,7 @@
         <v>43482</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4938,7 +4938,7 @@
         <v>43483</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43493</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>43503</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>43503</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>43505</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         <v>43516</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>43516</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>43516</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>43516</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>43516</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5508,7 +5508,7 @@
         <v>43521</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
         <v>43523</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         <v>43524</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5679,7 +5679,7 @@
         <v>43528</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         <v>43531</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>43535</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         <v>43536</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>43536</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>43542</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>43542</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>43542</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>43542</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>43544</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>43545</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>43545</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>43549</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>43549</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>43550</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>43550</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>43552</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>43552</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>43553</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>43557</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6824,7 +6824,7 @@
         <v>43558</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>43558</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>43563</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         <v>43564</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>43564</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>43565</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>43566</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>43570</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>43573</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>43581</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>43584</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43587</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7508,7 +7508,7 @@
         <v>43606</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7565,7 +7565,7 @@
         <v>43612</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7622,7 +7622,7 @@
         <v>43612</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7679,7 +7679,7 @@
         <v>43612</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7736,7 +7736,7 @@
         <v>43616</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         <v>43619</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7850,7 +7850,7 @@
         <v>43620</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>43620</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>43656</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8021,7 +8021,7 @@
         <v>43658</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>43663</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8135,7 +8135,7 @@
         <v>43664</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8192,7 +8192,7 @@
         <v>43665</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8249,7 +8249,7 @@
         <v>43665</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         <v>43668</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8363,7 +8363,7 @@
         <v>43668</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8420,7 +8420,7 @@
         <v>43668</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8477,7 +8477,7 @@
         <v>43668</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8534,7 +8534,7 @@
         <v>43682</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8591,7 +8591,7 @@
         <v>43682</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         <v>43682</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         <v>43682</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8762,7 +8762,7 @@
         <v>43682</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8819,7 +8819,7 @@
         <v>43689</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>43705</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8933,7 +8933,7 @@
         <v>43706</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8990,7 +8990,7 @@
         <v>43712</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9047,7 +9047,7 @@
         <v>43712</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9104,7 +9104,7 @@
         <v>43712</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9161,7 +9161,7 @@
         <v>43731</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9218,7 +9218,7 @@
         <v>43731</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9275,7 +9275,7 @@
         <v>43732</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9332,7 +9332,7 @@
         <v>43738</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9389,7 +9389,7 @@
         <v>43739</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9446,7 +9446,7 @@
         <v>43739</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>43741</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9560,7 +9560,7 @@
         <v>43742</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>43742</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>43742</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>43768</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>43770</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>43774</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>43775</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9959,7 +9959,7 @@
         <v>43775</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10016,7 +10016,7 @@
         <v>43790</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>43796</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10130,7 +10130,7 @@
         <v>43803</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10187,7 +10187,7 @@
         <v>43837</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>43837</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>43839</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10358,7 +10358,7 @@
         <v>43846</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>43850</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10472,7 +10472,7 @@
         <v>43852</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10529,7 +10529,7 @@
         <v>43854</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10586,7 +10586,7 @@
         <v>43858</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10643,7 +10643,7 @@
         <v>43859</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10705,7 +10705,7 @@
         <v>43871</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10762,7 +10762,7 @@
         <v>43871</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         <v>43875</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10876,7 +10876,7 @@
         <v>43880</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10933,7 +10933,7 @@
         <v>43880</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10990,7 +10990,7 @@
         <v>43886</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11052,7 +11052,7 @@
         <v>43901</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11109,7 +11109,7 @@
         <v>43901</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11166,7 +11166,7 @@
         <v>43901</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11223,7 +11223,7 @@
         <v>43903</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11280,7 +11280,7 @@
         <v>43908</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11337,7 +11337,7 @@
         <v>43908</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11394,7 +11394,7 @@
         <v>43913</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>43916</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11508,7 +11508,7 @@
         <v>43916</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>43927</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>43936</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>43937</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>43941</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>43943</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         <v>43943</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11907,7 +11907,7 @@
         <v>43949</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>43957</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>43957</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>43963</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>43966</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>43969</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>43983</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         <v>43983</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12363,7 +12363,7 @@
         <v>43983</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         <v>44000</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12477,7 +12477,7 @@
         <v>44007</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         <v>44019</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12591,7 +12591,7 @@
         <v>44020</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12648,7 +12648,7 @@
         <v>44020</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>44020</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12762,7 +12762,7 @@
         <v>44021</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12819,7 +12819,7 @@
         <v>44021</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12881,7 +12881,7 @@
         <v>44022</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12938,7 +12938,7 @@
         <v>44022</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12995,7 +12995,7 @@
         <v>44025</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13052,7 +13052,7 @@
         <v>44028</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13109,7 +13109,7 @@
         <v>44036</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13166,7 +13166,7 @@
         <v>44039</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13223,7 +13223,7 @@
         <v>44041</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13280,7 +13280,7 @@
         <v>44043</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13337,7 +13337,7 @@
         <v>44046</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13394,7 +13394,7 @@
         <v>44055</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13451,7 +13451,7 @@
         <v>44060</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>44062</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         <v>44088</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         <v>44092</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13679,7 +13679,7 @@
         <v>44095</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13736,7 +13736,7 @@
         <v>44095</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13793,7 +13793,7 @@
         <v>44095</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>44103</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>44107</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44107</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44122</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44122</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>44123</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>44123</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>44124</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>44132</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>44132</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>44133</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>44133</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44140</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44141</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>44144</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>44145</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>44146</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>44146</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14891,7 +14891,7 @@
         <v>44147</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>44147</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>44147</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15062,7 +15062,7 @@
         <v>44147</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>44147</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44159</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44159</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15290,7 +15290,7 @@
         <v>44162</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>44166</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15404,7 +15404,7 @@
         <v>44168</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15461,7 +15461,7 @@
         <v>44172</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15518,7 +15518,7 @@
         <v>44173</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15575,7 +15575,7 @@
         <v>44174</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15632,7 +15632,7 @@
         <v>44174</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15689,7 +15689,7 @@
         <v>44180</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         <v>44187</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15803,7 +15803,7 @@
         <v>44193</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>44199</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>44210</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15974,7 +15974,7 @@
         <v>44216</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16031,7 +16031,7 @@
         <v>44221</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16088,7 +16088,7 @@
         <v>44224</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16145,7 +16145,7 @@
         <v>44230</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16202,7 +16202,7 @@
         <v>44230</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16259,7 +16259,7 @@
         <v>44231</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16316,7 +16316,7 @@
         <v>44236</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16373,7 +16373,7 @@
         <v>44236</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16430,7 +16430,7 @@
         <v>44236</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16487,7 +16487,7 @@
         <v>44238</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16544,7 +16544,7 @@
         <v>44242</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16601,7 +16601,7 @@
         <v>44243</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16658,7 +16658,7 @@
         <v>44245</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16715,7 +16715,7 @@
         <v>44250</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16772,7 +16772,7 @@
         <v>44250</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16829,7 +16829,7 @@
         <v>44251</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>44256</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16943,7 +16943,7 @@
         <v>44261</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         <v>44263</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         <v>44263</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17119,7 +17119,7 @@
         <v>44266</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
         <v>44266</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17243,7 +17243,7 @@
         <v>44267</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17305,7 +17305,7 @@
         <v>44267</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17367,7 +17367,7 @@
         <v>44267</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17429,7 +17429,7 @@
         <v>44267</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17491,7 +17491,7 @@
         <v>44267</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17553,7 +17553,7 @@
         <v>44278</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17610,7 +17610,7 @@
         <v>44295</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17667,7 +17667,7 @@
         <v>44298</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17724,7 +17724,7 @@
         <v>44298</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17781,7 +17781,7 @@
         <v>44302</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
         <v>44302</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>44307</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17952,7 +17952,7 @@
         <v>44322</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18009,7 +18009,7 @@
         <v>44322</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         <v>44335</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18123,7 +18123,7 @@
         <v>44336</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18180,7 +18180,7 @@
         <v>44340</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>44356</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18294,7 +18294,7 @@
         <v>44356</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18351,7 +18351,7 @@
         <v>44357</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
         <v>44357</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18470,7 +18470,7 @@
         <v>44363</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18527,7 +18527,7 @@
         <v>44365</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18584,7 +18584,7 @@
         <v>44371</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18641,7 +18641,7 @@
         <v>44371</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18698,7 +18698,7 @@
         <v>44375</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18755,7 +18755,7 @@
         <v>44378</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18812,7 +18812,7 @@
         <v>44384</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18869,7 +18869,7 @@
         <v>44389</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18926,7 +18926,7 @@
         <v>44407</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18983,7 +18983,7 @@
         <v>44427</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19040,7 +19040,7 @@
         <v>44442</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19097,7 +19097,7 @@
         <v>44448</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19154,7 +19154,7 @@
         <v>44454</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19211,7 +19211,7 @@
         <v>44454</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19268,7 +19268,7 @@
         <v>44454</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19325,7 +19325,7 @@
         <v>44455</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19382,7 +19382,7 @@
         <v>44469</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19439,7 +19439,7 @@
         <v>44475</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19496,7 +19496,7 @@
         <v>44476</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19553,7 +19553,7 @@
         <v>44477</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19610,7 +19610,7 @@
         <v>44477</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19667,7 +19667,7 @@
         <v>44480</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19724,7 +19724,7 @@
         <v>44481</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19781,7 +19781,7 @@
         <v>44482</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19838,7 +19838,7 @@
         <v>44483</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19895,7 +19895,7 @@
         <v>44483</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -19952,7 +19952,7 @@
         <v>44487</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20014,7 +20014,7 @@
         <v>44487</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20076,7 +20076,7 @@
         <v>44488</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         <v>44489</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20190,7 +20190,7 @@
         <v>44489</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20247,7 +20247,7 @@
         <v>44489</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20304,7 +20304,7 @@
         <v>44501</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20361,7 +20361,7 @@
         <v>44502</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20418,7 +20418,7 @@
         <v>44508</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20475,7 +20475,7 @@
         <v>44510</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20532,7 +20532,7 @@
         <v>44515</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20594,7 +20594,7 @@
         <v>44529</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20651,7 +20651,7 @@
         <v>44530</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20708,7 +20708,7 @@
         <v>44557</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20765,7 +20765,7 @@
         <v>44559</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20822,7 +20822,7 @@
         <v>44559</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20879,7 +20879,7 @@
         <v>44573</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -20936,7 +20936,7 @@
         <v>44573</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -20993,7 +20993,7 @@
         <v>44575</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21050,7 +21050,7 @@
         <v>44592</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21107,7 +21107,7 @@
         <v>44592</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21164,7 +21164,7 @@
         <v>44596</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21226,7 +21226,7 @@
         <v>44600</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
         <v>44607</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>44613</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21397,7 +21397,7 @@
         <v>44621</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44631</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44634</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44637</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>44644</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21687,7 +21687,7 @@
         <v>44655</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         <v>44659</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21806,7 +21806,7 @@
         <v>44659</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>44659</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>44659</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -21987,7 +21987,7 @@
         <v>44671</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>44671</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>44693</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>44697</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>44711</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>44712</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>44714</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>44714</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22448,7 +22448,7 @@
         <v>44719</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22505,7 +22505,7 @@
         <v>44735</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22562,7 +22562,7 @@
         <v>44735</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22619,7 +22619,7 @@
         <v>44735</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22676,7 +22676,7 @@
         <v>44753</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22733,7 +22733,7 @@
         <v>44756</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22790,7 +22790,7 @@
         <v>44756</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22847,7 +22847,7 @@
         <v>44762</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -22904,7 +22904,7 @@
         <v>44778</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -22961,7 +22961,7 @@
         <v>44778</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23018,7 +23018,7 @@
         <v>44778</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23075,7 +23075,7 @@
         <v>44817</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23132,7 +23132,7 @@
         <v>44823</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23189,7 +23189,7 @@
         <v>44830</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23246,7 +23246,7 @@
         <v>44830</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23303,7 +23303,7 @@
         <v>44845</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23360,7 +23360,7 @@
         <v>44847</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23417,7 +23417,7 @@
         <v>44847</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23474,7 +23474,7 @@
         <v>44847</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23531,7 +23531,7 @@
         <v>44865</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23588,7 +23588,7 @@
         <v>44865</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23645,7 +23645,7 @@
         <v>44868</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23702,7 +23702,7 @@
         <v>44869</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23759,7 +23759,7 @@
         <v>44872</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23816,7 +23816,7 @@
         <v>44873</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -23873,7 +23873,7 @@
         <v>44876</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -23930,7 +23930,7 @@
         <v>44887</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -23987,7 +23987,7 @@
         <v>44889</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24044,7 +24044,7 @@
         <v>44893</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24101,7 +24101,7 @@
         <v>44900</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24158,7 +24158,7 @@
         <v>44900</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24215,7 +24215,7 @@
         <v>44900</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24272,7 +24272,7 @@
         <v>44900</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24329,7 +24329,7 @@
         <v>44903</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         <v>44903</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24443,7 +24443,7 @@
         <v>44926</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24505,7 +24505,7 @@
         <v>44951</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24562,7 +24562,7 @@
         <v>44964</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24619,7 +24619,7 @@
         <v>44964</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24676,7 +24676,7 @@
         <v>44970</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24733,7 +24733,7 @@
         <v>44970</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24790,7 +24790,7 @@
         <v>44974</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -24847,7 +24847,7 @@
         <v>44974</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -24904,7 +24904,7 @@
         <v>44974</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -24961,7 +24961,7 @@
         <v>44980</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25018,7 +25018,7 @@
         <v>44999</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         <v>45013</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25132,7 +25132,7 @@
         <v>45019</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25189,7 +25189,7 @@
         <v>45019</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25246,7 +25246,7 @@
         <v>45020</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25303,7 +25303,7 @@
         <v>45030</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25365,7 +25365,7 @@
         <v>45037</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25422,7 +25422,7 @@
         <v>45040</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25479,7 +25479,7 @@
         <v>45044</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25536,7 +25536,7 @@
         <v>45058</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25593,7 +25593,7 @@
         <v>45061</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25650,7 +25650,7 @@
         <v>45062</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25707,7 +25707,7 @@
         <v>45063</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25764,7 +25764,7 @@
         <v>45070</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25821,7 +25821,7 @@
         <v>45070</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -25878,7 +25878,7 @@
         <v>45070</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -25935,7 +25935,7 @@
         <v>45075</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -25992,7 +25992,7 @@
         <v>45084</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26049,7 +26049,7 @@
         <v>45084</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26106,7 +26106,7 @@
         <v>45089</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26163,7 +26163,7 @@
         <v>45091</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26220,7 +26220,7 @@
         <v>45092</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26277,7 +26277,7 @@
         <v>45092</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26334,7 +26334,7 @@
         <v>45097</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26391,7 +26391,7 @@
         <v>45097</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26448,7 +26448,7 @@
         <v>45097</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26505,7 +26505,7 @@
         <v>45097</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26562,7 +26562,7 @@
         <v>45099</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26619,7 +26619,7 @@
         <v>45109</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26676,7 +26676,7 @@
         <v>45109</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26733,7 +26733,7 @@
         <v>45110</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26790,7 +26790,7 @@
         <v>45110</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -26847,7 +26847,7 @@
         <v>45114</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -26904,7 +26904,7 @@
         <v>45117</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -26961,7 +26961,7 @@
         <v>45128</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27018,7 +27018,7 @@
         <v>45131</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27075,7 +27075,7 @@
         <v>45145</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27132,7 +27132,7 @@
         <v>45149</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27189,7 +27189,7 @@
         <v>45153</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27251,7 +27251,7 @@
         <v>45153</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27308,7 +27308,7 @@
         <v>45154</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27365,7 +27365,7 @@
         <v>45155</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27422,7 +27422,7 @@
         <v>45162</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27479,7 +27479,7 @@
         <v>45163</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27536,7 +27536,7 @@
         <v>45167</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27593,7 +27593,7 @@
         <v>45167</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27650,7 +27650,7 @@
         <v>45170</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27707,7 +27707,7 @@
         <v>45170</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>

--- a/Översikt HYLTE.xlsx
+++ b/Översikt HYLTE.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y471"/>
+  <dimension ref="A1:Y472"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43986</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44873</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43923</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43769</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>44693</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>43342</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
         <v>43467</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>43983</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         <v>44601</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         <v>43319</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1404,7 +1404,7 @@
         <v>43348</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1461,7 +1461,7 @@
         <v>43374</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1518,7 +1518,7 @@
         <v>43409</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1632,7 +1632,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1689,7 +1689,7 @@
         <v>43413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         <v>43415</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>43415</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1860,7 +1860,7 @@
         <v>43415</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         <v>43418</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1974,7 +1974,7 @@
         <v>43419</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>43420</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>43420</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>43423</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         <v>43423</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>43425</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>43431</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
         <v>43432</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>43432</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>43432</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>43432</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>43432</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>43433</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>43433</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>43433</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>43433</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>43437</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>43437</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>43437</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         <v>43437</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>43437</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>43437</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         <v>43441</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         <v>43441</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3342,7 +3342,7 @@
         <v>43445</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         <v>43447</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>43447</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>43447</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3570,7 +3570,7 @@
         <v>43454</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         <v>43467</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
         <v>43467</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3741,7 +3741,7 @@
         <v>43467</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>43467</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3855,7 +3855,7 @@
         <v>43468</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
         <v>43468</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3969,7 +3969,7 @@
         <v>43468</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4026,7 +4026,7 @@
         <v>43472</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
         <v>43472</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4140,7 +4140,7 @@
         <v>43472</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4197,7 +4197,7 @@
         <v>43472</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4254,7 +4254,7 @@
         <v>43472</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         <v>43473</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>43473</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>43473</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>43473</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         <v>43475</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
         <v>43475</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>43475</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>43476</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4767,7 +4767,7 @@
         <v>43479</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>43479</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4881,7 +4881,7 @@
         <v>43482</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4938,7 +4938,7 @@
         <v>43483</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43493</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>43503</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>43503</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>43505</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         <v>43516</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>43516</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>43516</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>43516</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>43516</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5508,7 +5508,7 @@
         <v>43521</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
         <v>43523</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         <v>43524</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5679,7 +5679,7 @@
         <v>43528</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         <v>43531</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>43535</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         <v>43536</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>43536</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>43542</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>43542</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>43542</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>43542</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>43544</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>43545</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>43545</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>43549</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>43549</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>43550</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>43550</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>43552</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>43552</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>43553</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>43557</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6824,7 +6824,7 @@
         <v>43558</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>43558</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>43563</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         <v>43564</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>43564</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>43565</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>43566</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>43570</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>43573</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>43581</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>43584</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43587</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7508,7 +7508,7 @@
         <v>43606</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7565,7 +7565,7 @@
         <v>43612</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7622,7 +7622,7 @@
         <v>43612</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7679,7 +7679,7 @@
         <v>43612</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7736,7 +7736,7 @@
         <v>43616</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         <v>43619</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7850,7 +7850,7 @@
         <v>43620</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>43620</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>43656</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8021,7 +8021,7 @@
         <v>43658</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>43663</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8135,7 +8135,7 @@
         <v>43664</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8192,7 +8192,7 @@
         <v>43665</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8249,7 +8249,7 @@
         <v>43665</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         <v>43668</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8363,7 +8363,7 @@
         <v>43668</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8420,7 +8420,7 @@
         <v>43668</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8477,7 +8477,7 @@
         <v>43668</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8534,7 +8534,7 @@
         <v>43682</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8591,7 +8591,7 @@
         <v>43682</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         <v>43682</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         <v>43682</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8762,7 +8762,7 @@
         <v>43682</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8819,7 +8819,7 @@
         <v>43689</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>43705</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8933,7 +8933,7 @@
         <v>43706</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8990,7 +8990,7 @@
         <v>43712</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9047,7 +9047,7 @@
         <v>43712</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9104,7 +9104,7 @@
         <v>43712</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9161,7 +9161,7 @@
         <v>43731</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9218,7 +9218,7 @@
         <v>43731</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9275,7 +9275,7 @@
         <v>43732</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9332,7 +9332,7 @@
         <v>43738</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9389,7 +9389,7 @@
         <v>43739</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9446,7 +9446,7 @@
         <v>43739</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>43741</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9560,7 +9560,7 @@
         <v>43742</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>43742</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>43742</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>43768</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>43770</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>43774</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>43775</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9959,7 +9959,7 @@
         <v>43775</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10016,7 +10016,7 @@
         <v>43790</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>43796</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10130,7 +10130,7 @@
         <v>43803</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10187,7 +10187,7 @@
         <v>43837</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>43837</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>43839</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10358,7 +10358,7 @@
         <v>43846</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>43850</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10472,7 +10472,7 @@
         <v>43852</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10529,7 +10529,7 @@
         <v>43854</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10586,7 +10586,7 @@
         <v>43858</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10643,7 +10643,7 @@
         <v>43859</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10705,7 +10705,7 @@
         <v>43871</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10762,7 +10762,7 @@
         <v>43871</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         <v>43875</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10876,7 +10876,7 @@
         <v>43880</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10933,7 +10933,7 @@
         <v>43880</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10990,7 +10990,7 @@
         <v>43886</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11052,7 +11052,7 @@
         <v>43901</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11109,7 +11109,7 @@
         <v>43901</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11166,7 +11166,7 @@
         <v>43901</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11223,7 +11223,7 @@
         <v>43903</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11280,7 +11280,7 @@
         <v>43908</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11337,7 +11337,7 @@
         <v>43908</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11394,7 +11394,7 @@
         <v>43913</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>43916</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11508,7 +11508,7 @@
         <v>43916</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>43927</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>43936</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>43937</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>43941</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>43943</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         <v>43943</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11907,7 +11907,7 @@
         <v>43949</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>43957</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>43957</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>43963</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>43966</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>43969</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>43983</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         <v>43983</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12363,7 +12363,7 @@
         <v>43983</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         <v>44000</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12477,7 +12477,7 @@
         <v>44007</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         <v>44019</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12591,7 +12591,7 @@
         <v>44020</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12648,7 +12648,7 @@
         <v>44020</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>44020</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12762,7 +12762,7 @@
         <v>44021</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12819,7 +12819,7 @@
         <v>44021</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12881,7 +12881,7 @@
         <v>44022</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12938,7 +12938,7 @@
         <v>44022</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12995,7 +12995,7 @@
         <v>44025</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13052,7 +13052,7 @@
         <v>44028</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13109,7 +13109,7 @@
         <v>44036</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13166,7 +13166,7 @@
         <v>44039</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13223,7 +13223,7 @@
         <v>44041</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13280,7 +13280,7 @@
         <v>44043</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13337,7 +13337,7 @@
         <v>44046</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13394,7 +13394,7 @@
         <v>44055</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13451,7 +13451,7 @@
         <v>44060</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>44062</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         <v>44088</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         <v>44092</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13679,7 +13679,7 @@
         <v>44095</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13736,7 +13736,7 @@
         <v>44095</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13793,7 +13793,7 @@
         <v>44095</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>44103</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>44107</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44107</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44122</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44122</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>44123</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>44123</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>44124</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>44132</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>44132</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>44133</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>44133</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44140</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44141</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>44144</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>44145</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>44146</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>44146</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14891,7 +14891,7 @@
         <v>44147</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>44147</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>44147</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15062,7 +15062,7 @@
         <v>44147</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>44147</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44159</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44159</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15290,7 +15290,7 @@
         <v>44162</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>44166</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15404,7 +15404,7 @@
         <v>44168</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15461,7 +15461,7 @@
         <v>44172</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15518,7 +15518,7 @@
         <v>44173</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15575,7 +15575,7 @@
         <v>44174</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15632,7 +15632,7 @@
         <v>44174</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15689,7 +15689,7 @@
         <v>44180</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         <v>44187</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15803,7 +15803,7 @@
         <v>44193</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>44199</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>44210</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15974,7 +15974,7 @@
         <v>44216</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16031,7 +16031,7 @@
         <v>44221</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16088,7 +16088,7 @@
         <v>44224</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16145,7 +16145,7 @@
         <v>44230</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16202,7 +16202,7 @@
         <v>44230</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16259,7 +16259,7 @@
         <v>44231</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16316,7 +16316,7 @@
         <v>44236</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16373,7 +16373,7 @@
         <v>44236</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16430,7 +16430,7 @@
         <v>44236</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16487,7 +16487,7 @@
         <v>44238</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16544,7 +16544,7 @@
         <v>44242</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16601,7 +16601,7 @@
         <v>44243</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16658,7 +16658,7 @@
         <v>44245</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16715,7 +16715,7 @@
         <v>44250</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16772,7 +16772,7 @@
         <v>44250</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16829,7 +16829,7 @@
         <v>44251</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>44256</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16943,7 +16943,7 @@
         <v>44261</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         <v>44263</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         <v>44263</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17119,7 +17119,7 @@
         <v>44266</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
         <v>44266</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17243,7 +17243,7 @@
         <v>44267</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17305,7 +17305,7 @@
         <v>44267</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17367,7 +17367,7 @@
         <v>44267</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17429,7 +17429,7 @@
         <v>44267</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17491,7 +17491,7 @@
         <v>44267</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17553,7 +17553,7 @@
         <v>44278</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17610,7 +17610,7 @@
         <v>44295</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17667,7 +17667,7 @@
         <v>44298</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17724,7 +17724,7 @@
         <v>44298</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17781,7 +17781,7 @@
         <v>44302</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
         <v>44302</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>44307</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17952,7 +17952,7 @@
         <v>44322</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18009,7 +18009,7 @@
         <v>44322</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         <v>44335</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18123,7 +18123,7 @@
         <v>44336</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18180,7 +18180,7 @@
         <v>44340</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>44356</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18294,7 +18294,7 @@
         <v>44356</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18351,7 +18351,7 @@
         <v>44357</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
         <v>44357</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18470,7 +18470,7 @@
         <v>44363</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18527,7 +18527,7 @@
         <v>44365</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18584,7 +18584,7 @@
         <v>44371</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18641,7 +18641,7 @@
         <v>44371</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18698,7 +18698,7 @@
         <v>44375</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18755,7 +18755,7 @@
         <v>44378</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18812,7 +18812,7 @@
         <v>44384</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18869,7 +18869,7 @@
         <v>44389</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18926,7 +18926,7 @@
         <v>44407</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18983,7 +18983,7 @@
         <v>44427</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19040,7 +19040,7 @@
         <v>44442</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19097,7 +19097,7 @@
         <v>44448</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19154,7 +19154,7 @@
         <v>44454</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19211,7 +19211,7 @@
         <v>44454</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19268,7 +19268,7 @@
         <v>44454</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19325,7 +19325,7 @@
         <v>44455</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19382,7 +19382,7 @@
         <v>44469</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19439,7 +19439,7 @@
         <v>44475</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19496,7 +19496,7 @@
         <v>44476</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19553,7 +19553,7 @@
         <v>44477</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19610,7 +19610,7 @@
         <v>44477</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19667,7 +19667,7 @@
         <v>44480</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19724,7 +19724,7 @@
         <v>44481</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19781,7 +19781,7 @@
         <v>44482</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19838,7 +19838,7 @@
         <v>44483</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19895,7 +19895,7 @@
         <v>44483</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -19952,7 +19952,7 @@
         <v>44487</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20014,7 +20014,7 @@
         <v>44487</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20076,7 +20076,7 @@
         <v>44488</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         <v>44489</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20190,7 +20190,7 @@
         <v>44489</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20247,7 +20247,7 @@
         <v>44489</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20304,7 +20304,7 @@
         <v>44501</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20361,7 +20361,7 @@
         <v>44502</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20418,7 +20418,7 @@
         <v>44508</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20475,7 +20475,7 @@
         <v>44510</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20532,7 +20532,7 @@
         <v>44515</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20594,7 +20594,7 @@
         <v>44529</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20651,7 +20651,7 @@
         <v>44530</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20708,7 +20708,7 @@
         <v>44557</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20765,7 +20765,7 @@
         <v>44559</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20822,7 +20822,7 @@
         <v>44559</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20879,7 +20879,7 @@
         <v>44573</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -20936,7 +20936,7 @@
         <v>44573</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -20993,7 +20993,7 @@
         <v>44575</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21050,7 +21050,7 @@
         <v>44592</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21107,7 +21107,7 @@
         <v>44592</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21164,7 +21164,7 @@
         <v>44596</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21226,7 +21226,7 @@
         <v>44600</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
         <v>44607</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>44613</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21397,7 +21397,7 @@
         <v>44621</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44631</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44634</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44637</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>44644</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21687,7 +21687,7 @@
         <v>44655</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         <v>44659</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21806,7 +21806,7 @@
         <v>44659</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>44659</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>44659</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -21987,7 +21987,7 @@
         <v>44671</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>44671</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>44693</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>44697</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>44711</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>44712</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>44714</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>44714</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22448,7 +22448,7 @@
         <v>44719</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22505,7 +22505,7 @@
         <v>44735</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22562,7 +22562,7 @@
         <v>44735</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22619,7 +22619,7 @@
         <v>44735</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22676,7 +22676,7 @@
         <v>44753</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22733,7 +22733,7 @@
         <v>44756</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22790,7 +22790,7 @@
         <v>44756</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22847,7 +22847,7 @@
         <v>44762</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -22904,7 +22904,7 @@
         <v>44778</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -22961,7 +22961,7 @@
         <v>44778</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23018,7 +23018,7 @@
         <v>44778</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23075,7 +23075,7 @@
         <v>44817</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23132,7 +23132,7 @@
         <v>44823</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23189,7 +23189,7 @@
         <v>44830</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23246,7 +23246,7 @@
         <v>44830</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23303,7 +23303,7 @@
         <v>44845</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23360,7 +23360,7 @@
         <v>44847</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23417,7 +23417,7 @@
         <v>44847</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23474,7 +23474,7 @@
         <v>44847</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23531,7 +23531,7 @@
         <v>44865</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23588,7 +23588,7 @@
         <v>44865</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23645,7 +23645,7 @@
         <v>44868</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23702,7 +23702,7 @@
         <v>44869</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23759,7 +23759,7 @@
         <v>44872</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23816,7 +23816,7 @@
         <v>44873</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -23873,7 +23873,7 @@
         <v>44876</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -23930,7 +23930,7 @@
         <v>44887</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -23987,7 +23987,7 @@
         <v>44889</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24044,7 +24044,7 @@
         <v>44893</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24101,7 +24101,7 @@
         <v>44900</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24158,7 +24158,7 @@
         <v>44900</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24215,7 +24215,7 @@
         <v>44900</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24272,7 +24272,7 @@
         <v>44900</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24329,7 +24329,7 @@
         <v>44903</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         <v>44903</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24443,7 +24443,7 @@
         <v>44926</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24505,7 +24505,7 @@
         <v>44951</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24562,7 +24562,7 @@
         <v>44964</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24619,7 +24619,7 @@
         <v>44964</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24676,7 +24676,7 @@
         <v>44970</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24733,7 +24733,7 @@
         <v>44970</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24790,7 +24790,7 @@
         <v>44974</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -24847,7 +24847,7 @@
         <v>44974</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -24904,7 +24904,7 @@
         <v>44974</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -24961,7 +24961,7 @@
         <v>44980</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25018,7 +25018,7 @@
         <v>44999</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         <v>45013</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25132,7 +25132,7 @@
         <v>45019</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25189,7 +25189,7 @@
         <v>45019</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25246,7 +25246,7 @@
         <v>45020</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25303,7 +25303,7 @@
         <v>45030</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25365,7 +25365,7 @@
         <v>45037</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25422,7 +25422,7 @@
         <v>45040</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25479,7 +25479,7 @@
         <v>45044</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25536,7 +25536,7 @@
         <v>45058</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25593,7 +25593,7 @@
         <v>45061</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25650,7 +25650,7 @@
         <v>45062</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25707,7 +25707,7 @@
         <v>45063</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25764,7 +25764,7 @@
         <v>45070</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25821,7 +25821,7 @@
         <v>45070</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -25878,7 +25878,7 @@
         <v>45070</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -25935,7 +25935,7 @@
         <v>45075</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -25992,7 +25992,7 @@
         <v>45084</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26049,7 +26049,7 @@
         <v>45084</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26106,7 +26106,7 @@
         <v>45089</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26163,7 +26163,7 @@
         <v>45091</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26220,7 +26220,7 @@
         <v>45092</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26277,7 +26277,7 @@
         <v>45092</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26334,7 +26334,7 @@
         <v>45097</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26391,7 +26391,7 @@
         <v>45097</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26448,7 +26448,7 @@
         <v>45097</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26505,7 +26505,7 @@
         <v>45097</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26562,7 +26562,7 @@
         <v>45099</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26619,7 +26619,7 @@
         <v>45109</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26676,7 +26676,7 @@
         <v>45109</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26733,7 +26733,7 @@
         <v>45110</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26790,7 +26790,7 @@
         <v>45110</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -26847,7 +26847,7 @@
         <v>45114</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -26904,7 +26904,7 @@
         <v>45117</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -26961,7 +26961,7 @@
         <v>45128</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27018,7 +27018,7 @@
         <v>45131</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27075,7 +27075,7 @@
         <v>45145</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27132,7 +27132,7 @@
         <v>45149</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27189,7 +27189,7 @@
         <v>45153</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27251,7 +27251,7 @@
         <v>45153</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27308,7 +27308,7 @@
         <v>45154</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27365,7 +27365,7 @@
         <v>45155</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27422,7 +27422,7 @@
         <v>45162</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27479,7 +27479,7 @@
         <v>45163</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27536,7 +27536,7 @@
         <v>45167</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27593,7 +27593,7 @@
         <v>45167</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27650,7 +27650,7 @@
         <v>45170</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27697,7 +27697,7 @@
       </c>
       <c r="R470" s="2" t="inlineStr"/>
     </row>
-    <row r="471">
+    <row r="471" ht="15" customHeight="1">
       <c r="A471" t="inlineStr">
         <is>
           <t>A 40731-2023</t>
@@ -27707,7 +27707,7 @@
         <v>45170</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27753,6 +27753,63 @@
         <v>0</v>
       </c>
       <c r="R471" s="2" t="inlineStr"/>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>A 42653-2023</t>
+        </is>
+      </c>
+      <c r="B472" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="C472" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>HALLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>HYLTE</t>
+        </is>
+      </c>
+      <c r="G472" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H472" t="n">
+        <v>0</v>
+      </c>
+      <c r="I472" t="n">
+        <v>0</v>
+      </c>
+      <c r="J472" t="n">
+        <v>0</v>
+      </c>
+      <c r="K472" t="n">
+        <v>0</v>
+      </c>
+      <c r="L472" t="n">
+        <v>0</v>
+      </c>
+      <c r="M472" t="n">
+        <v>0</v>
+      </c>
+      <c r="N472" t="n">
+        <v>0</v>
+      </c>
+      <c r="O472" t="n">
+        <v>0</v>
+      </c>
+      <c r="P472" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q472" t="n">
+        <v>0</v>
+      </c>
+      <c r="R472" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt HYLTE.xlsx
+++ b/Översikt HYLTE.xlsx
@@ -572,7 +572,7 @@
         <v>43986</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44873</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43923</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43769</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>44693</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>43342</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
         <v>43467</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>43983</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         <v>44601</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         <v>43319</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1404,7 +1404,7 @@
         <v>43348</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1461,7 +1461,7 @@
         <v>43374</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1518,7 +1518,7 @@
         <v>43409</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1632,7 +1632,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1689,7 +1689,7 @@
         <v>43413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         <v>43415</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>43415</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1860,7 +1860,7 @@
         <v>43415</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         <v>43418</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1974,7 +1974,7 @@
         <v>43419</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>43420</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>43420</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>43423</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         <v>43423</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>43425</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>43431</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
         <v>43432</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>43432</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>43432</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>43432</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>43432</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>43433</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>43433</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>43433</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>43433</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>43437</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>43437</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>43437</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         <v>43437</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>43437</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>43437</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         <v>43441</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         <v>43441</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3342,7 +3342,7 @@
         <v>43445</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         <v>43447</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>43447</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>43447</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3570,7 +3570,7 @@
         <v>43454</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         <v>43467</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
         <v>43467</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3741,7 +3741,7 @@
         <v>43467</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>43467</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3855,7 +3855,7 @@
         <v>43468</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
         <v>43468</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3969,7 +3969,7 @@
         <v>43468</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4026,7 +4026,7 @@
         <v>43472</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
         <v>43472</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4140,7 +4140,7 @@
         <v>43472</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4197,7 +4197,7 @@
         <v>43472</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4254,7 +4254,7 @@
         <v>43472</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         <v>43473</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>43473</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>43473</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>43473</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         <v>43475</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
         <v>43475</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>43475</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>43476</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4767,7 +4767,7 @@
         <v>43479</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>43479</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4881,7 +4881,7 @@
         <v>43482</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4938,7 +4938,7 @@
         <v>43483</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43493</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>43503</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>43503</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>43505</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         <v>43516</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>43516</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>43516</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>43516</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>43516</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5508,7 +5508,7 @@
         <v>43521</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
         <v>43523</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         <v>43524</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5679,7 +5679,7 @@
         <v>43528</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         <v>43531</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>43535</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         <v>43536</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>43536</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>43542</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>43542</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>43542</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>43542</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>43544</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>43545</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>43545</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>43549</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>43549</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>43550</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>43550</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>43552</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>43552</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>43553</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>43557</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6824,7 +6824,7 @@
         <v>43558</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>43558</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>43563</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         <v>43564</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>43564</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>43565</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>43566</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>43570</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>43573</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>43581</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>43584</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43587</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7508,7 +7508,7 @@
         <v>43606</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7565,7 +7565,7 @@
         <v>43612</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7622,7 +7622,7 @@
         <v>43612</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7679,7 +7679,7 @@
         <v>43612</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7736,7 +7736,7 @@
         <v>43616</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         <v>43619</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7850,7 +7850,7 @@
         <v>43620</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>43620</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>43656</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8021,7 +8021,7 @@
         <v>43658</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>43663</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8135,7 +8135,7 @@
         <v>43664</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8192,7 +8192,7 @@
         <v>43665</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8249,7 +8249,7 @@
         <v>43665</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         <v>43668</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8363,7 +8363,7 @@
         <v>43668</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8420,7 +8420,7 @@
         <v>43668</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8477,7 +8477,7 @@
         <v>43668</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8534,7 +8534,7 @@
         <v>43682</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8591,7 +8591,7 @@
         <v>43682</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         <v>43682</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         <v>43682</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8762,7 +8762,7 @@
         <v>43682</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8819,7 +8819,7 @@
         <v>43689</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>43705</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8933,7 +8933,7 @@
         <v>43706</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8990,7 +8990,7 @@
         <v>43712</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9047,7 +9047,7 @@
         <v>43712</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9104,7 +9104,7 @@
         <v>43712</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9161,7 +9161,7 @@
         <v>43731</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9218,7 +9218,7 @@
         <v>43731</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9275,7 +9275,7 @@
         <v>43732</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9332,7 +9332,7 @@
         <v>43738</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9389,7 +9389,7 @@
         <v>43739</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9446,7 +9446,7 @@
         <v>43739</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>43741</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9560,7 +9560,7 @@
         <v>43742</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>43742</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>43742</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>43768</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>43770</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>43774</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>43775</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9959,7 +9959,7 @@
         <v>43775</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10016,7 +10016,7 @@
         <v>43790</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>43796</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10130,7 +10130,7 @@
         <v>43803</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10187,7 +10187,7 @@
         <v>43837</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>43837</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>43839</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10358,7 +10358,7 @@
         <v>43846</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>43850</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10472,7 +10472,7 @@
         <v>43852</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10529,7 +10529,7 @@
         <v>43854</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10586,7 +10586,7 @@
         <v>43858</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10643,7 +10643,7 @@
         <v>43859</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10705,7 +10705,7 @@
         <v>43871</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10762,7 +10762,7 @@
         <v>43871</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         <v>43875</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10876,7 +10876,7 @@
         <v>43880</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10933,7 +10933,7 @@
         <v>43880</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10990,7 +10990,7 @@
         <v>43886</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11052,7 +11052,7 @@
         <v>43901</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11109,7 +11109,7 @@
         <v>43901</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11166,7 +11166,7 @@
         <v>43901</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11223,7 +11223,7 @@
         <v>43903</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11280,7 +11280,7 @@
         <v>43908</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11337,7 +11337,7 @@
         <v>43908</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11394,7 +11394,7 @@
         <v>43913</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>43916</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11508,7 +11508,7 @@
         <v>43916</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>43927</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>43936</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>43937</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>43941</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>43943</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         <v>43943</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11907,7 +11907,7 @@
         <v>43949</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>43957</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>43957</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>43963</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>43966</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>43969</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>43983</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         <v>43983</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12363,7 +12363,7 @@
         <v>43983</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         <v>44000</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12477,7 +12477,7 @@
         <v>44007</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         <v>44019</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12591,7 +12591,7 @@
         <v>44020</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12648,7 +12648,7 @@
         <v>44020</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>44020</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12762,7 +12762,7 @@
         <v>44021</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12819,7 +12819,7 @@
         <v>44021</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12881,7 +12881,7 @@
         <v>44022</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12938,7 +12938,7 @@
         <v>44022</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12995,7 +12995,7 @@
         <v>44025</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13052,7 +13052,7 @@
         <v>44028</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13109,7 +13109,7 @@
         <v>44036</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13166,7 +13166,7 @@
         <v>44039</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13223,7 +13223,7 @@
         <v>44041</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13280,7 +13280,7 @@
         <v>44043</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13337,7 +13337,7 @@
         <v>44046</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13394,7 +13394,7 @@
         <v>44055</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13451,7 +13451,7 @@
         <v>44060</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>44062</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         <v>44088</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         <v>44092</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13679,7 +13679,7 @@
         <v>44095</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13736,7 +13736,7 @@
         <v>44095</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13793,7 +13793,7 @@
         <v>44095</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>44103</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>44107</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44107</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44122</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44122</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>44123</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>44123</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>44124</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>44132</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>44132</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>44133</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>44133</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44140</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44141</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>44144</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>44145</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>44146</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>44146</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14891,7 +14891,7 @@
         <v>44147</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>44147</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>44147</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15062,7 +15062,7 @@
         <v>44147</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>44147</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44159</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44159</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15290,7 +15290,7 @@
         <v>44162</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>44166</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15404,7 +15404,7 @@
         <v>44168</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15461,7 +15461,7 @@
         <v>44172</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15518,7 +15518,7 @@
         <v>44173</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15575,7 +15575,7 @@
         <v>44174</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15632,7 +15632,7 @@
         <v>44174</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15689,7 +15689,7 @@
         <v>44180</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         <v>44187</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15803,7 +15803,7 @@
         <v>44193</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>44199</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>44210</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15974,7 +15974,7 @@
         <v>44216</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16031,7 +16031,7 @@
         <v>44221</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16088,7 +16088,7 @@
         <v>44224</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16145,7 +16145,7 @@
         <v>44230</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16202,7 +16202,7 @@
         <v>44230</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16259,7 +16259,7 @@
         <v>44231</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16316,7 +16316,7 @@
         <v>44236</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16373,7 +16373,7 @@
         <v>44236</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16430,7 +16430,7 @@
         <v>44236</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16487,7 +16487,7 @@
         <v>44238</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16544,7 +16544,7 @@
         <v>44242</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16601,7 +16601,7 @@
         <v>44243</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16658,7 +16658,7 @@
         <v>44245</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16715,7 +16715,7 @@
         <v>44250</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16772,7 +16772,7 @@
         <v>44250</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16829,7 +16829,7 @@
         <v>44251</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>44256</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16943,7 +16943,7 @@
         <v>44261</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         <v>44263</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         <v>44263</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17119,7 +17119,7 @@
         <v>44266</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
         <v>44266</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17243,7 +17243,7 @@
         <v>44267</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17305,7 +17305,7 @@
         <v>44267</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17367,7 +17367,7 @@
         <v>44267</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17429,7 +17429,7 @@
         <v>44267</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17491,7 +17491,7 @@
         <v>44267</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17553,7 +17553,7 @@
         <v>44278</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17610,7 +17610,7 @@
         <v>44295</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17667,7 +17667,7 @@
         <v>44298</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17724,7 +17724,7 @@
         <v>44298</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17781,7 +17781,7 @@
         <v>44302</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
         <v>44302</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>44307</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17952,7 +17952,7 @@
         <v>44322</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18009,7 +18009,7 @@
         <v>44322</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         <v>44335</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18123,7 +18123,7 @@
         <v>44336</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18180,7 +18180,7 @@
         <v>44340</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>44356</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18294,7 +18294,7 @@
         <v>44356</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18351,7 +18351,7 @@
         <v>44357</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
         <v>44357</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18470,7 +18470,7 @@
         <v>44363</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18527,7 +18527,7 @@
         <v>44365</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18584,7 +18584,7 @@
         <v>44371</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18641,7 +18641,7 @@
         <v>44371</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18698,7 +18698,7 @@
         <v>44375</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18755,7 +18755,7 @@
         <v>44378</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18812,7 +18812,7 @@
         <v>44384</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18869,7 +18869,7 @@
         <v>44389</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18926,7 +18926,7 @@
         <v>44407</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18983,7 +18983,7 @@
         <v>44427</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19040,7 +19040,7 @@
         <v>44442</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19097,7 +19097,7 @@
         <v>44448</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19154,7 +19154,7 @@
         <v>44454</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19211,7 +19211,7 @@
         <v>44454</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19268,7 +19268,7 @@
         <v>44454</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19325,7 +19325,7 @@
         <v>44455</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19382,7 +19382,7 @@
         <v>44469</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19439,7 +19439,7 @@
         <v>44475</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19496,7 +19496,7 @@
         <v>44476</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19553,7 +19553,7 @@
         <v>44477</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19610,7 +19610,7 @@
         <v>44477</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19667,7 +19667,7 @@
         <v>44480</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19724,7 +19724,7 @@
         <v>44481</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19781,7 +19781,7 @@
         <v>44482</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19838,7 +19838,7 @@
         <v>44483</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19895,7 +19895,7 @@
         <v>44483</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -19952,7 +19952,7 @@
         <v>44487</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20014,7 +20014,7 @@
         <v>44487</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20076,7 +20076,7 @@
         <v>44488</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         <v>44489</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20190,7 +20190,7 @@
         <v>44489</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20247,7 +20247,7 @@
         <v>44489</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20304,7 +20304,7 @@
         <v>44501</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20361,7 +20361,7 @@
         <v>44502</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20418,7 +20418,7 @@
         <v>44508</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20475,7 +20475,7 @@
         <v>44510</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20532,7 +20532,7 @@
         <v>44515</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20594,7 +20594,7 @@
         <v>44529</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20651,7 +20651,7 @@
         <v>44530</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20708,7 +20708,7 @@
         <v>44557</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20765,7 +20765,7 @@
         <v>44559</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20822,7 +20822,7 @@
         <v>44559</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20879,7 +20879,7 @@
         <v>44573</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -20936,7 +20936,7 @@
         <v>44573</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -20993,7 +20993,7 @@
         <v>44575</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21050,7 +21050,7 @@
         <v>44592</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21107,7 +21107,7 @@
         <v>44592</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21164,7 +21164,7 @@
         <v>44596</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21226,7 +21226,7 @@
         <v>44600</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
         <v>44607</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>44613</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21397,7 +21397,7 @@
         <v>44621</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44631</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44634</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44637</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>44644</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21687,7 +21687,7 @@
         <v>44655</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         <v>44659</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21806,7 +21806,7 @@
         <v>44659</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>44659</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>44659</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -21987,7 +21987,7 @@
         <v>44671</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>44671</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>44693</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>44697</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>44711</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>44712</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>44714</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>44714</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22448,7 +22448,7 @@
         <v>44719</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22505,7 +22505,7 @@
         <v>44735</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22562,7 +22562,7 @@
         <v>44735</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22619,7 +22619,7 @@
         <v>44735</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22676,7 +22676,7 @@
         <v>44753</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22733,7 +22733,7 @@
         <v>44756</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22790,7 +22790,7 @@
         <v>44756</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22847,7 +22847,7 @@
         <v>44762</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -22904,7 +22904,7 @@
         <v>44778</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -22961,7 +22961,7 @@
         <v>44778</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23018,7 +23018,7 @@
         <v>44778</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23075,7 +23075,7 @@
         <v>44817</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23132,7 +23132,7 @@
         <v>44823</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23189,7 +23189,7 @@
         <v>44830</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23246,7 +23246,7 @@
         <v>44830</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23303,7 +23303,7 @@
         <v>44845</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23360,7 +23360,7 @@
         <v>44847</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23417,7 +23417,7 @@
         <v>44847</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23474,7 +23474,7 @@
         <v>44847</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23531,7 +23531,7 @@
         <v>44865</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23588,7 +23588,7 @@
         <v>44865</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23645,7 +23645,7 @@
         <v>44868</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23702,7 +23702,7 @@
         <v>44869</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23759,7 +23759,7 @@
         <v>44872</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23816,7 +23816,7 @@
         <v>44873</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -23873,7 +23873,7 @@
         <v>44876</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -23930,7 +23930,7 @@
         <v>44887</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -23987,7 +23987,7 @@
         <v>44889</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24044,7 +24044,7 @@
         <v>44893</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24101,7 +24101,7 @@
         <v>44900</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24158,7 +24158,7 @@
         <v>44900</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24215,7 +24215,7 @@
         <v>44900</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24272,7 +24272,7 @@
         <v>44900</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24329,7 +24329,7 @@
         <v>44903</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         <v>44903</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24443,7 +24443,7 @@
         <v>44926</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24505,7 +24505,7 @@
         <v>44951</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24562,7 +24562,7 @@
         <v>44964</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24619,7 +24619,7 @@
         <v>44964</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24676,7 +24676,7 @@
         <v>44970</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24733,7 +24733,7 @@
         <v>44970</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24790,7 +24790,7 @@
         <v>44974</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -24847,7 +24847,7 @@
         <v>44974</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -24904,7 +24904,7 @@
         <v>44974</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -24961,7 +24961,7 @@
         <v>44980</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25018,7 +25018,7 @@
         <v>44999</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         <v>45013</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25132,7 +25132,7 @@
         <v>45019</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25189,7 +25189,7 @@
         <v>45019</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25246,7 +25246,7 @@
         <v>45020</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25303,7 +25303,7 @@
         <v>45030</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25365,7 +25365,7 @@
         <v>45037</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25422,7 +25422,7 @@
         <v>45040</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25479,7 +25479,7 @@
         <v>45044</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25536,7 +25536,7 @@
         <v>45058</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25593,7 +25593,7 @@
         <v>45061</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25650,7 +25650,7 @@
         <v>45062</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25707,7 +25707,7 @@
         <v>45063</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25764,7 +25764,7 @@
         <v>45070</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25821,7 +25821,7 @@
         <v>45070</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -25878,7 +25878,7 @@
         <v>45070</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -25935,7 +25935,7 @@
         <v>45075</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -25992,7 +25992,7 @@
         <v>45084</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26049,7 +26049,7 @@
         <v>45084</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26106,7 +26106,7 @@
         <v>45089</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26163,7 +26163,7 @@
         <v>45091</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26220,7 +26220,7 @@
         <v>45092</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26277,7 +26277,7 @@
         <v>45092</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26334,7 +26334,7 @@
         <v>45097</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26391,7 +26391,7 @@
         <v>45097</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26448,7 +26448,7 @@
         <v>45097</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26505,7 +26505,7 @@
         <v>45097</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26562,7 +26562,7 @@
         <v>45099</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26619,7 +26619,7 @@
         <v>45109</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26676,7 +26676,7 @@
         <v>45109</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26733,7 +26733,7 @@
         <v>45110</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26790,7 +26790,7 @@
         <v>45110</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -26847,7 +26847,7 @@
         <v>45114</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -26904,7 +26904,7 @@
         <v>45117</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -26961,7 +26961,7 @@
         <v>45128</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27018,7 +27018,7 @@
         <v>45131</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27075,7 +27075,7 @@
         <v>45145</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27132,7 +27132,7 @@
         <v>45149</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27189,7 +27189,7 @@
         <v>45153</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27251,7 +27251,7 @@
         <v>45153</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27308,7 +27308,7 @@
         <v>45154</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27365,7 +27365,7 @@
         <v>45155</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27422,7 +27422,7 @@
         <v>45162</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27479,7 +27479,7 @@
         <v>45163</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27536,7 +27536,7 @@
         <v>45167</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27593,7 +27593,7 @@
         <v>45167</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27650,7 +27650,7 @@
         <v>45170</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27707,7 +27707,7 @@
         <v>45170</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27764,7 +27764,7 @@
         <v>45181</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>

--- a/Översikt HYLTE.xlsx
+++ b/Översikt HYLTE.xlsx
@@ -572,7 +572,7 @@
         <v>43986</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -626,27 +626,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/artfynd/A 26302-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/artfynd/A 26302-2020.xlsx", "A 26302-2020")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/kartor/A 26302-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/kartor/A 26302-2020.png", "A 26302-2020")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/klagomål/A 26302-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/klagomål/A 26302-2020.docx", "A 26302-2020")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/klagomålsmail/A 26302-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/klagomålsmail/A 26302-2020.docx", "A 26302-2020")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/tillsyn/A 26302-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/tillsyn/A 26302-2020.docx", "A 26302-2020")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/tillsynsmail/A 26302-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/tillsynsmail/A 26302-2020.docx", "A 26302-2020")</f>
         <v/>
       </c>
     </row>
@@ -660,7 +660,7 @@
         <v>44873</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -714,27 +714,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/artfynd/A 52117-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/artfynd/A 52117-2022.xlsx", "A 52117-2022")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/kartor/A 52117-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/kartor/A 52117-2022.png", "A 52117-2022")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/klagomål/A 52117-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/klagomål/A 52117-2022.docx", "A 52117-2022")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/klagomålsmail/A 52117-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/klagomålsmail/A 52117-2022.docx", "A 52117-2022")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/tillsyn/A 52117-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/tillsyn/A 52117-2022.docx", "A 52117-2022")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/tillsynsmail/A 52117-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/tillsynsmail/A 52117-2022.docx", "A 52117-2022")</f>
         <v/>
       </c>
     </row>
@@ -748,7 +748,7 @@
         <v>43923</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -801,27 +801,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/artfynd/A 17422-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/artfynd/A 17422-2020.xlsx", "A 17422-2020")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/kartor/A 17422-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/kartor/A 17422-2020.png", "A 17422-2020")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/klagomål/A 17422-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/klagomål/A 17422-2020.docx", "A 17422-2020")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/klagomålsmail/A 17422-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/klagomålsmail/A 17422-2020.docx", "A 17422-2020")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/tillsyn/A 17422-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/tillsyn/A 17422-2020.docx", "A 17422-2020")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/tillsynsmail/A 17422-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/tillsynsmail/A 17422-2020.docx", "A 17422-2020")</f>
         <v/>
       </c>
     </row>
@@ -835,7 +835,7 @@
         <v>43769</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -887,27 +887,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/artfynd/A 57960-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/artfynd/A 57960-2019.xlsx", "A 57960-2019")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/kartor/A 57960-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/kartor/A 57960-2019.png", "A 57960-2019")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/klagomål/A 57960-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/klagomål/A 57960-2019.docx", "A 57960-2019")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/klagomålsmail/A 57960-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/klagomålsmail/A 57960-2019.docx", "A 57960-2019")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/tillsyn/A 57960-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/tillsyn/A 57960-2019.docx", "A 57960-2019")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/tillsynsmail/A 57960-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/tillsynsmail/A 57960-2019.docx", "A 57960-2019")</f>
         <v/>
       </c>
     </row>
@@ -921,7 +921,7 @@
         <v>44693</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -973,27 +973,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/artfynd/A 19477-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/artfynd/A 19477-2022.xlsx", "A 19477-2022")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/kartor/A 19477-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/kartor/A 19477-2022.png", "A 19477-2022")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/klagomål/A 19477-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/klagomål/A 19477-2022.docx", "A 19477-2022")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/klagomålsmail/A 19477-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/klagomålsmail/A 19477-2022.docx", "A 19477-2022")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/tillsyn/A 19477-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/tillsyn/A 19477-2022.docx", "A 19477-2022")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/tillsynsmail/A 19477-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/tillsynsmail/A 19477-2022.docx", "A 19477-2022")</f>
         <v/>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
         <v>43342</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1058,27 +1058,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/artfynd/A 39723-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/artfynd/A 39723-2018.xlsx", "A 39723-2018")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/kartor/A 39723-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/kartor/A 39723-2018.png", "A 39723-2018")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/klagomål/A 39723-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/klagomål/A 39723-2018.docx", "A 39723-2018")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/klagomålsmail/A 39723-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/klagomålsmail/A 39723-2018.docx", "A 39723-2018")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/tillsyn/A 39723-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/tillsyn/A 39723-2018.docx", "A 39723-2018")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/tillsynsmail/A 39723-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/tillsynsmail/A 39723-2018.docx", "A 39723-2018")</f>
         <v/>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
         <v>43467</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1143,27 +1143,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/artfynd/A 112-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/artfynd/A 112-2019.xlsx", "A 112-2019")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/kartor/A 112-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/kartor/A 112-2019.png", "A 112-2019")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/klagomål/A 112-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/klagomål/A 112-2019.docx", "A 112-2019")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/klagomålsmail/A 112-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/klagomålsmail/A 112-2019.docx", "A 112-2019")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/tillsyn/A 112-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/tillsyn/A 112-2019.docx", "A 112-2019")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/tillsynsmail/A 112-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/tillsynsmail/A 112-2019.docx", "A 112-2019")</f>
         <v/>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
         <v>43983</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1228,27 +1228,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/artfynd/A 25537-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/artfynd/A 25537-2020.xlsx", "A 25537-2020")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/kartor/A 25537-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/kartor/A 25537-2020.png", "A 25537-2020")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/klagomål/A 25537-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/klagomål/A 25537-2020.docx", "A 25537-2020")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/klagomålsmail/A 25537-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/klagomålsmail/A 25537-2020.docx", "A 25537-2020")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/tillsyn/A 25537-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/tillsyn/A 25537-2020.docx", "A 25537-2020")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/tillsynsmail/A 25537-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/tillsynsmail/A 25537-2020.docx", "A 25537-2020")</f>
         <v/>
       </c>
     </row>
@@ -1262,7 +1262,7 @@
         <v>44601</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1313,27 +1313,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/artfynd/A 6626-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/artfynd/A 6626-2022.xlsx", "A 6626-2022")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/kartor/A 6626-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/kartor/A 6626-2022.png", "A 6626-2022")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/klagomål/A 6626-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/klagomål/A 6626-2022.docx", "A 6626-2022")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/klagomålsmail/A 6626-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/klagomålsmail/A 6626-2022.docx", "A 6626-2022")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/tillsyn/A 6626-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/tillsyn/A 6626-2022.docx", "A 6626-2022")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/tillsynsmail/A 6626-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HYLTE/tillsynsmail/A 6626-2022.docx", "A 6626-2022")</f>
         <v/>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
         <v>43319</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1404,7 +1404,7 @@
         <v>43348</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1461,7 +1461,7 @@
         <v>43374</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1518,7 +1518,7 @@
         <v>43409</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1632,7 +1632,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1689,7 +1689,7 @@
         <v>43413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         <v>43415</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>43415</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1860,7 +1860,7 @@
         <v>43415</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         <v>43418</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1974,7 +1974,7 @@
         <v>43419</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>43420</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>43420</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>43423</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         <v>43423</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>43425</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>43431</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
         <v>43432</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>43432</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>43432</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>43432</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>43432</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>43433</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>43433</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>43433</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>43433</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>43437</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>43437</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>43437</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         <v>43437</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>43437</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>43437</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         <v>43441</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         <v>43441</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3342,7 +3342,7 @@
         <v>43445</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         <v>43447</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>43447</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>43447</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3570,7 +3570,7 @@
         <v>43454</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         <v>43467</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
         <v>43467</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3741,7 +3741,7 @@
         <v>43467</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>43467</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3855,7 +3855,7 @@
         <v>43468</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
         <v>43468</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3969,7 +3969,7 @@
         <v>43468</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4026,7 +4026,7 @@
         <v>43472</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
         <v>43472</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4140,7 +4140,7 @@
         <v>43472</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4197,7 +4197,7 @@
         <v>43472</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4254,7 +4254,7 @@
         <v>43472</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         <v>43473</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>43473</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>43473</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>43473</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         <v>43475</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
         <v>43475</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>43475</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>43476</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4767,7 +4767,7 @@
         <v>43479</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>43479</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4881,7 +4881,7 @@
         <v>43482</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4938,7 +4938,7 @@
         <v>43483</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43493</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>43503</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>43503</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>43505</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         <v>43516</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>43516</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>43516</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>43516</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>43516</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5508,7 +5508,7 @@
         <v>43521</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
         <v>43523</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         <v>43524</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5679,7 +5679,7 @@
         <v>43528</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         <v>43531</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>43535</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         <v>43536</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>43536</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>43542</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>43542</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>43542</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>43542</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>43544</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>43545</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>43545</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>43549</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>43549</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>43550</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>43550</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>43552</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>43552</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>43553</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>43557</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6824,7 +6824,7 @@
         <v>43558</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>43558</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>43563</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         <v>43564</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>43564</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>43565</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>43566</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>43570</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>43573</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>43581</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>43584</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43587</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7508,7 +7508,7 @@
         <v>43606</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7565,7 +7565,7 @@
         <v>43612</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7622,7 +7622,7 @@
         <v>43612</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7679,7 +7679,7 @@
         <v>43612</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7736,7 +7736,7 @@
         <v>43616</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         <v>43619</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7850,7 +7850,7 @@
         <v>43620</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>43620</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>43656</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8021,7 +8021,7 @@
         <v>43658</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>43663</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8135,7 +8135,7 @@
         <v>43664</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8192,7 +8192,7 @@
         <v>43665</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8249,7 +8249,7 @@
         <v>43665</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         <v>43668</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8363,7 +8363,7 @@
         <v>43668</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8420,7 +8420,7 @@
         <v>43668</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8477,7 +8477,7 @@
         <v>43668</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8534,7 +8534,7 @@
         <v>43682</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8591,7 +8591,7 @@
         <v>43682</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         <v>43682</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         <v>43682</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8762,7 +8762,7 @@
         <v>43682</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8819,7 +8819,7 @@
         <v>43689</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>43705</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8933,7 +8933,7 @@
         <v>43706</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8990,7 +8990,7 @@
         <v>43712</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9047,7 +9047,7 @@
         <v>43712</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9104,7 +9104,7 @@
         <v>43712</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9161,7 +9161,7 @@
         <v>43731</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9218,7 +9218,7 @@
         <v>43731</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9275,7 +9275,7 @@
         <v>43732</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9332,7 +9332,7 @@
         <v>43738</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9389,7 +9389,7 @@
         <v>43739</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9446,7 +9446,7 @@
         <v>43739</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>43741</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9560,7 +9560,7 @@
         <v>43742</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>43742</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>43742</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>43768</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>43770</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>43774</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>43775</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9959,7 +9959,7 @@
         <v>43775</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10016,7 +10016,7 @@
         <v>43790</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>43796</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10130,7 +10130,7 @@
         <v>43803</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10187,7 +10187,7 @@
         <v>43837</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>43837</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>43839</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10358,7 +10358,7 @@
         <v>43846</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>43850</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10472,7 +10472,7 @@
         <v>43852</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10529,7 +10529,7 @@
         <v>43854</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10586,7 +10586,7 @@
         <v>43858</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10643,7 +10643,7 @@
         <v>43859</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10705,7 +10705,7 @@
         <v>43871</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10762,7 +10762,7 @@
         <v>43871</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         <v>43875</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10876,7 +10876,7 @@
         <v>43880</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10933,7 +10933,7 @@
         <v>43880</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10990,7 +10990,7 @@
         <v>43886</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11052,7 +11052,7 @@
         <v>43901</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11109,7 +11109,7 @@
         <v>43901</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11166,7 +11166,7 @@
         <v>43901</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11223,7 +11223,7 @@
         <v>43903</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11280,7 +11280,7 @@
         <v>43908</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11337,7 +11337,7 @@
         <v>43908</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11394,7 +11394,7 @@
         <v>43913</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>43916</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11508,7 +11508,7 @@
         <v>43916</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>43927</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>43936</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>43937</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>43941</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>43943</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         <v>43943</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11907,7 +11907,7 @@
         <v>43949</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>43957</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>43957</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>43963</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>43966</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>43969</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>43983</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         <v>43983</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12363,7 +12363,7 @@
         <v>43983</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         <v>44000</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12477,7 +12477,7 @@
         <v>44007</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         <v>44019</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12591,7 +12591,7 @@
         <v>44020</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12648,7 +12648,7 @@
         <v>44020</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>44020</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12762,7 +12762,7 @@
         <v>44021</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12819,7 +12819,7 @@
         <v>44021</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12881,7 +12881,7 @@
         <v>44022</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12938,7 +12938,7 @@
         <v>44022</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12995,7 +12995,7 @@
         <v>44025</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13052,7 +13052,7 @@
         <v>44028</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13109,7 +13109,7 @@
         <v>44036</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13166,7 +13166,7 @@
         <v>44039</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13223,7 +13223,7 @@
         <v>44041</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13280,7 +13280,7 @@
         <v>44043</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13337,7 +13337,7 @@
         <v>44046</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13394,7 +13394,7 @@
         <v>44055</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13451,7 +13451,7 @@
         <v>44060</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>44062</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         <v>44088</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         <v>44092</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13679,7 +13679,7 @@
         <v>44095</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13736,7 +13736,7 @@
         <v>44095</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13793,7 +13793,7 @@
         <v>44095</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>44103</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>44107</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44107</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44122</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44122</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>44123</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>44123</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>44124</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>44132</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>44132</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>44133</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>44133</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44140</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44141</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>44144</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>44145</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>44146</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>44146</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14891,7 +14891,7 @@
         <v>44147</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>44147</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>44147</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15062,7 +15062,7 @@
         <v>44147</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>44147</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44159</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44159</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15290,7 +15290,7 @@
         <v>44162</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>44166</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15404,7 +15404,7 @@
         <v>44168</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15461,7 +15461,7 @@
         <v>44172</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15518,7 +15518,7 @@
         <v>44173</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15575,7 +15575,7 @@
         <v>44174</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15632,7 +15632,7 @@
         <v>44174</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15689,7 +15689,7 @@
         <v>44180</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         <v>44187</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15803,7 +15803,7 @@
         <v>44193</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>44199</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>44210</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15974,7 +15974,7 @@
         <v>44216</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16031,7 +16031,7 @@
         <v>44221</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16088,7 +16088,7 @@
         <v>44224</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16145,7 +16145,7 @@
         <v>44230</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16202,7 +16202,7 @@
         <v>44230</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16259,7 +16259,7 @@
         <v>44231</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16316,7 +16316,7 @@
         <v>44236</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16373,7 +16373,7 @@
         <v>44236</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16430,7 +16430,7 @@
         <v>44236</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16487,7 +16487,7 @@
         <v>44238</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16544,7 +16544,7 @@
         <v>44242</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16601,7 +16601,7 @@
         <v>44243</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16658,7 +16658,7 @@
         <v>44245</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16715,7 +16715,7 @@
         <v>44250</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16772,7 +16772,7 @@
         <v>44250</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16829,7 +16829,7 @@
         <v>44251</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>44256</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16943,7 +16943,7 @@
         <v>44261</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         <v>44263</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         <v>44263</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17119,7 +17119,7 @@
         <v>44266</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
         <v>44266</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17243,7 +17243,7 @@
         <v>44267</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17305,7 +17305,7 @@
         <v>44267</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17367,7 +17367,7 @@
         <v>44267</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17429,7 +17429,7 @@
         <v>44267</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17491,7 +17491,7 @@
         <v>44267</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17553,7 +17553,7 @@
         <v>44278</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17610,7 +17610,7 @@
         <v>44295</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17667,7 +17667,7 @@
         <v>44298</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17724,7 +17724,7 @@
         <v>44298</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17781,7 +17781,7 @@
         <v>44302</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
         <v>44302</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>44307</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17952,7 +17952,7 @@
         <v>44322</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18009,7 +18009,7 @@
         <v>44322</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         <v>44335</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18123,7 +18123,7 @@
         <v>44336</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18180,7 +18180,7 @@
         <v>44340</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>44356</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18294,7 +18294,7 @@
         <v>44356</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18351,7 +18351,7 @@
         <v>44357</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
         <v>44357</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18470,7 +18470,7 @@
         <v>44363</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18527,7 +18527,7 @@
         <v>44365</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18584,7 +18584,7 @@
         <v>44371</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18641,7 +18641,7 @@
         <v>44371</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18698,7 +18698,7 @@
         <v>44375</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18755,7 +18755,7 @@
         <v>44378</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18812,7 +18812,7 @@
         <v>44384</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18869,7 +18869,7 @@
         <v>44389</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18926,7 +18926,7 @@
         <v>44407</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18983,7 +18983,7 @@
         <v>44427</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19040,7 +19040,7 @@
         <v>44442</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19097,7 +19097,7 @@
         <v>44448</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19154,7 +19154,7 @@
         <v>44454</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19211,7 +19211,7 @@
         <v>44454</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19268,7 +19268,7 @@
         <v>44454</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19325,7 +19325,7 @@
         <v>44455</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19382,7 +19382,7 @@
         <v>44469</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19439,7 +19439,7 @@
         <v>44475</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19496,7 +19496,7 @@
         <v>44476</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19553,7 +19553,7 @@
         <v>44477</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19610,7 +19610,7 @@
         <v>44477</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19667,7 +19667,7 @@
         <v>44480</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19724,7 +19724,7 @@
         <v>44481</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19781,7 +19781,7 @@
         <v>44482</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19838,7 +19838,7 @@
         <v>44483</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19895,7 +19895,7 @@
         <v>44483</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -19952,7 +19952,7 @@
         <v>44487</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20014,7 +20014,7 @@
         <v>44487</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20076,7 +20076,7 @@
         <v>44488</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         <v>44489</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20190,7 +20190,7 @@
         <v>44489</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20247,7 +20247,7 @@
         <v>44489</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20304,7 +20304,7 @@
         <v>44501</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20361,7 +20361,7 @@
         <v>44502</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20418,7 +20418,7 @@
         <v>44508</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20475,7 +20475,7 @@
         <v>44510</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20532,7 +20532,7 @@
         <v>44515</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20594,7 +20594,7 @@
         <v>44529</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20651,7 +20651,7 @@
         <v>44530</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20708,7 +20708,7 @@
         <v>44557</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20765,7 +20765,7 @@
         <v>44559</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20822,7 +20822,7 @@
         <v>44559</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20879,7 +20879,7 @@
         <v>44573</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -20936,7 +20936,7 @@
         <v>44573</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -20993,7 +20993,7 @@
         <v>44575</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21050,7 +21050,7 @@
         <v>44592</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21107,7 +21107,7 @@
         <v>44592</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21164,7 +21164,7 @@
         <v>44596</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21226,7 +21226,7 @@
         <v>44600</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
         <v>44607</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>44613</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21397,7 +21397,7 @@
         <v>44621</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44631</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44634</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44637</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>44644</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21687,7 +21687,7 @@
         <v>44655</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         <v>44659</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21806,7 +21806,7 @@
         <v>44659</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>44659</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>44659</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -21987,7 +21987,7 @@
         <v>44671</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>44671</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>44693</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>44697</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>44711</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>44712</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>44714</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>44714</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22448,7 +22448,7 @@
         <v>44719</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22505,7 +22505,7 @@
         <v>44735</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22562,7 +22562,7 @@
         <v>44735</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22619,7 +22619,7 @@
         <v>44735</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22676,7 +22676,7 @@
         <v>44753</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22733,7 +22733,7 @@
         <v>44756</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22790,7 +22790,7 @@
         <v>44756</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22847,7 +22847,7 @@
         <v>44762</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -22904,7 +22904,7 @@
         <v>44778</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -22961,7 +22961,7 @@
         <v>44778</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23018,7 +23018,7 @@
         <v>44778</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23075,7 +23075,7 @@
         <v>44817</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23132,7 +23132,7 @@
         <v>44823</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23189,7 +23189,7 @@
         <v>44830</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23246,7 +23246,7 @@
         <v>44830</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23303,7 +23303,7 @@
         <v>44845</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23360,7 +23360,7 @@
         <v>44847</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23417,7 +23417,7 @@
         <v>44847</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23474,7 +23474,7 @@
         <v>44847</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23531,7 +23531,7 @@
         <v>44865</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23588,7 +23588,7 @@
         <v>44865</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23645,7 +23645,7 @@
         <v>44868</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23702,7 +23702,7 @@
         <v>44869</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23759,7 +23759,7 @@
         <v>44872</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23816,7 +23816,7 @@
         <v>44873</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -23873,7 +23873,7 @@
         <v>44876</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -23930,7 +23930,7 @@
         <v>44887</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -23987,7 +23987,7 @@
         <v>44889</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24044,7 +24044,7 @@
         <v>44893</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24101,7 +24101,7 @@
         <v>44900</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24158,7 +24158,7 @@
         <v>44900</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24215,7 +24215,7 @@
         <v>44900</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24272,7 +24272,7 @@
         <v>44900</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24329,7 +24329,7 @@
         <v>44903</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         <v>44903</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24443,7 +24443,7 @@
         <v>44926</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24505,7 +24505,7 @@
         <v>44951</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24562,7 +24562,7 @@
         <v>44964</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24619,7 +24619,7 @@
         <v>44964</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24676,7 +24676,7 @@
         <v>44970</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24733,7 +24733,7 @@
         <v>44970</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24790,7 +24790,7 @@
         <v>44974</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -24847,7 +24847,7 @@
         <v>44974</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -24904,7 +24904,7 @@
         <v>44974</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -24961,7 +24961,7 @@
         <v>44980</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25018,7 +25018,7 @@
         <v>44999</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         <v>45013</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25132,7 +25132,7 @@
         <v>45019</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25189,7 +25189,7 @@
         <v>45019</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25246,7 +25246,7 @@
         <v>45020</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25303,7 +25303,7 @@
         <v>45030</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25365,7 +25365,7 @@
         <v>45037</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25422,7 +25422,7 @@
         <v>45040</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25479,7 +25479,7 @@
         <v>45044</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25536,7 +25536,7 @@
         <v>45058</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25593,7 +25593,7 @@
         <v>45061</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25650,7 +25650,7 @@
         <v>45062</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25707,7 +25707,7 @@
         <v>45063</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25764,7 +25764,7 @@
         <v>45070</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25821,7 +25821,7 @@
         <v>45070</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -25878,7 +25878,7 @@
         <v>45070</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -25935,7 +25935,7 @@
         <v>45075</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -25992,7 +25992,7 @@
         <v>45084</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26049,7 +26049,7 @@
         <v>45084</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26106,7 +26106,7 @@
         <v>45089</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26163,7 +26163,7 @@
         <v>45091</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26220,7 +26220,7 @@
         <v>45092</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26277,7 +26277,7 @@
         <v>45092</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26334,7 +26334,7 @@
         <v>45097</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26391,7 +26391,7 @@
         <v>45097</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26448,7 +26448,7 @@
         <v>45097</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26505,7 +26505,7 @@
         <v>45097</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26562,7 +26562,7 @@
         <v>45099</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26619,7 +26619,7 @@
         <v>45109</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26676,7 +26676,7 @@
         <v>45109</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26733,7 +26733,7 @@
         <v>45110</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26790,7 +26790,7 @@
         <v>45110</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -26847,7 +26847,7 @@
         <v>45114</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -26904,7 +26904,7 @@
         <v>45117</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -26961,7 +26961,7 @@
         <v>45128</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27018,7 +27018,7 @@
         <v>45131</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27075,7 +27075,7 @@
         <v>45145</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27132,7 +27132,7 @@
         <v>45149</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27189,7 +27189,7 @@
         <v>45153</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27251,7 +27251,7 @@
         <v>45153</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27308,7 +27308,7 @@
         <v>45154</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27365,7 +27365,7 @@
         <v>45155</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27422,7 +27422,7 @@
         <v>45162</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27479,7 +27479,7 @@
         <v>45163</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27536,7 +27536,7 @@
         <v>45167</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27593,7 +27593,7 @@
         <v>45167</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27650,7 +27650,7 @@
         <v>45170</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27707,7 +27707,7 @@
         <v>45170</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27764,7 +27764,7 @@
         <v>45181</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>

--- a/Översikt HYLTE.xlsx
+++ b/Översikt HYLTE.xlsx
@@ -572,7 +572,7 @@
         <v>43986</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44873</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43923</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43769</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>44693</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>43342</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
         <v>43467</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>43983</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         <v>44601</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         <v>43319</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1404,7 +1404,7 @@
         <v>43348</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1461,7 +1461,7 @@
         <v>43374</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1518,7 +1518,7 @@
         <v>43409</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1632,7 +1632,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1689,7 +1689,7 @@
         <v>43413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         <v>43415</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>43415</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1860,7 +1860,7 @@
         <v>43415</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         <v>43418</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1974,7 +1974,7 @@
         <v>43419</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>43420</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>43420</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>43423</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         <v>43423</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>43425</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>43431</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
         <v>43432</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>43432</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>43432</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>43432</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>43432</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>43433</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>43433</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>43433</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>43433</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>43437</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>43437</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>43437</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         <v>43437</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>43437</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>43437</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         <v>43441</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         <v>43441</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3342,7 +3342,7 @@
         <v>43445</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         <v>43447</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>43447</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>43447</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3570,7 +3570,7 @@
         <v>43454</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         <v>43467</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
         <v>43467</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3741,7 +3741,7 @@
         <v>43467</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>43467</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3855,7 +3855,7 @@
         <v>43468</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
         <v>43468</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3969,7 +3969,7 @@
         <v>43468</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4026,7 +4026,7 @@
         <v>43472</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
         <v>43472</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4140,7 +4140,7 @@
         <v>43472</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4197,7 +4197,7 @@
         <v>43472</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4254,7 +4254,7 @@
         <v>43472</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         <v>43473</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>43473</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>43473</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>43473</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         <v>43475</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
         <v>43475</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>43475</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>43476</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4767,7 +4767,7 @@
         <v>43479</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>43479</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4881,7 +4881,7 @@
         <v>43482</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4938,7 +4938,7 @@
         <v>43483</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43493</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>43503</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>43503</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>43505</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         <v>43516</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>43516</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>43516</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>43516</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>43516</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5508,7 +5508,7 @@
         <v>43521</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
         <v>43523</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         <v>43524</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5679,7 +5679,7 @@
         <v>43528</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         <v>43531</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>43535</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         <v>43536</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>43536</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>43542</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>43542</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>43542</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>43542</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>43544</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>43545</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>43545</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>43549</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>43549</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>43550</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>43550</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>43552</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>43552</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>43553</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>43557</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6824,7 +6824,7 @@
         <v>43558</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>43558</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>43563</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         <v>43564</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>43564</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>43565</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>43566</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>43570</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>43573</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>43581</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>43584</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43587</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7508,7 +7508,7 @@
         <v>43606</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7565,7 +7565,7 @@
         <v>43612</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7622,7 +7622,7 @@
         <v>43612</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7679,7 +7679,7 @@
         <v>43612</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7736,7 +7736,7 @@
         <v>43616</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         <v>43619</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7850,7 +7850,7 @@
         <v>43620</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>43620</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>43656</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8021,7 +8021,7 @@
         <v>43658</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>43663</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8135,7 +8135,7 @@
         <v>43664</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8192,7 +8192,7 @@
         <v>43665</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8249,7 +8249,7 @@
         <v>43665</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         <v>43668</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8363,7 +8363,7 @@
         <v>43668</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8420,7 +8420,7 @@
         <v>43668</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8477,7 +8477,7 @@
         <v>43668</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8534,7 +8534,7 @@
         <v>43682</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8591,7 +8591,7 @@
         <v>43682</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         <v>43682</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         <v>43682</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8762,7 +8762,7 @@
         <v>43682</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8819,7 +8819,7 @@
         <v>43689</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>43705</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8933,7 +8933,7 @@
         <v>43706</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8990,7 +8990,7 @@
         <v>43712</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9047,7 +9047,7 @@
         <v>43712</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9104,7 +9104,7 @@
         <v>43712</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9161,7 +9161,7 @@
         <v>43731</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9218,7 +9218,7 @@
         <v>43731</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9275,7 +9275,7 @@
         <v>43732</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9332,7 +9332,7 @@
         <v>43738</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9389,7 +9389,7 @@
         <v>43739</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9446,7 +9446,7 @@
         <v>43739</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>43741</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9560,7 +9560,7 @@
         <v>43742</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>43742</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>43742</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>43768</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>43770</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>43774</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>43775</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9959,7 +9959,7 @@
         <v>43775</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10016,7 +10016,7 @@
         <v>43790</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>43796</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10130,7 +10130,7 @@
         <v>43803</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10187,7 +10187,7 @@
         <v>43837</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>43837</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>43839</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10358,7 +10358,7 @@
         <v>43846</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>43850</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10472,7 +10472,7 @@
         <v>43852</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10529,7 +10529,7 @@
         <v>43854</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10586,7 +10586,7 @@
         <v>43858</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10643,7 +10643,7 @@
         <v>43859</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10705,7 +10705,7 @@
         <v>43871</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10762,7 +10762,7 @@
         <v>43871</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         <v>43875</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10876,7 +10876,7 @@
         <v>43880</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10933,7 +10933,7 @@
         <v>43880</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10990,7 +10990,7 @@
         <v>43886</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11052,7 +11052,7 @@
         <v>43901</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11109,7 +11109,7 @@
         <v>43901</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11166,7 +11166,7 @@
         <v>43901</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11223,7 +11223,7 @@
         <v>43903</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11280,7 +11280,7 @@
         <v>43908</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11337,7 +11337,7 @@
         <v>43908</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11394,7 +11394,7 @@
         <v>43913</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>43916</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11508,7 +11508,7 @@
         <v>43916</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>43927</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>43936</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>43937</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>43941</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>43943</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         <v>43943</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11907,7 +11907,7 @@
         <v>43949</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>43957</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>43957</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>43963</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>43966</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>43969</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>43983</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         <v>43983</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12363,7 +12363,7 @@
         <v>43983</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         <v>44000</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12477,7 +12477,7 @@
         <v>44007</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         <v>44019</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12591,7 +12591,7 @@
         <v>44020</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12648,7 +12648,7 @@
         <v>44020</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>44020</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12762,7 +12762,7 @@
         <v>44021</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12819,7 +12819,7 @@
         <v>44021</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12881,7 +12881,7 @@
         <v>44022</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12938,7 +12938,7 @@
         <v>44022</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12995,7 +12995,7 @@
         <v>44025</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13052,7 +13052,7 @@
         <v>44028</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13109,7 +13109,7 @@
         <v>44036</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13166,7 +13166,7 @@
         <v>44039</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13223,7 +13223,7 @@
         <v>44041</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13280,7 +13280,7 @@
         <v>44043</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13337,7 +13337,7 @@
         <v>44046</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13394,7 +13394,7 @@
         <v>44055</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13451,7 +13451,7 @@
         <v>44060</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>44062</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         <v>44088</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         <v>44092</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13679,7 +13679,7 @@
         <v>44095</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13736,7 +13736,7 @@
         <v>44095</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13793,7 +13793,7 @@
         <v>44095</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>44103</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>44107</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44107</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44122</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44122</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>44123</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>44123</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>44124</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>44132</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>44132</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>44133</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>44133</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44140</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44141</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>44144</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>44145</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>44146</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>44146</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14891,7 +14891,7 @@
         <v>44147</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>44147</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>44147</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15062,7 +15062,7 @@
         <v>44147</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>44147</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44159</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44159</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15290,7 +15290,7 @@
         <v>44162</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>44166</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15404,7 +15404,7 @@
         <v>44168</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15461,7 +15461,7 @@
         <v>44172</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15518,7 +15518,7 @@
         <v>44173</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15575,7 +15575,7 @@
         <v>44174</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15632,7 +15632,7 @@
         <v>44174</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15689,7 +15689,7 @@
         <v>44180</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         <v>44187</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15803,7 +15803,7 @@
         <v>44193</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>44199</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>44210</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15974,7 +15974,7 @@
         <v>44216</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16031,7 +16031,7 @@
         <v>44221</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16088,7 +16088,7 @@
         <v>44224</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16145,7 +16145,7 @@
         <v>44230</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16202,7 +16202,7 @@
         <v>44230</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16259,7 +16259,7 @@
         <v>44231</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16316,7 +16316,7 @@
         <v>44236</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16373,7 +16373,7 @@
         <v>44236</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16430,7 +16430,7 @@
         <v>44236</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16487,7 +16487,7 @@
         <v>44238</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16544,7 +16544,7 @@
         <v>44242</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16601,7 +16601,7 @@
         <v>44243</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16658,7 +16658,7 @@
         <v>44245</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16715,7 +16715,7 @@
         <v>44250</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16772,7 +16772,7 @@
         <v>44250</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16829,7 +16829,7 @@
         <v>44251</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>44256</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16943,7 +16943,7 @@
         <v>44261</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         <v>44263</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         <v>44263</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17119,7 +17119,7 @@
         <v>44266</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
         <v>44266</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17243,7 +17243,7 @@
         <v>44267</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17305,7 +17305,7 @@
         <v>44267</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17367,7 +17367,7 @@
         <v>44267</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17429,7 +17429,7 @@
         <v>44267</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17491,7 +17491,7 @@
         <v>44267</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17553,7 +17553,7 @@
         <v>44278</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17610,7 +17610,7 @@
         <v>44295</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17667,7 +17667,7 @@
         <v>44298</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17724,7 +17724,7 @@
         <v>44298</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17781,7 +17781,7 @@
         <v>44302</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
         <v>44302</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>44307</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17952,7 +17952,7 @@
         <v>44322</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18009,7 +18009,7 @@
         <v>44322</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         <v>44335</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18123,7 +18123,7 @@
         <v>44336</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18180,7 +18180,7 @@
         <v>44340</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>44356</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18294,7 +18294,7 @@
         <v>44356</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18351,7 +18351,7 @@
         <v>44357</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
         <v>44357</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18470,7 +18470,7 @@
         <v>44363</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18527,7 +18527,7 @@
         <v>44365</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18584,7 +18584,7 @@
         <v>44371</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18641,7 +18641,7 @@
         <v>44371</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18698,7 +18698,7 @@
         <v>44375</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18755,7 +18755,7 @@
         <v>44378</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18812,7 +18812,7 @@
         <v>44384</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18869,7 +18869,7 @@
         <v>44389</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18926,7 +18926,7 @@
         <v>44407</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18983,7 +18983,7 @@
         <v>44427</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19040,7 +19040,7 @@
         <v>44442</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19097,7 +19097,7 @@
         <v>44448</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19154,7 +19154,7 @@
         <v>44454</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19211,7 +19211,7 @@
         <v>44454</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19268,7 +19268,7 @@
         <v>44454</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19325,7 +19325,7 @@
         <v>44455</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19382,7 +19382,7 @@
         <v>44469</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19439,7 +19439,7 @@
         <v>44475</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19496,7 +19496,7 @@
         <v>44476</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19553,7 +19553,7 @@
         <v>44477</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19610,7 +19610,7 @@
         <v>44477</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19667,7 +19667,7 @@
         <v>44480</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19724,7 +19724,7 @@
         <v>44481</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19781,7 +19781,7 @@
         <v>44482</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19838,7 +19838,7 @@
         <v>44483</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19895,7 +19895,7 @@
         <v>44483</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -19952,7 +19952,7 @@
         <v>44487</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20014,7 +20014,7 @@
         <v>44487</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20076,7 +20076,7 @@
         <v>44488</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         <v>44489</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20190,7 +20190,7 @@
         <v>44489</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20247,7 +20247,7 @@
         <v>44489</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20304,7 +20304,7 @@
         <v>44501</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20361,7 +20361,7 @@
         <v>44502</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20418,7 +20418,7 @@
         <v>44508</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20475,7 +20475,7 @@
         <v>44510</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20532,7 +20532,7 @@
         <v>44515</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20594,7 +20594,7 @@
         <v>44529</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20651,7 +20651,7 @@
         <v>44530</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20708,7 +20708,7 @@
         <v>44557</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20765,7 +20765,7 @@
         <v>44559</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20822,7 +20822,7 @@
         <v>44559</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20879,7 +20879,7 @@
         <v>44573</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -20936,7 +20936,7 @@
         <v>44573</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -20993,7 +20993,7 @@
         <v>44575</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21050,7 +21050,7 @@
         <v>44592</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21107,7 +21107,7 @@
         <v>44592</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21164,7 +21164,7 @@
         <v>44596</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21226,7 +21226,7 @@
         <v>44600</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
         <v>44607</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>44613</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21397,7 +21397,7 @@
         <v>44621</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44631</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44634</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44637</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>44644</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21687,7 +21687,7 @@
         <v>44655</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         <v>44659</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21806,7 +21806,7 @@
         <v>44659</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>44659</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>44659</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -21987,7 +21987,7 @@
         <v>44671</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>44671</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>44693</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>44697</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>44711</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>44712</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>44714</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>44714</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22448,7 +22448,7 @@
         <v>44719</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22505,7 +22505,7 @@
         <v>44735</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22562,7 +22562,7 @@
         <v>44735</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22619,7 +22619,7 @@
         <v>44735</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22676,7 +22676,7 @@
         <v>44753</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22733,7 +22733,7 @@
         <v>44756</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22790,7 +22790,7 @@
         <v>44756</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22847,7 +22847,7 @@
         <v>44762</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -22904,7 +22904,7 @@
         <v>44778</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -22961,7 +22961,7 @@
         <v>44778</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23018,7 +23018,7 @@
         <v>44778</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23075,7 +23075,7 @@
         <v>44817</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23132,7 +23132,7 @@
         <v>44823</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23189,7 +23189,7 @@
         <v>44830</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23246,7 +23246,7 @@
         <v>44830</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23303,7 +23303,7 @@
         <v>44845</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23360,7 +23360,7 @@
         <v>44847</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23417,7 +23417,7 @@
         <v>44847</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23474,7 +23474,7 @@
         <v>44847</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23531,7 +23531,7 @@
         <v>44865</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23588,7 +23588,7 @@
         <v>44865</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23645,7 +23645,7 @@
         <v>44868</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23702,7 +23702,7 @@
         <v>44869</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23759,7 +23759,7 @@
         <v>44872</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23816,7 +23816,7 @@
         <v>44873</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -23873,7 +23873,7 @@
         <v>44876</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -23930,7 +23930,7 @@
         <v>44887</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -23987,7 +23987,7 @@
         <v>44889</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24044,7 +24044,7 @@
         <v>44893</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24101,7 +24101,7 @@
         <v>44900</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24158,7 +24158,7 @@
         <v>44900</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24215,7 +24215,7 @@
         <v>44900</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24272,7 +24272,7 @@
         <v>44900</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24329,7 +24329,7 @@
         <v>44903</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         <v>44903</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24443,7 +24443,7 @@
         <v>44926</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24505,7 +24505,7 @@
         <v>44951</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24562,7 +24562,7 @@
         <v>44964</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24619,7 +24619,7 @@
         <v>44964</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24676,7 +24676,7 @@
         <v>44970</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24733,7 +24733,7 @@
         <v>44970</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24790,7 +24790,7 @@
         <v>44974</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -24847,7 +24847,7 @@
         <v>44974</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -24904,7 +24904,7 @@
         <v>44974</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -24961,7 +24961,7 @@
         <v>44980</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25018,7 +25018,7 @@
         <v>44999</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         <v>45013</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25132,7 +25132,7 @@
         <v>45019</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25189,7 +25189,7 @@
         <v>45019</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25246,7 +25246,7 @@
         <v>45020</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25303,7 +25303,7 @@
         <v>45030</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25365,7 +25365,7 @@
         <v>45037</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25422,7 +25422,7 @@
         <v>45040</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25479,7 +25479,7 @@
         <v>45044</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25536,7 +25536,7 @@
         <v>45058</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25593,7 +25593,7 @@
         <v>45061</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25650,7 +25650,7 @@
         <v>45062</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25707,7 +25707,7 @@
         <v>45063</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25764,7 +25764,7 @@
         <v>45070</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25821,7 +25821,7 @@
         <v>45070</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -25878,7 +25878,7 @@
         <v>45070</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -25935,7 +25935,7 @@
         <v>45075</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -25992,7 +25992,7 @@
         <v>45084</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26049,7 +26049,7 @@
         <v>45084</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26106,7 +26106,7 @@
         <v>45089</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26163,7 +26163,7 @@
         <v>45091</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26220,7 +26220,7 @@
         <v>45092</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26277,7 +26277,7 @@
         <v>45092</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26334,7 +26334,7 @@
         <v>45097</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26391,7 +26391,7 @@
         <v>45097</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26448,7 +26448,7 @@
         <v>45097</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26505,7 +26505,7 @@
         <v>45097</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26562,7 +26562,7 @@
         <v>45099</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26619,7 +26619,7 @@
         <v>45109</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26676,7 +26676,7 @@
         <v>45109</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26733,7 +26733,7 @@
         <v>45110</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26790,7 +26790,7 @@
         <v>45110</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -26847,7 +26847,7 @@
         <v>45114</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -26904,7 +26904,7 @@
         <v>45117</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -26961,7 +26961,7 @@
         <v>45128</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27018,7 +27018,7 @@
         <v>45131</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27075,7 +27075,7 @@
         <v>45145</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27132,7 +27132,7 @@
         <v>45149</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27189,7 +27189,7 @@
         <v>45153</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27251,7 +27251,7 @@
         <v>45153</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27308,7 +27308,7 @@
         <v>45154</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27365,7 +27365,7 @@
         <v>45155</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27422,7 +27422,7 @@
         <v>45162</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27479,7 +27479,7 @@
         <v>45163</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27536,7 +27536,7 @@
         <v>45167</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27593,7 +27593,7 @@
         <v>45167</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27650,7 +27650,7 @@
         <v>45170</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27707,7 +27707,7 @@
         <v>45170</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27764,7 +27764,7 @@
         <v>45181</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>

--- a/Översikt HYLTE.xlsx
+++ b/Översikt HYLTE.xlsx
@@ -572,7 +572,7 @@
         <v>43986</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44873</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43923</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43769</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>44693</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>43342</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
         <v>43467</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>43983</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         <v>44601</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         <v>43319</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1404,7 +1404,7 @@
         <v>43348</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1461,7 +1461,7 @@
         <v>43374</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1518,7 +1518,7 @@
         <v>43409</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1632,7 +1632,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1689,7 +1689,7 @@
         <v>43413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         <v>43415</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>43415</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1860,7 +1860,7 @@
         <v>43415</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         <v>43418</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1974,7 +1974,7 @@
         <v>43419</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>43420</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>43420</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>43423</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         <v>43423</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>43425</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>43431</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
         <v>43432</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>43432</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>43432</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>43432</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>43432</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>43433</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>43433</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>43433</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>43433</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>43437</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>43437</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>43437</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         <v>43437</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>43437</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>43437</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         <v>43441</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         <v>43441</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3342,7 +3342,7 @@
         <v>43445</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         <v>43447</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>43447</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>43447</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3570,7 +3570,7 @@
         <v>43454</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         <v>43467</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
         <v>43467</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3741,7 +3741,7 @@
         <v>43467</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>43467</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3855,7 +3855,7 @@
         <v>43468</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
         <v>43468</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3969,7 +3969,7 @@
         <v>43468</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4026,7 +4026,7 @@
         <v>43472</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
         <v>43472</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4140,7 +4140,7 @@
         <v>43472</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4197,7 +4197,7 @@
         <v>43472</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4254,7 +4254,7 @@
         <v>43472</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         <v>43473</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>43473</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>43473</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>43473</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         <v>43475</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
         <v>43475</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>43475</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>43476</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4767,7 +4767,7 @@
         <v>43479</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>43479</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4881,7 +4881,7 @@
         <v>43482</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4938,7 +4938,7 @@
         <v>43483</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43493</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>43503</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>43503</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>43505</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         <v>43516</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>43516</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>43516</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>43516</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>43516</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5508,7 +5508,7 @@
         <v>43521</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
         <v>43523</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         <v>43524</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5679,7 +5679,7 @@
         <v>43528</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         <v>43531</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>43535</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         <v>43536</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>43536</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>43542</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>43542</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>43542</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>43542</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>43544</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>43545</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>43545</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>43549</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>43549</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>43550</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>43550</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>43552</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>43552</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>43553</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>43557</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6824,7 +6824,7 @@
         <v>43558</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>43558</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>43563</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         <v>43564</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>43564</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>43565</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>43566</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>43570</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>43573</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>43581</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>43584</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43587</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7508,7 +7508,7 @@
         <v>43606</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7565,7 +7565,7 @@
         <v>43612</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7622,7 +7622,7 @@
         <v>43612</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7679,7 +7679,7 @@
         <v>43612</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7736,7 +7736,7 @@
         <v>43616</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         <v>43619</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7850,7 +7850,7 @@
         <v>43620</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>43620</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>43656</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8021,7 +8021,7 @@
         <v>43658</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>43663</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8135,7 +8135,7 @@
         <v>43664</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8192,7 +8192,7 @@
         <v>43665</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8249,7 +8249,7 @@
         <v>43665</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         <v>43668</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8363,7 +8363,7 @@
         <v>43668</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8420,7 +8420,7 @@
         <v>43668</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8477,7 +8477,7 @@
         <v>43668</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8534,7 +8534,7 @@
         <v>43682</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8591,7 +8591,7 @@
         <v>43682</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         <v>43682</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         <v>43682</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8762,7 +8762,7 @@
         <v>43682</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8819,7 +8819,7 @@
         <v>43689</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>43705</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8933,7 +8933,7 @@
         <v>43706</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8990,7 +8990,7 @@
         <v>43712</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9047,7 +9047,7 @@
         <v>43712</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9104,7 +9104,7 @@
         <v>43712</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9161,7 +9161,7 @@
         <v>43731</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9218,7 +9218,7 @@
         <v>43731</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9275,7 +9275,7 @@
         <v>43732</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9332,7 +9332,7 @@
         <v>43738</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9389,7 +9389,7 @@
         <v>43739</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9446,7 +9446,7 @@
         <v>43739</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>43741</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9560,7 +9560,7 @@
         <v>43742</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>43742</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>43742</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>43768</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>43770</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>43774</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>43775</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9959,7 +9959,7 @@
         <v>43775</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10016,7 +10016,7 @@
         <v>43790</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>43796</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10130,7 +10130,7 @@
         <v>43803</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10187,7 +10187,7 @@
         <v>43837</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>43837</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>43839</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10358,7 +10358,7 @@
         <v>43846</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>43850</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10472,7 +10472,7 @@
         <v>43852</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10529,7 +10529,7 @@
         <v>43854</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10586,7 +10586,7 @@
         <v>43858</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10643,7 +10643,7 @@
         <v>43859</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10705,7 +10705,7 @@
         <v>43871</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10762,7 +10762,7 @@
         <v>43871</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         <v>43875</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10876,7 +10876,7 @@
         <v>43880</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10933,7 +10933,7 @@
         <v>43880</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10990,7 +10990,7 @@
         <v>43886</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11052,7 +11052,7 @@
         <v>43901</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11109,7 +11109,7 @@
         <v>43901</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11166,7 +11166,7 @@
         <v>43901</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11223,7 +11223,7 @@
         <v>43903</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11280,7 +11280,7 @@
         <v>43908</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11337,7 +11337,7 @@
         <v>43908</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11394,7 +11394,7 @@
         <v>43913</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>43916</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11508,7 +11508,7 @@
         <v>43916</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>43927</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>43936</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>43937</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>43941</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>43943</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         <v>43943</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11907,7 +11907,7 @@
         <v>43949</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>43957</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>43957</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>43963</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>43966</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>43969</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>43983</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         <v>43983</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12363,7 +12363,7 @@
         <v>43983</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         <v>44000</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12477,7 +12477,7 @@
         <v>44007</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         <v>44019</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12591,7 +12591,7 @@
         <v>44020</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12648,7 +12648,7 @@
         <v>44020</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>44020</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12762,7 +12762,7 @@
         <v>44021</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12819,7 +12819,7 @@
         <v>44021</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12881,7 +12881,7 @@
         <v>44022</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12938,7 +12938,7 @@
         <v>44022</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12995,7 +12995,7 @@
         <v>44025</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13052,7 +13052,7 @@
         <v>44028</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13109,7 +13109,7 @@
         <v>44036</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13166,7 +13166,7 @@
         <v>44039</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13223,7 +13223,7 @@
         <v>44041</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13280,7 +13280,7 @@
         <v>44043</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13337,7 +13337,7 @@
         <v>44046</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13394,7 +13394,7 @@
         <v>44055</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13451,7 +13451,7 @@
         <v>44060</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>44062</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         <v>44088</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         <v>44092</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13679,7 +13679,7 @@
         <v>44095</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13736,7 +13736,7 @@
         <v>44095</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13793,7 +13793,7 @@
         <v>44095</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>44103</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>44107</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44107</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44122</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44122</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>44123</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>44123</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>44124</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>44132</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>44132</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>44133</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>44133</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44140</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44141</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>44144</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>44145</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>44146</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>44146</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14891,7 +14891,7 @@
         <v>44147</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>44147</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>44147</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15062,7 +15062,7 @@
         <v>44147</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>44147</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44159</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44159</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15290,7 +15290,7 @@
         <v>44162</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>44166</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15404,7 +15404,7 @@
         <v>44168</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15461,7 +15461,7 @@
         <v>44172</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15518,7 +15518,7 @@
         <v>44173</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15575,7 +15575,7 @@
         <v>44174</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15632,7 +15632,7 @@
         <v>44174</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15689,7 +15689,7 @@
         <v>44180</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         <v>44187</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15803,7 +15803,7 @@
         <v>44193</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>44199</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>44210</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15974,7 +15974,7 @@
         <v>44216</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16031,7 +16031,7 @@
         <v>44221</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16088,7 +16088,7 @@
         <v>44224</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16145,7 +16145,7 @@
         <v>44230</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16202,7 +16202,7 @@
         <v>44230</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16259,7 +16259,7 @@
         <v>44231</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16316,7 +16316,7 @@
         <v>44236</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16373,7 +16373,7 @@
         <v>44236</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16430,7 +16430,7 @@
         <v>44236</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16487,7 +16487,7 @@
         <v>44238</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16544,7 +16544,7 @@
         <v>44242</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16601,7 +16601,7 @@
         <v>44243</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16658,7 +16658,7 @@
         <v>44245</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16715,7 +16715,7 @@
         <v>44250</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16772,7 +16772,7 @@
         <v>44250</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16829,7 +16829,7 @@
         <v>44251</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>44256</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16943,7 +16943,7 @@
         <v>44261</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         <v>44263</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         <v>44263</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17119,7 +17119,7 @@
         <v>44266</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
         <v>44266</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17243,7 +17243,7 @@
         <v>44267</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17305,7 +17305,7 @@
         <v>44267</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17367,7 +17367,7 @@
         <v>44267</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17429,7 +17429,7 @@
         <v>44267</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17491,7 +17491,7 @@
         <v>44267</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17553,7 +17553,7 @@
         <v>44278</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17610,7 +17610,7 @@
         <v>44295</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17667,7 +17667,7 @@
         <v>44298</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17724,7 +17724,7 @@
         <v>44298</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17781,7 +17781,7 @@
         <v>44302</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
         <v>44302</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>44307</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17952,7 +17952,7 @@
         <v>44322</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18009,7 +18009,7 @@
         <v>44322</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         <v>44335</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18123,7 +18123,7 @@
         <v>44336</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18180,7 +18180,7 @@
         <v>44340</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>44356</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18294,7 +18294,7 @@
         <v>44356</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18351,7 +18351,7 @@
         <v>44357</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
         <v>44357</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18470,7 +18470,7 @@
         <v>44363</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18527,7 +18527,7 @@
         <v>44365</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18584,7 +18584,7 @@
         <v>44371</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18641,7 +18641,7 @@
         <v>44371</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18698,7 +18698,7 @@
         <v>44375</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18755,7 +18755,7 @@
         <v>44378</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18812,7 +18812,7 @@
         <v>44384</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18869,7 +18869,7 @@
         <v>44389</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18926,7 +18926,7 @@
         <v>44407</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18983,7 +18983,7 @@
         <v>44427</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19040,7 +19040,7 @@
         <v>44442</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19097,7 +19097,7 @@
         <v>44448</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19154,7 +19154,7 @@
         <v>44454</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19211,7 +19211,7 @@
         <v>44454</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19268,7 +19268,7 @@
         <v>44454</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19325,7 +19325,7 @@
         <v>44455</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19382,7 +19382,7 @@
         <v>44469</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19439,7 +19439,7 @@
         <v>44475</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19496,7 +19496,7 @@
         <v>44476</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19553,7 +19553,7 @@
         <v>44477</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19610,7 +19610,7 @@
         <v>44477</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19667,7 +19667,7 @@
         <v>44480</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19724,7 +19724,7 @@
         <v>44481</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19781,7 +19781,7 @@
         <v>44482</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19838,7 +19838,7 @@
         <v>44483</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19895,7 +19895,7 @@
         <v>44483</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -19952,7 +19952,7 @@
         <v>44487</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20014,7 +20014,7 @@
         <v>44487</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20076,7 +20076,7 @@
         <v>44488</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         <v>44489</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20190,7 +20190,7 @@
         <v>44489</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20247,7 +20247,7 @@
         <v>44489</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20304,7 +20304,7 @@
         <v>44501</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20361,7 +20361,7 @@
         <v>44502</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20418,7 +20418,7 @@
         <v>44508</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20475,7 +20475,7 @@
         <v>44510</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20532,7 +20532,7 @@
         <v>44515</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20594,7 +20594,7 @@
         <v>44529</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20651,7 +20651,7 @@
         <v>44530</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20708,7 +20708,7 @@
         <v>44557</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20765,7 +20765,7 @@
         <v>44559</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20822,7 +20822,7 @@
         <v>44559</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20879,7 +20879,7 @@
         <v>44573</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -20936,7 +20936,7 @@
         <v>44573</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -20993,7 +20993,7 @@
         <v>44575</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21050,7 +21050,7 @@
         <v>44592</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21107,7 +21107,7 @@
         <v>44592</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21164,7 +21164,7 @@
         <v>44596</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21226,7 +21226,7 @@
         <v>44600</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
         <v>44607</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>44613</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21397,7 +21397,7 @@
         <v>44621</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44631</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44634</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44637</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>44644</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21687,7 +21687,7 @@
         <v>44655</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         <v>44659</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21806,7 +21806,7 @@
         <v>44659</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>44659</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>44659</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -21987,7 +21987,7 @@
         <v>44671</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>44671</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>44693</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>44697</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>44711</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>44712</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>44714</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>44714</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22448,7 +22448,7 @@
         <v>44719</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22505,7 +22505,7 @@
         <v>44735</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22562,7 +22562,7 @@
         <v>44735</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22619,7 +22619,7 @@
         <v>44735</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22676,7 +22676,7 @@
         <v>44753</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22733,7 +22733,7 @@
         <v>44756</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22790,7 +22790,7 @@
         <v>44756</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22847,7 +22847,7 @@
         <v>44762</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -22904,7 +22904,7 @@
         <v>44778</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -22961,7 +22961,7 @@
         <v>44778</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23018,7 +23018,7 @@
         <v>44778</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23075,7 +23075,7 @@
         <v>44817</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23132,7 +23132,7 @@
         <v>44823</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23189,7 +23189,7 @@
         <v>44830</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23246,7 +23246,7 @@
         <v>44830</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23303,7 +23303,7 @@
         <v>44845</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23360,7 +23360,7 @@
         <v>44847</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23417,7 +23417,7 @@
         <v>44847</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23474,7 +23474,7 @@
         <v>44847</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23531,7 +23531,7 @@
         <v>44865</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23588,7 +23588,7 @@
         <v>44865</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23645,7 +23645,7 @@
         <v>44868</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23702,7 +23702,7 @@
         <v>44869</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23759,7 +23759,7 @@
         <v>44872</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23816,7 +23816,7 @@
         <v>44873</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -23873,7 +23873,7 @@
         <v>44876</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -23930,7 +23930,7 @@
         <v>44887</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -23987,7 +23987,7 @@
         <v>44889</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24044,7 +24044,7 @@
         <v>44893</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24101,7 +24101,7 @@
         <v>44900</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24158,7 +24158,7 @@
         <v>44900</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24215,7 +24215,7 @@
         <v>44900</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24272,7 +24272,7 @@
         <v>44900</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24329,7 +24329,7 @@
         <v>44903</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         <v>44903</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24443,7 +24443,7 @@
         <v>44926</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24505,7 +24505,7 @@
         <v>44951</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24562,7 +24562,7 @@
         <v>44964</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24619,7 +24619,7 @@
         <v>44964</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24676,7 +24676,7 @@
         <v>44970</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24733,7 +24733,7 @@
         <v>44970</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24790,7 +24790,7 @@
         <v>44974</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -24847,7 +24847,7 @@
         <v>44974</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -24904,7 +24904,7 @@
         <v>44974</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -24961,7 +24961,7 @@
         <v>44980</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25018,7 +25018,7 @@
         <v>44999</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         <v>45013</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25132,7 +25132,7 @@
         <v>45019</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25189,7 +25189,7 @@
         <v>45019</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25246,7 +25246,7 @@
         <v>45020</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25303,7 +25303,7 @@
         <v>45030</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25365,7 +25365,7 @@
         <v>45037</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25422,7 +25422,7 @@
         <v>45040</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25479,7 +25479,7 @@
         <v>45044</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25536,7 +25536,7 @@
         <v>45058</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25593,7 +25593,7 @@
         <v>45061</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25650,7 +25650,7 @@
         <v>45062</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25707,7 +25707,7 @@
         <v>45063</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25764,7 +25764,7 @@
         <v>45070</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25821,7 +25821,7 @@
         <v>45070</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -25878,7 +25878,7 @@
         <v>45070</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -25935,7 +25935,7 @@
         <v>45075</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -25992,7 +25992,7 @@
         <v>45084</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26049,7 +26049,7 @@
         <v>45084</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26106,7 +26106,7 @@
         <v>45089</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26163,7 +26163,7 @@
         <v>45091</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26220,7 +26220,7 @@
         <v>45092</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26277,7 +26277,7 @@
         <v>45092</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26334,7 +26334,7 @@
         <v>45097</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26391,7 +26391,7 @@
         <v>45097</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26448,7 +26448,7 @@
         <v>45097</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26505,7 +26505,7 @@
         <v>45097</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26562,7 +26562,7 @@
         <v>45099</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26619,7 +26619,7 @@
         <v>45109</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26676,7 +26676,7 @@
         <v>45109</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26733,7 +26733,7 @@
         <v>45110</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26790,7 +26790,7 @@
         <v>45110</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -26847,7 +26847,7 @@
         <v>45114</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -26904,7 +26904,7 @@
         <v>45117</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -26961,7 +26961,7 @@
         <v>45128</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27018,7 +27018,7 @@
         <v>45131</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27075,7 +27075,7 @@
         <v>45145</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27132,7 +27132,7 @@
         <v>45149</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27189,7 +27189,7 @@
         <v>45153</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27251,7 +27251,7 @@
         <v>45153</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27308,7 +27308,7 @@
         <v>45154</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27365,7 +27365,7 @@
         <v>45155</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27422,7 +27422,7 @@
         <v>45162</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27479,7 +27479,7 @@
         <v>45163</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27536,7 +27536,7 @@
         <v>45167</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27593,7 +27593,7 @@
         <v>45167</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27650,7 +27650,7 @@
         <v>45170</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27707,7 +27707,7 @@
         <v>45170</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27764,7 +27764,7 @@
         <v>45181</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>

--- a/Översikt HYLTE.xlsx
+++ b/Översikt HYLTE.xlsx
@@ -572,7 +572,7 @@
         <v>43986</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44873</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43923</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43769</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>44693</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>43342</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
         <v>43467</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>43983</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         <v>44601</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         <v>43319</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1404,7 +1404,7 @@
         <v>43348</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1461,7 +1461,7 @@
         <v>43374</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1518,7 +1518,7 @@
         <v>43409</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1632,7 +1632,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1689,7 +1689,7 @@
         <v>43413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         <v>43415</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>43415</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1860,7 +1860,7 @@
         <v>43415</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         <v>43418</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1974,7 +1974,7 @@
         <v>43419</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>43420</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>43420</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>43423</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         <v>43423</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>43425</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>43431</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
         <v>43432</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>43432</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>43432</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>43432</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>43432</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>43433</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>43433</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>43433</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>43433</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>43437</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>43437</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>43437</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         <v>43437</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>43437</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>43437</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         <v>43441</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         <v>43441</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3342,7 +3342,7 @@
         <v>43445</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         <v>43447</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>43447</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>43447</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3570,7 +3570,7 @@
         <v>43454</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         <v>43467</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
         <v>43467</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3741,7 +3741,7 @@
         <v>43467</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>43467</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3855,7 +3855,7 @@
         <v>43468</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
         <v>43468</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3969,7 +3969,7 @@
         <v>43468</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4026,7 +4026,7 @@
         <v>43472</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
         <v>43472</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4140,7 +4140,7 @@
         <v>43472</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4197,7 +4197,7 @@
         <v>43472</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4254,7 +4254,7 @@
         <v>43472</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         <v>43473</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>43473</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>43473</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>43473</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         <v>43475</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
         <v>43475</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>43475</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>43476</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4767,7 +4767,7 @@
         <v>43479</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>43479</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4881,7 +4881,7 @@
         <v>43482</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4938,7 +4938,7 @@
         <v>43483</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43493</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>43503</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>43503</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>43505</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         <v>43516</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>43516</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>43516</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>43516</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>43516</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5508,7 +5508,7 @@
         <v>43521</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
         <v>43523</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         <v>43524</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5679,7 +5679,7 @@
         <v>43528</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         <v>43531</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>43535</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         <v>43536</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>43536</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>43542</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>43542</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>43542</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>43542</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>43544</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>43545</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>43545</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>43549</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>43549</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>43550</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>43550</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>43552</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>43552</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>43553</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>43557</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6824,7 +6824,7 @@
         <v>43558</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>43558</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>43563</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         <v>43564</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>43564</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>43565</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>43566</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>43570</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>43573</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>43581</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>43584</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43587</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7508,7 +7508,7 @@
         <v>43606</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7565,7 +7565,7 @@
         <v>43612</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7622,7 +7622,7 @@
         <v>43612</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7679,7 +7679,7 @@
         <v>43612</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7736,7 +7736,7 @@
         <v>43616</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         <v>43619</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7850,7 +7850,7 @@
         <v>43620</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>43620</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>43656</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8021,7 +8021,7 @@
         <v>43658</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>43663</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8135,7 +8135,7 @@
         <v>43664</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8192,7 +8192,7 @@
         <v>43665</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8249,7 +8249,7 @@
         <v>43665</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         <v>43668</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8363,7 +8363,7 @@
         <v>43668</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8420,7 +8420,7 @@
         <v>43668</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8477,7 +8477,7 @@
         <v>43668</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8534,7 +8534,7 @@
         <v>43682</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8591,7 +8591,7 @@
         <v>43682</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         <v>43682</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         <v>43682</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8762,7 +8762,7 @@
         <v>43682</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8819,7 +8819,7 @@
         <v>43689</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>43705</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8933,7 +8933,7 @@
         <v>43706</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8990,7 +8990,7 @@
         <v>43712</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9047,7 +9047,7 @@
         <v>43712</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9104,7 +9104,7 @@
         <v>43712</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9161,7 +9161,7 @@
         <v>43731</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9218,7 +9218,7 @@
         <v>43731</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9275,7 +9275,7 @@
         <v>43732</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9332,7 +9332,7 @@
         <v>43738</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9389,7 +9389,7 @@
         <v>43739</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9446,7 +9446,7 @@
         <v>43739</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>43741</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9560,7 +9560,7 @@
         <v>43742</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>43742</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>43742</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>43768</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>43770</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>43774</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>43775</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9959,7 +9959,7 @@
         <v>43775</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10016,7 +10016,7 @@
         <v>43790</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>43796</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10130,7 +10130,7 @@
         <v>43803</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10187,7 +10187,7 @@
         <v>43837</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>43837</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>43839</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10358,7 +10358,7 @@
         <v>43846</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>43850</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10472,7 +10472,7 @@
         <v>43852</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10529,7 +10529,7 @@
         <v>43854</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10586,7 +10586,7 @@
         <v>43858</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10643,7 +10643,7 @@
         <v>43859</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10705,7 +10705,7 @@
         <v>43871</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10762,7 +10762,7 @@
         <v>43871</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         <v>43875</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10876,7 +10876,7 @@
         <v>43880</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10933,7 +10933,7 @@
         <v>43880</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10990,7 +10990,7 @@
         <v>43886</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11052,7 +11052,7 @@
         <v>43901</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11109,7 +11109,7 @@
         <v>43901</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11166,7 +11166,7 @@
         <v>43901</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11223,7 +11223,7 @@
         <v>43903</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11280,7 +11280,7 @@
         <v>43908</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11337,7 +11337,7 @@
         <v>43908</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11394,7 +11394,7 @@
         <v>43913</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>43916</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11508,7 +11508,7 @@
         <v>43916</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>43927</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>43936</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>43937</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>43941</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>43943</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         <v>43943</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11907,7 +11907,7 @@
         <v>43949</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>43957</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>43957</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>43963</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>43966</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>43969</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>43983</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         <v>43983</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12363,7 +12363,7 @@
         <v>43983</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         <v>44000</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12477,7 +12477,7 @@
         <v>44007</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         <v>44019</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12591,7 +12591,7 @@
         <v>44020</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12648,7 +12648,7 @@
         <v>44020</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>44020</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12762,7 +12762,7 @@
         <v>44021</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12819,7 +12819,7 @@
         <v>44021</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12881,7 +12881,7 @@
         <v>44022</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12938,7 +12938,7 @@
         <v>44022</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12995,7 +12995,7 @@
         <v>44025</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13052,7 +13052,7 @@
         <v>44028</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13109,7 +13109,7 @@
         <v>44036</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13166,7 +13166,7 @@
         <v>44039</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13223,7 +13223,7 @@
         <v>44041</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13280,7 +13280,7 @@
         <v>44043</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13337,7 +13337,7 @@
         <v>44046</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13394,7 +13394,7 @@
         <v>44055</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13451,7 +13451,7 @@
         <v>44060</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>44062</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         <v>44088</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         <v>44092</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13679,7 +13679,7 @@
         <v>44095</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13736,7 +13736,7 @@
         <v>44095</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13793,7 +13793,7 @@
         <v>44095</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>44103</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>44107</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44107</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44122</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44122</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>44123</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>44123</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>44124</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>44132</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>44132</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>44133</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>44133</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44140</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44141</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>44144</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>44145</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>44146</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>44146</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14891,7 +14891,7 @@
         <v>44147</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>44147</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>44147</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15062,7 +15062,7 @@
         <v>44147</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>44147</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44159</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44159</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15290,7 +15290,7 @@
         <v>44162</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>44166</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15404,7 +15404,7 @@
         <v>44168</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15461,7 +15461,7 @@
         <v>44172</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15518,7 +15518,7 @@
         <v>44173</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15575,7 +15575,7 @@
         <v>44174</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15632,7 +15632,7 @@
         <v>44174</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15689,7 +15689,7 @@
         <v>44180</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         <v>44187</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15803,7 +15803,7 @@
         <v>44193</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>44199</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>44210</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15974,7 +15974,7 @@
         <v>44216</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16031,7 +16031,7 @@
         <v>44221</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16088,7 +16088,7 @@
         <v>44224</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16145,7 +16145,7 @@
         <v>44230</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16202,7 +16202,7 @@
         <v>44230</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16259,7 +16259,7 @@
         <v>44231</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16316,7 +16316,7 @@
         <v>44236</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16373,7 +16373,7 @@
         <v>44236</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16430,7 +16430,7 @@
         <v>44236</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16487,7 +16487,7 @@
         <v>44238</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16544,7 +16544,7 @@
         <v>44242</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16601,7 +16601,7 @@
         <v>44243</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16658,7 +16658,7 @@
         <v>44245</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16715,7 +16715,7 @@
         <v>44250</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16772,7 +16772,7 @@
         <v>44250</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16829,7 +16829,7 @@
         <v>44251</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>44256</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16943,7 +16943,7 @@
         <v>44261</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         <v>44263</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         <v>44263</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17119,7 +17119,7 @@
         <v>44266</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
         <v>44266</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17243,7 +17243,7 @@
         <v>44267</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17305,7 +17305,7 @@
         <v>44267</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17367,7 +17367,7 @@
         <v>44267</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17429,7 +17429,7 @@
         <v>44267</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17491,7 +17491,7 @@
         <v>44267</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17553,7 +17553,7 @@
         <v>44278</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17610,7 +17610,7 @@
         <v>44295</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17667,7 +17667,7 @@
         <v>44298</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17724,7 +17724,7 @@
         <v>44298</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17781,7 +17781,7 @@
         <v>44302</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
         <v>44302</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>44307</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17952,7 +17952,7 @@
         <v>44322</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18009,7 +18009,7 @@
         <v>44322</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         <v>44335</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18123,7 +18123,7 @@
         <v>44336</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18180,7 +18180,7 @@
         <v>44340</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>44356</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18294,7 +18294,7 @@
         <v>44356</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18351,7 +18351,7 @@
         <v>44357</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
         <v>44357</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18470,7 +18470,7 @@
         <v>44363</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18527,7 +18527,7 @@
         <v>44365</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18584,7 +18584,7 @@
         <v>44371</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18641,7 +18641,7 @@
         <v>44371</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18698,7 +18698,7 @@
         <v>44375</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18755,7 +18755,7 @@
         <v>44378</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18812,7 +18812,7 @@
         <v>44384</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18869,7 +18869,7 @@
         <v>44389</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18926,7 +18926,7 @@
         <v>44407</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18983,7 +18983,7 @@
         <v>44427</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19040,7 +19040,7 @@
         <v>44442</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19097,7 +19097,7 @@
         <v>44448</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19154,7 +19154,7 @@
         <v>44454</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19211,7 +19211,7 @@
         <v>44454</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19268,7 +19268,7 @@
         <v>44454</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19325,7 +19325,7 @@
         <v>44455</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19382,7 +19382,7 @@
         <v>44469</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19439,7 +19439,7 @@
         <v>44475</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19496,7 +19496,7 @@
         <v>44476</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19553,7 +19553,7 @@
         <v>44477</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19610,7 +19610,7 @@
         <v>44477</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19667,7 +19667,7 @@
         <v>44480</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19724,7 +19724,7 @@
         <v>44481</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19781,7 +19781,7 @@
         <v>44482</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19838,7 +19838,7 @@
         <v>44483</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19895,7 +19895,7 @@
         <v>44483</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -19952,7 +19952,7 @@
         <v>44487</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20014,7 +20014,7 @@
         <v>44487</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20076,7 +20076,7 @@
         <v>44488</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         <v>44489</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20190,7 +20190,7 @@
         <v>44489</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20247,7 +20247,7 @@
         <v>44489</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20304,7 +20304,7 @@
         <v>44501</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20361,7 +20361,7 @@
         <v>44502</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20418,7 +20418,7 @@
         <v>44508</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20475,7 +20475,7 @@
         <v>44510</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20532,7 +20532,7 @@
         <v>44515</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20594,7 +20594,7 @@
         <v>44529</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20651,7 +20651,7 @@
         <v>44530</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20708,7 +20708,7 @@
         <v>44557</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20765,7 +20765,7 @@
         <v>44559</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20822,7 +20822,7 @@
         <v>44559</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20879,7 +20879,7 @@
         <v>44573</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -20936,7 +20936,7 @@
         <v>44573</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -20993,7 +20993,7 @@
         <v>44575</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21050,7 +21050,7 @@
         <v>44592</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21107,7 +21107,7 @@
         <v>44592</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21164,7 +21164,7 @@
         <v>44596</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21226,7 +21226,7 @@
         <v>44600</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
         <v>44607</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>44613</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21397,7 +21397,7 @@
         <v>44621</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44631</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44634</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44637</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>44644</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21687,7 +21687,7 @@
         <v>44655</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         <v>44659</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21806,7 +21806,7 @@
         <v>44659</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>44659</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>44659</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -21987,7 +21987,7 @@
         <v>44671</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>44671</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>44693</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>44697</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>44711</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>44712</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>44714</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>44714</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22448,7 +22448,7 @@
         <v>44719</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22505,7 +22505,7 @@
         <v>44735</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22562,7 +22562,7 @@
         <v>44735</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22619,7 +22619,7 @@
         <v>44735</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22676,7 +22676,7 @@
         <v>44753</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22733,7 +22733,7 @@
         <v>44756</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22790,7 +22790,7 @@
         <v>44756</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22847,7 +22847,7 @@
         <v>44762</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -22904,7 +22904,7 @@
         <v>44778</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -22961,7 +22961,7 @@
         <v>44778</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23018,7 +23018,7 @@
         <v>44778</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23075,7 +23075,7 @@
         <v>44817</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23132,7 +23132,7 @@
         <v>44823</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23189,7 +23189,7 @@
         <v>44830</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23246,7 +23246,7 @@
         <v>44830</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23303,7 +23303,7 @@
         <v>44845</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23360,7 +23360,7 @@
         <v>44847</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23417,7 +23417,7 @@
         <v>44847</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23474,7 +23474,7 @@
         <v>44847</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23531,7 +23531,7 @@
         <v>44865</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23588,7 +23588,7 @@
         <v>44865</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23645,7 +23645,7 @@
         <v>44868</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23702,7 +23702,7 @@
         <v>44869</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23759,7 +23759,7 @@
         <v>44872</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23816,7 +23816,7 @@
         <v>44873</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -23873,7 +23873,7 @@
         <v>44876</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -23930,7 +23930,7 @@
         <v>44887</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -23987,7 +23987,7 @@
         <v>44889</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24044,7 +24044,7 @@
         <v>44893</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24101,7 +24101,7 @@
         <v>44900</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24158,7 +24158,7 @@
         <v>44900</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24215,7 +24215,7 @@
         <v>44900</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24272,7 +24272,7 @@
         <v>44900</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24329,7 +24329,7 @@
         <v>44903</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         <v>44903</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24443,7 +24443,7 @@
         <v>44926</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24505,7 +24505,7 @@
         <v>44951</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24562,7 +24562,7 @@
         <v>44964</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24619,7 +24619,7 @@
         <v>44964</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24676,7 +24676,7 @@
         <v>44970</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24733,7 +24733,7 @@
         <v>44970</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24790,7 +24790,7 @@
         <v>44974</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -24847,7 +24847,7 @@
         <v>44974</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -24904,7 +24904,7 @@
         <v>44974</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -24961,7 +24961,7 @@
         <v>44980</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25018,7 +25018,7 @@
         <v>44999</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         <v>45013</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25132,7 +25132,7 @@
         <v>45019</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25189,7 +25189,7 @@
         <v>45019</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25246,7 +25246,7 @@
         <v>45020</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25303,7 +25303,7 @@
         <v>45030</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25365,7 +25365,7 @@
         <v>45037</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25422,7 +25422,7 @@
         <v>45040</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25479,7 +25479,7 @@
         <v>45044</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25536,7 +25536,7 @@
         <v>45058</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25593,7 +25593,7 @@
         <v>45061</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25650,7 +25650,7 @@
         <v>45062</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25707,7 +25707,7 @@
         <v>45063</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25764,7 +25764,7 @@
         <v>45070</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25821,7 +25821,7 @@
         <v>45070</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -25878,7 +25878,7 @@
         <v>45070</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -25935,7 +25935,7 @@
         <v>45075</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -25992,7 +25992,7 @@
         <v>45084</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26049,7 +26049,7 @@
         <v>45084</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26106,7 +26106,7 @@
         <v>45089</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26163,7 +26163,7 @@
         <v>45091</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26220,7 +26220,7 @@
         <v>45092</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26277,7 +26277,7 @@
         <v>45092</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26334,7 +26334,7 @@
         <v>45097</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26391,7 +26391,7 @@
         <v>45097</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26448,7 +26448,7 @@
         <v>45097</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26505,7 +26505,7 @@
         <v>45097</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26562,7 +26562,7 @@
         <v>45099</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26619,7 +26619,7 @@
         <v>45109</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26676,7 +26676,7 @@
         <v>45109</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26733,7 +26733,7 @@
         <v>45110</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26790,7 +26790,7 @@
         <v>45110</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -26847,7 +26847,7 @@
         <v>45114</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -26904,7 +26904,7 @@
         <v>45117</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -26961,7 +26961,7 @@
         <v>45128</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27018,7 +27018,7 @@
         <v>45131</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27075,7 +27075,7 @@
         <v>45145</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27132,7 +27132,7 @@
         <v>45149</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27189,7 +27189,7 @@
         <v>45153</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27251,7 +27251,7 @@
         <v>45153</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27308,7 +27308,7 @@
         <v>45154</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27365,7 +27365,7 @@
         <v>45155</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27422,7 +27422,7 @@
         <v>45162</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27479,7 +27479,7 @@
         <v>45163</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27536,7 +27536,7 @@
         <v>45167</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27593,7 +27593,7 @@
         <v>45167</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27650,7 +27650,7 @@
         <v>45170</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27707,7 +27707,7 @@
         <v>45170</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27764,7 +27764,7 @@
         <v>45181</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>

--- a/Översikt HYLTE.xlsx
+++ b/Översikt HYLTE.xlsx
@@ -572,7 +572,7 @@
         <v>43986</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44873</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43923</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43769</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>44693</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>43342</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
         <v>43467</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>43983</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         <v>44601</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         <v>43319</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1404,7 +1404,7 @@
         <v>43348</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1461,7 +1461,7 @@
         <v>43374</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1518,7 +1518,7 @@
         <v>43409</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1632,7 +1632,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1689,7 +1689,7 @@
         <v>43413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         <v>43415</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>43415</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1860,7 +1860,7 @@
         <v>43415</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         <v>43418</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1974,7 +1974,7 @@
         <v>43419</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>43420</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>43420</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>43423</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         <v>43423</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>43425</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>43431</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
         <v>43432</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>43432</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>43432</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>43432</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>43432</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>43433</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>43433</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>43433</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>43433</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>43437</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>43437</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>43437</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         <v>43437</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>43437</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>43437</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         <v>43441</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         <v>43441</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3342,7 +3342,7 @@
         <v>43445</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         <v>43447</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>43447</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>43447</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3570,7 +3570,7 @@
         <v>43454</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         <v>43467</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
         <v>43467</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3741,7 +3741,7 @@
         <v>43467</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>43467</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3855,7 +3855,7 @@
         <v>43468</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
         <v>43468</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3969,7 +3969,7 @@
         <v>43468</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4026,7 +4026,7 @@
         <v>43472</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
         <v>43472</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4140,7 +4140,7 @@
         <v>43472</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4197,7 +4197,7 @@
         <v>43472</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4254,7 +4254,7 @@
         <v>43472</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         <v>43473</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>43473</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>43473</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>43473</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         <v>43475</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
         <v>43475</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>43475</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>43476</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4767,7 +4767,7 @@
         <v>43479</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>43479</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4881,7 +4881,7 @@
         <v>43482</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4938,7 +4938,7 @@
         <v>43483</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43493</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>43503</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>43503</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>43505</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         <v>43516</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>43516</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>43516</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>43516</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>43516</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5508,7 +5508,7 @@
         <v>43521</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
         <v>43523</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         <v>43524</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5679,7 +5679,7 @@
         <v>43528</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         <v>43531</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>43535</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         <v>43536</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>43536</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>43542</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>43542</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>43542</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>43542</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>43544</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>43545</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>43545</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>43549</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>43549</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>43550</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>43550</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>43552</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>43552</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>43553</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>43557</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6824,7 +6824,7 @@
         <v>43558</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>43558</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>43563</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         <v>43564</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>43564</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>43565</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>43566</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>43570</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>43573</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>43581</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>43584</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43587</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7508,7 +7508,7 @@
         <v>43606</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7565,7 +7565,7 @@
         <v>43612</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7622,7 +7622,7 @@
         <v>43612</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7679,7 +7679,7 @@
         <v>43612</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7736,7 +7736,7 @@
         <v>43616</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         <v>43619</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7850,7 +7850,7 @@
         <v>43620</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>43620</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>43656</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8021,7 +8021,7 @@
         <v>43658</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>43663</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8135,7 +8135,7 @@
         <v>43664</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8192,7 +8192,7 @@
         <v>43665</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8249,7 +8249,7 @@
         <v>43665</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         <v>43668</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8363,7 +8363,7 @@
         <v>43668</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8420,7 +8420,7 @@
         <v>43668</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8477,7 +8477,7 @@
         <v>43668</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8534,7 +8534,7 @@
         <v>43682</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8591,7 +8591,7 @@
         <v>43682</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         <v>43682</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         <v>43682</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8762,7 +8762,7 @@
         <v>43682</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8819,7 +8819,7 @@
         <v>43689</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>43705</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8933,7 +8933,7 @@
         <v>43706</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8990,7 +8990,7 @@
         <v>43712</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9047,7 +9047,7 @@
         <v>43712</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9104,7 +9104,7 @@
         <v>43712</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9161,7 +9161,7 @@
         <v>43731</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9218,7 +9218,7 @@
         <v>43731</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9275,7 +9275,7 @@
         <v>43732</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9332,7 +9332,7 @@
         <v>43738</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9389,7 +9389,7 @@
         <v>43739</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9446,7 +9446,7 @@
         <v>43739</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>43741</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9560,7 +9560,7 @@
         <v>43742</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>43742</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>43742</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>43768</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>43770</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>43774</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>43775</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9959,7 +9959,7 @@
         <v>43775</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10016,7 +10016,7 @@
         <v>43790</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>43796</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10130,7 +10130,7 @@
         <v>43803</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10187,7 +10187,7 @@
         <v>43837</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>43837</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>43839</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10358,7 +10358,7 @@
         <v>43846</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>43850</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10472,7 +10472,7 @@
         <v>43852</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10529,7 +10529,7 @@
         <v>43854</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10586,7 +10586,7 @@
         <v>43858</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10643,7 +10643,7 @@
         <v>43859</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10705,7 +10705,7 @@
         <v>43871</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10762,7 +10762,7 @@
         <v>43871</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         <v>43875</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10876,7 +10876,7 @@
         <v>43880</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10933,7 +10933,7 @@
         <v>43880</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10990,7 +10990,7 @@
         <v>43886</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11052,7 +11052,7 @@
         <v>43901</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11109,7 +11109,7 @@
         <v>43901</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11166,7 +11166,7 @@
         <v>43901</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11223,7 +11223,7 @@
         <v>43903</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11280,7 +11280,7 @@
         <v>43908</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11337,7 +11337,7 @@
         <v>43908</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11394,7 +11394,7 @@
         <v>43913</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>43916</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11508,7 +11508,7 @@
         <v>43916</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>43927</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>43936</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>43937</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>43941</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>43943</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         <v>43943</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11907,7 +11907,7 @@
         <v>43949</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>43957</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>43957</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>43963</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>43966</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>43969</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>43983</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         <v>43983</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12363,7 +12363,7 @@
         <v>43983</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         <v>44000</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12477,7 +12477,7 @@
         <v>44007</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         <v>44019</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12591,7 +12591,7 @@
         <v>44020</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12648,7 +12648,7 @@
         <v>44020</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>44020</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12762,7 +12762,7 @@
         <v>44021</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12819,7 +12819,7 @@
         <v>44021</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12881,7 +12881,7 @@
         <v>44022</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12938,7 +12938,7 @@
         <v>44022</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12995,7 +12995,7 @@
         <v>44025</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13052,7 +13052,7 @@
         <v>44028</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13109,7 +13109,7 @@
         <v>44036</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13166,7 +13166,7 @@
         <v>44039</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13223,7 +13223,7 @@
         <v>44041</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13280,7 +13280,7 @@
         <v>44043</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13337,7 +13337,7 @@
         <v>44046</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13394,7 +13394,7 @@
         <v>44055</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13451,7 +13451,7 @@
         <v>44060</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>44062</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         <v>44088</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         <v>44092</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13679,7 +13679,7 @@
         <v>44095</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13736,7 +13736,7 @@
         <v>44095</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13793,7 +13793,7 @@
         <v>44095</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>44103</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>44107</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44107</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44122</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44122</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>44123</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>44123</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>44124</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>44132</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>44132</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>44133</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>44133</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44140</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44141</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>44144</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>44145</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>44146</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>44146</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14891,7 +14891,7 @@
         <v>44147</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>44147</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>44147</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15062,7 +15062,7 @@
         <v>44147</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>44147</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44159</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44159</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15290,7 +15290,7 @@
         <v>44162</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>44166</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15404,7 +15404,7 @@
         <v>44168</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15461,7 +15461,7 @@
         <v>44172</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15518,7 +15518,7 @@
         <v>44173</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15575,7 +15575,7 @@
         <v>44174</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15632,7 +15632,7 @@
         <v>44174</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15689,7 +15689,7 @@
         <v>44180</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         <v>44187</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15803,7 +15803,7 @@
         <v>44193</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>44199</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>44210</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15974,7 +15974,7 @@
         <v>44216</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16031,7 +16031,7 @@
         <v>44221</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16088,7 +16088,7 @@
         <v>44224</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16145,7 +16145,7 @@
         <v>44230</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16202,7 +16202,7 @@
         <v>44230</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16259,7 +16259,7 @@
         <v>44231</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16316,7 +16316,7 @@
         <v>44236</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16373,7 +16373,7 @@
         <v>44236</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16430,7 +16430,7 @@
         <v>44236</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16487,7 +16487,7 @@
         <v>44238</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16544,7 +16544,7 @@
         <v>44242</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16601,7 +16601,7 @@
         <v>44243</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16658,7 +16658,7 @@
         <v>44245</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16715,7 +16715,7 @@
         <v>44250</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16772,7 +16772,7 @@
         <v>44250</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16829,7 +16829,7 @@
         <v>44251</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>44256</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16943,7 +16943,7 @@
         <v>44261</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         <v>44263</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         <v>44263</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17119,7 +17119,7 @@
         <v>44266</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
         <v>44266</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17243,7 +17243,7 @@
         <v>44267</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17305,7 +17305,7 @@
         <v>44267</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17367,7 +17367,7 @@
         <v>44267</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17429,7 +17429,7 @@
         <v>44267</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17491,7 +17491,7 @@
         <v>44267</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17553,7 +17553,7 @@
         <v>44278</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17610,7 +17610,7 @@
         <v>44295</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17667,7 +17667,7 @@
         <v>44298</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17724,7 +17724,7 @@
         <v>44298</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17781,7 +17781,7 @@
         <v>44302</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
         <v>44302</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>44307</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17952,7 +17952,7 @@
         <v>44322</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18009,7 +18009,7 @@
         <v>44322</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         <v>44335</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18123,7 +18123,7 @@
         <v>44336</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18180,7 +18180,7 @@
         <v>44340</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>44356</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18294,7 +18294,7 @@
         <v>44356</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18351,7 +18351,7 @@
         <v>44357</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
         <v>44357</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18470,7 +18470,7 @@
         <v>44363</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18527,7 +18527,7 @@
         <v>44365</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18584,7 +18584,7 @@
         <v>44371</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18641,7 +18641,7 @@
         <v>44371</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18698,7 +18698,7 @@
         <v>44375</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18755,7 +18755,7 @@
         <v>44378</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18812,7 +18812,7 @@
         <v>44384</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18869,7 +18869,7 @@
         <v>44389</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18926,7 +18926,7 @@
         <v>44407</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18983,7 +18983,7 @@
         <v>44427</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19040,7 +19040,7 @@
         <v>44442</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19097,7 +19097,7 @@
         <v>44448</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19154,7 +19154,7 @@
         <v>44454</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19211,7 +19211,7 @@
         <v>44454</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19268,7 +19268,7 @@
         <v>44454</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19325,7 +19325,7 @@
         <v>44455</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19382,7 +19382,7 @@
         <v>44469</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19439,7 +19439,7 @@
         <v>44475</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19496,7 +19496,7 @@
         <v>44476</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19553,7 +19553,7 @@
         <v>44477</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19610,7 +19610,7 @@
         <v>44477</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19667,7 +19667,7 @@
         <v>44480</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19724,7 +19724,7 @@
         <v>44481</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19781,7 +19781,7 @@
         <v>44482</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19838,7 +19838,7 @@
         <v>44483</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19895,7 +19895,7 @@
         <v>44483</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -19952,7 +19952,7 @@
         <v>44487</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20014,7 +20014,7 @@
         <v>44487</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20076,7 +20076,7 @@
         <v>44488</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         <v>44489</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20190,7 +20190,7 @@
         <v>44489</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20247,7 +20247,7 @@
         <v>44489</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20304,7 +20304,7 @@
         <v>44501</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20361,7 +20361,7 @@
         <v>44502</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20418,7 +20418,7 @@
         <v>44508</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20475,7 +20475,7 @@
         <v>44510</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20532,7 +20532,7 @@
         <v>44515</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20594,7 +20594,7 @@
         <v>44529</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20651,7 +20651,7 @@
         <v>44530</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20708,7 +20708,7 @@
         <v>44557</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20765,7 +20765,7 @@
         <v>44559</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20822,7 +20822,7 @@
         <v>44559</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20879,7 +20879,7 @@
         <v>44573</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -20936,7 +20936,7 @@
         <v>44573</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -20993,7 +20993,7 @@
         <v>44575</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21050,7 +21050,7 @@
         <v>44592</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21107,7 +21107,7 @@
         <v>44592</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21164,7 +21164,7 @@
         <v>44596</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21226,7 +21226,7 @@
         <v>44600</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
         <v>44607</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>44613</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21397,7 +21397,7 @@
         <v>44621</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44631</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44634</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44637</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>44644</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21687,7 +21687,7 @@
         <v>44655</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         <v>44659</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21806,7 +21806,7 @@
         <v>44659</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>44659</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>44659</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -21987,7 +21987,7 @@
         <v>44671</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>44671</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>44693</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>44697</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>44711</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>44712</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>44714</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>44714</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22448,7 +22448,7 @@
         <v>44719</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22505,7 +22505,7 @@
         <v>44735</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22562,7 +22562,7 @@
         <v>44735</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22619,7 +22619,7 @@
         <v>44735</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22676,7 +22676,7 @@
         <v>44753</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22733,7 +22733,7 @@
         <v>44756</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22790,7 +22790,7 @@
         <v>44756</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22847,7 +22847,7 @@
         <v>44762</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -22904,7 +22904,7 @@
         <v>44778</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -22961,7 +22961,7 @@
         <v>44778</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23018,7 +23018,7 @@
         <v>44778</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23075,7 +23075,7 @@
         <v>44817</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23132,7 +23132,7 @@
         <v>44823</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23189,7 +23189,7 @@
         <v>44830</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23246,7 +23246,7 @@
         <v>44830</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23303,7 +23303,7 @@
         <v>44845</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23360,7 +23360,7 @@
         <v>44847</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23417,7 +23417,7 @@
         <v>44847</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23474,7 +23474,7 @@
         <v>44847</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23531,7 +23531,7 @@
         <v>44865</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23588,7 +23588,7 @@
         <v>44865</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23645,7 +23645,7 @@
         <v>44868</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23702,7 +23702,7 @@
         <v>44869</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23759,7 +23759,7 @@
         <v>44872</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23816,7 +23816,7 @@
         <v>44873</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -23873,7 +23873,7 @@
         <v>44876</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -23930,7 +23930,7 @@
         <v>44887</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -23987,7 +23987,7 @@
         <v>44889</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24044,7 +24044,7 @@
         <v>44893</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24101,7 +24101,7 @@
         <v>44900</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24158,7 +24158,7 @@
         <v>44900</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24215,7 +24215,7 @@
         <v>44900</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24272,7 +24272,7 @@
         <v>44900</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24329,7 +24329,7 @@
         <v>44903</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         <v>44903</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24443,7 +24443,7 @@
         <v>44926</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24505,7 +24505,7 @@
         <v>44951</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24562,7 +24562,7 @@
         <v>44964</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24619,7 +24619,7 @@
         <v>44964</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24676,7 +24676,7 @@
         <v>44970</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24733,7 +24733,7 @@
         <v>44970</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24790,7 +24790,7 @@
         <v>44974</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -24847,7 +24847,7 @@
         <v>44974</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -24904,7 +24904,7 @@
         <v>44974</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -24961,7 +24961,7 @@
         <v>44980</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25018,7 +25018,7 @@
         <v>44999</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         <v>45013</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25132,7 +25132,7 @@
         <v>45019</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25189,7 +25189,7 @@
         <v>45019</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25246,7 +25246,7 @@
         <v>45020</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25303,7 +25303,7 @@
         <v>45030</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25365,7 +25365,7 @@
         <v>45037</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25422,7 +25422,7 @@
         <v>45040</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25479,7 +25479,7 @@
         <v>45044</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25536,7 +25536,7 @@
         <v>45058</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25593,7 +25593,7 @@
         <v>45061</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25650,7 +25650,7 @@
         <v>45062</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25707,7 +25707,7 @@
         <v>45063</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25764,7 +25764,7 @@
         <v>45070</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25821,7 +25821,7 @@
         <v>45070</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -25878,7 +25878,7 @@
         <v>45070</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -25935,7 +25935,7 @@
         <v>45075</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -25992,7 +25992,7 @@
         <v>45084</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26049,7 +26049,7 @@
         <v>45084</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26106,7 +26106,7 @@
         <v>45089</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26163,7 +26163,7 @@
         <v>45091</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26220,7 +26220,7 @@
         <v>45092</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26277,7 +26277,7 @@
         <v>45092</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26334,7 +26334,7 @@
         <v>45097</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26391,7 +26391,7 @@
         <v>45097</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26448,7 +26448,7 @@
         <v>45097</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26505,7 +26505,7 @@
         <v>45097</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26562,7 +26562,7 @@
         <v>45099</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26619,7 +26619,7 @@
         <v>45109</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26676,7 +26676,7 @@
         <v>45109</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26733,7 +26733,7 @@
         <v>45110</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26790,7 +26790,7 @@
         <v>45110</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -26847,7 +26847,7 @@
         <v>45114</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -26904,7 +26904,7 @@
         <v>45117</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -26961,7 +26961,7 @@
         <v>45128</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27018,7 +27018,7 @@
         <v>45131</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27075,7 +27075,7 @@
         <v>45145</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27132,7 +27132,7 @@
         <v>45149</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27189,7 +27189,7 @@
         <v>45153</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27251,7 +27251,7 @@
         <v>45153</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27308,7 +27308,7 @@
         <v>45154</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27365,7 +27365,7 @@
         <v>45155</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27422,7 +27422,7 @@
         <v>45162</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27479,7 +27479,7 @@
         <v>45163</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27536,7 +27536,7 @@
         <v>45167</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27593,7 +27593,7 @@
         <v>45167</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27650,7 +27650,7 @@
         <v>45170</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27707,7 +27707,7 @@
         <v>45170</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27764,7 +27764,7 @@
         <v>45181</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>

--- a/Översikt HYLTE.xlsx
+++ b/Översikt HYLTE.xlsx
@@ -572,7 +572,7 @@
         <v>43986</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44873</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43923</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43769</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>44693</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>43342</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
         <v>43467</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>43983</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         <v>44601</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         <v>43319</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1404,7 +1404,7 @@
         <v>43348</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1461,7 +1461,7 @@
         <v>43374</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1518,7 +1518,7 @@
         <v>43409</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1632,7 +1632,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1689,7 +1689,7 @@
         <v>43413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         <v>43415</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>43415</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1860,7 +1860,7 @@
         <v>43415</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         <v>43418</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1974,7 +1974,7 @@
         <v>43419</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>43420</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>43420</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>43423</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         <v>43423</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>43425</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>43431</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
         <v>43432</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>43432</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>43432</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>43432</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>43432</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>43433</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>43433</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>43433</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>43433</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>43437</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>43437</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>43437</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         <v>43437</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>43437</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>43437</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         <v>43441</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         <v>43441</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3342,7 +3342,7 @@
         <v>43445</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         <v>43447</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>43447</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>43447</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3570,7 +3570,7 @@
         <v>43454</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         <v>43467</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
         <v>43467</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3741,7 +3741,7 @@
         <v>43467</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>43467</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3855,7 +3855,7 @@
         <v>43468</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
         <v>43468</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3969,7 +3969,7 @@
         <v>43468</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4026,7 +4026,7 @@
         <v>43472</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
         <v>43472</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4140,7 +4140,7 @@
         <v>43472</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4197,7 +4197,7 @@
         <v>43472</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4254,7 +4254,7 @@
         <v>43472</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         <v>43473</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>43473</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>43473</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>43473</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         <v>43475</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
         <v>43475</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>43475</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>43476</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4767,7 +4767,7 @@
         <v>43479</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>43479</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4881,7 +4881,7 @@
         <v>43482</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4938,7 +4938,7 @@
         <v>43483</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43493</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>43503</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>43503</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>43505</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         <v>43516</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>43516</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>43516</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>43516</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>43516</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5508,7 +5508,7 @@
         <v>43521</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
         <v>43523</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         <v>43524</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5679,7 +5679,7 @@
         <v>43528</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         <v>43531</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>43535</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         <v>43536</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>43536</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>43542</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>43542</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>43542</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>43542</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>43544</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>43545</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>43545</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>43549</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>43549</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>43550</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>43550</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>43552</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>43552</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>43553</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>43557</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6824,7 +6824,7 @@
         <v>43558</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>43558</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>43563</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         <v>43564</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>43564</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>43565</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>43566</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>43570</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>43573</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>43581</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>43584</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43587</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7508,7 +7508,7 @@
         <v>43606</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7565,7 +7565,7 @@
         <v>43612</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7622,7 +7622,7 @@
         <v>43612</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7679,7 +7679,7 @@
         <v>43612</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7736,7 +7736,7 @@
         <v>43616</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         <v>43619</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7850,7 +7850,7 @@
         <v>43620</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>43620</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>43656</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8021,7 +8021,7 @@
         <v>43658</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>43663</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8135,7 +8135,7 @@
         <v>43664</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8192,7 +8192,7 @@
         <v>43665</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8249,7 +8249,7 @@
         <v>43665</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         <v>43668</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8363,7 +8363,7 @@
         <v>43668</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8420,7 +8420,7 @@
         <v>43668</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8477,7 +8477,7 @@
         <v>43668</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8534,7 +8534,7 @@
         <v>43682</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8591,7 +8591,7 @@
         <v>43682</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         <v>43682</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         <v>43682</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8762,7 +8762,7 @@
         <v>43682</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8819,7 +8819,7 @@
         <v>43689</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>43705</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8933,7 +8933,7 @@
         <v>43706</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8990,7 +8990,7 @@
         <v>43712</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9047,7 +9047,7 @@
         <v>43712</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9104,7 +9104,7 @@
         <v>43712</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9161,7 +9161,7 @@
         <v>43731</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9218,7 +9218,7 @@
         <v>43731</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9275,7 +9275,7 @@
         <v>43732</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9332,7 +9332,7 @@
         <v>43738</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9389,7 +9389,7 @@
         <v>43739</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9446,7 +9446,7 @@
         <v>43739</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>43741</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9560,7 +9560,7 @@
         <v>43742</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>43742</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>43742</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>43768</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>43770</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>43774</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>43775</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9959,7 +9959,7 @@
         <v>43775</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10016,7 +10016,7 @@
         <v>43790</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>43796</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10130,7 +10130,7 @@
         <v>43803</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10187,7 +10187,7 @@
         <v>43837</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>43837</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>43839</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10358,7 +10358,7 @@
         <v>43846</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>43850</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10472,7 +10472,7 @@
         <v>43852</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10529,7 +10529,7 @@
         <v>43854</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10586,7 +10586,7 @@
         <v>43858</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10643,7 +10643,7 @@
         <v>43859</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10705,7 +10705,7 @@
         <v>43871</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10762,7 +10762,7 @@
         <v>43871</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         <v>43875</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10876,7 +10876,7 @@
         <v>43880</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10933,7 +10933,7 @@
         <v>43880</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10990,7 +10990,7 @@
         <v>43886</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11052,7 +11052,7 @@
         <v>43901</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11109,7 +11109,7 @@
         <v>43901</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11166,7 +11166,7 @@
         <v>43901</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11223,7 +11223,7 @@
         <v>43903</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11280,7 +11280,7 @@
         <v>43908</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11337,7 +11337,7 @@
         <v>43908</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11394,7 +11394,7 @@
         <v>43913</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>43916</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11508,7 +11508,7 @@
         <v>43916</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>43927</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>43936</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>43937</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>43941</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>43943</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         <v>43943</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11907,7 +11907,7 @@
         <v>43949</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>43957</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>43957</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>43963</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>43966</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>43969</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>43983</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         <v>43983</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12363,7 +12363,7 @@
         <v>43983</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         <v>44000</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12477,7 +12477,7 @@
         <v>44007</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         <v>44019</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12591,7 +12591,7 @@
         <v>44020</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12648,7 +12648,7 @@
         <v>44020</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>44020</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12762,7 +12762,7 @@
         <v>44021</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12819,7 +12819,7 @@
         <v>44021</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12881,7 +12881,7 @@
         <v>44022</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12938,7 +12938,7 @@
         <v>44022</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12995,7 +12995,7 @@
         <v>44025</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13052,7 +13052,7 @@
         <v>44028</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13109,7 +13109,7 @@
         <v>44036</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13166,7 +13166,7 @@
         <v>44039</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13223,7 +13223,7 @@
         <v>44041</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13280,7 +13280,7 @@
         <v>44043</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13337,7 +13337,7 @@
         <v>44046</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13394,7 +13394,7 @@
         <v>44055</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13451,7 +13451,7 @@
         <v>44060</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>44062</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         <v>44088</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         <v>44092</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13679,7 +13679,7 @@
         <v>44095</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13736,7 +13736,7 @@
         <v>44095</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13793,7 +13793,7 @@
         <v>44095</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>44103</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>44107</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44107</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44122</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44122</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>44123</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>44123</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>44124</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>44132</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>44132</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>44133</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>44133</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44140</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44141</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>44144</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>44145</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>44146</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>44146</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14891,7 +14891,7 @@
         <v>44147</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>44147</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>44147</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15062,7 +15062,7 @@
         <v>44147</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>44147</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44159</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44159</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15290,7 +15290,7 @@
         <v>44162</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>44166</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15404,7 +15404,7 @@
         <v>44168</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15461,7 +15461,7 @@
         <v>44172</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15518,7 +15518,7 @@
         <v>44173</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15575,7 +15575,7 @@
         <v>44174</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15632,7 +15632,7 @@
         <v>44174</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15689,7 +15689,7 @@
         <v>44180</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         <v>44187</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15803,7 +15803,7 @@
         <v>44193</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>44199</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>44210</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15974,7 +15974,7 @@
         <v>44216</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16031,7 +16031,7 @@
         <v>44221</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16088,7 +16088,7 @@
         <v>44224</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16145,7 +16145,7 @@
         <v>44230</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16202,7 +16202,7 @@
         <v>44230</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16259,7 +16259,7 @@
         <v>44231</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16316,7 +16316,7 @@
         <v>44236</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16373,7 +16373,7 @@
         <v>44236</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16430,7 +16430,7 @@
         <v>44236</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16487,7 +16487,7 @@
         <v>44238</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16544,7 +16544,7 @@
         <v>44242</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16601,7 +16601,7 @@
         <v>44243</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16658,7 +16658,7 @@
         <v>44245</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16715,7 +16715,7 @@
         <v>44250</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16772,7 +16772,7 @@
         <v>44250</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16829,7 +16829,7 @@
         <v>44251</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>44256</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16943,7 +16943,7 @@
         <v>44261</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         <v>44263</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         <v>44263</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17119,7 +17119,7 @@
         <v>44266</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
         <v>44266</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17243,7 +17243,7 @@
         <v>44267</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17305,7 +17305,7 @@
         <v>44267</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17367,7 +17367,7 @@
         <v>44267</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17429,7 +17429,7 @@
         <v>44267</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17491,7 +17491,7 @@
         <v>44267</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17553,7 +17553,7 @@
         <v>44278</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17610,7 +17610,7 @@
         <v>44295</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17667,7 +17667,7 @@
         <v>44298</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17724,7 +17724,7 @@
         <v>44298</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17781,7 +17781,7 @@
         <v>44302</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
         <v>44302</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>44307</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17952,7 +17952,7 @@
         <v>44322</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18009,7 +18009,7 @@
         <v>44322</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         <v>44335</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18123,7 +18123,7 @@
         <v>44336</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18180,7 +18180,7 @@
         <v>44340</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>44356</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18294,7 +18294,7 @@
         <v>44356</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18351,7 +18351,7 @@
         <v>44357</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
         <v>44357</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18470,7 +18470,7 @@
         <v>44363</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18527,7 +18527,7 @@
         <v>44365</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18584,7 +18584,7 @@
         <v>44371</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18641,7 +18641,7 @@
         <v>44371</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18698,7 +18698,7 @@
         <v>44375</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18755,7 +18755,7 @@
         <v>44378</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18812,7 +18812,7 @@
         <v>44384</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18869,7 +18869,7 @@
         <v>44389</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18926,7 +18926,7 @@
         <v>44407</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18983,7 +18983,7 @@
         <v>44427</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19040,7 +19040,7 @@
         <v>44442</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19097,7 +19097,7 @@
         <v>44448</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19154,7 +19154,7 @@
         <v>44454</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19211,7 +19211,7 @@
         <v>44454</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19268,7 +19268,7 @@
         <v>44454</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19325,7 +19325,7 @@
         <v>44455</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19382,7 +19382,7 @@
         <v>44469</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19439,7 +19439,7 @@
         <v>44475</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19496,7 +19496,7 @@
         <v>44476</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19553,7 +19553,7 @@
         <v>44477</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19610,7 +19610,7 @@
         <v>44477</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19667,7 +19667,7 @@
         <v>44480</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19724,7 +19724,7 @@
         <v>44481</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19781,7 +19781,7 @@
         <v>44482</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19838,7 +19838,7 @@
         <v>44483</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19895,7 +19895,7 @@
         <v>44483</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -19952,7 +19952,7 @@
         <v>44487</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20014,7 +20014,7 @@
         <v>44487</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20076,7 +20076,7 @@
         <v>44488</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         <v>44489</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20190,7 +20190,7 @@
         <v>44489</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20247,7 +20247,7 @@
         <v>44489</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20304,7 +20304,7 @@
         <v>44501</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20361,7 +20361,7 @@
         <v>44502</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20418,7 +20418,7 @@
         <v>44508</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20475,7 +20475,7 @@
         <v>44510</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20532,7 +20532,7 @@
         <v>44515</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20594,7 +20594,7 @@
         <v>44529</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20651,7 +20651,7 @@
         <v>44530</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20708,7 +20708,7 @@
         <v>44557</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20765,7 +20765,7 @@
         <v>44559</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20822,7 +20822,7 @@
         <v>44559</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20879,7 +20879,7 @@
         <v>44573</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -20936,7 +20936,7 @@
         <v>44573</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -20993,7 +20993,7 @@
         <v>44575</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21050,7 +21050,7 @@
         <v>44592</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21107,7 +21107,7 @@
         <v>44592</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21164,7 +21164,7 @@
         <v>44596</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21226,7 +21226,7 @@
         <v>44600</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
         <v>44607</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>44613</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21397,7 +21397,7 @@
         <v>44621</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44631</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44634</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44637</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>44644</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21687,7 +21687,7 @@
         <v>44655</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         <v>44659</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21806,7 +21806,7 @@
         <v>44659</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>44659</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>44659</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -21987,7 +21987,7 @@
         <v>44671</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>44671</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>44693</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>44697</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>44711</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>44712</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>44714</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>44714</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22448,7 +22448,7 @@
         <v>44719</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22505,7 +22505,7 @@
         <v>44735</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22562,7 +22562,7 @@
         <v>44735</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22619,7 +22619,7 @@
         <v>44735</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22676,7 +22676,7 @@
         <v>44753</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22733,7 +22733,7 @@
         <v>44756</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22790,7 +22790,7 @@
         <v>44756</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22847,7 +22847,7 @@
         <v>44762</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -22904,7 +22904,7 @@
         <v>44778</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -22961,7 +22961,7 @@
         <v>44778</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23018,7 +23018,7 @@
         <v>44778</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23075,7 +23075,7 @@
         <v>44817</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23132,7 +23132,7 @@
         <v>44823</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23189,7 +23189,7 @@
         <v>44830</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23246,7 +23246,7 @@
         <v>44830</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23303,7 +23303,7 @@
         <v>44845</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23360,7 +23360,7 @@
         <v>44847</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23417,7 +23417,7 @@
         <v>44847</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23474,7 +23474,7 @@
         <v>44847</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23531,7 +23531,7 @@
         <v>44865</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23588,7 +23588,7 @@
         <v>44865</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23645,7 +23645,7 @@
         <v>44868</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23702,7 +23702,7 @@
         <v>44869</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23759,7 +23759,7 @@
         <v>44872</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23816,7 +23816,7 @@
         <v>44873</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -23873,7 +23873,7 @@
         <v>44876</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -23930,7 +23930,7 @@
         <v>44887</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -23987,7 +23987,7 @@
         <v>44889</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24044,7 +24044,7 @@
         <v>44893</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24101,7 +24101,7 @@
         <v>44900</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24158,7 +24158,7 @@
         <v>44900</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24215,7 +24215,7 @@
         <v>44900</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24272,7 +24272,7 @@
         <v>44900</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24329,7 +24329,7 @@
         <v>44903</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         <v>44903</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24443,7 +24443,7 @@
         <v>44926</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24505,7 +24505,7 @@
         <v>44951</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24562,7 +24562,7 @@
         <v>44964</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24619,7 +24619,7 @@
         <v>44964</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24676,7 +24676,7 @@
         <v>44970</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24733,7 +24733,7 @@
         <v>44970</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24790,7 +24790,7 @@
         <v>44974</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -24847,7 +24847,7 @@
         <v>44974</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -24904,7 +24904,7 @@
         <v>44974</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -24961,7 +24961,7 @@
         <v>44980</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25018,7 +25018,7 @@
         <v>44999</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         <v>45013</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25132,7 +25132,7 @@
         <v>45019</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25189,7 +25189,7 @@
         <v>45019</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25246,7 +25246,7 @@
         <v>45020</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25303,7 +25303,7 @@
         <v>45030</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25365,7 +25365,7 @@
         <v>45037</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25422,7 +25422,7 @@
         <v>45040</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25479,7 +25479,7 @@
         <v>45044</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25536,7 +25536,7 @@
         <v>45058</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25593,7 +25593,7 @@
         <v>45061</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25650,7 +25650,7 @@
         <v>45062</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25707,7 +25707,7 @@
         <v>45063</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25764,7 +25764,7 @@
         <v>45070</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25821,7 +25821,7 @@
         <v>45070</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -25878,7 +25878,7 @@
         <v>45070</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -25935,7 +25935,7 @@
         <v>45075</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -25992,7 +25992,7 @@
         <v>45084</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26049,7 +26049,7 @@
         <v>45084</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26106,7 +26106,7 @@
         <v>45089</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26163,7 +26163,7 @@
         <v>45091</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26220,7 +26220,7 @@
         <v>45092</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26277,7 +26277,7 @@
         <v>45092</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26334,7 +26334,7 @@
         <v>45097</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26391,7 +26391,7 @@
         <v>45097</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26448,7 +26448,7 @@
         <v>45097</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26505,7 +26505,7 @@
         <v>45097</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26562,7 +26562,7 @@
         <v>45099</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26619,7 +26619,7 @@
         <v>45109</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26676,7 +26676,7 @@
         <v>45109</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26733,7 +26733,7 @@
         <v>45110</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26790,7 +26790,7 @@
         <v>45110</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -26847,7 +26847,7 @@
         <v>45114</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -26904,7 +26904,7 @@
         <v>45117</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -26961,7 +26961,7 @@
         <v>45128</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27018,7 +27018,7 @@
         <v>45131</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27075,7 +27075,7 @@
         <v>45145</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27132,7 +27132,7 @@
         <v>45149</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27189,7 +27189,7 @@
         <v>45153</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27251,7 +27251,7 @@
         <v>45153</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27308,7 +27308,7 @@
         <v>45154</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27365,7 +27365,7 @@
         <v>45155</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27422,7 +27422,7 @@
         <v>45162</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27479,7 +27479,7 @@
         <v>45163</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27536,7 +27536,7 @@
         <v>45167</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27593,7 +27593,7 @@
         <v>45167</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27650,7 +27650,7 @@
         <v>45170</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27707,7 +27707,7 @@
         <v>45170</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27764,7 +27764,7 @@
         <v>45181</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>

--- a/Översikt HYLTE.xlsx
+++ b/Översikt HYLTE.xlsx
@@ -572,7 +572,7 @@
         <v>43986</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44873</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43923</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43769</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>44693</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>43342</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
         <v>43467</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>43983</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         <v>44601</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         <v>43319</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1404,7 +1404,7 @@
         <v>43348</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1461,7 +1461,7 @@
         <v>43374</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1518,7 +1518,7 @@
         <v>43409</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1632,7 +1632,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1689,7 +1689,7 @@
         <v>43413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         <v>43415</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>43415</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1860,7 +1860,7 @@
         <v>43415</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         <v>43418</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1974,7 +1974,7 @@
         <v>43419</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>43420</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>43420</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>43423</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         <v>43423</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>43425</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>43431</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
         <v>43432</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>43432</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>43432</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>43432</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>43432</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>43433</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>43433</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>43433</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>43433</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>43437</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>43437</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>43437</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         <v>43437</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>43437</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>43437</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         <v>43441</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         <v>43441</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3342,7 +3342,7 @@
         <v>43445</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         <v>43447</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>43447</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>43447</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3570,7 +3570,7 @@
         <v>43454</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         <v>43467</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
         <v>43467</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3741,7 +3741,7 @@
         <v>43467</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>43467</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3855,7 +3855,7 @@
         <v>43468</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
         <v>43468</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3969,7 +3969,7 @@
         <v>43468</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4026,7 +4026,7 @@
         <v>43472</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
         <v>43472</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4140,7 +4140,7 @@
         <v>43472</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4197,7 +4197,7 @@
         <v>43472</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4254,7 +4254,7 @@
         <v>43472</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         <v>43473</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>43473</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>43473</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>43473</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         <v>43475</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
         <v>43475</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>43475</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>43476</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4767,7 +4767,7 @@
         <v>43479</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>43479</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4881,7 +4881,7 @@
         <v>43482</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4938,7 +4938,7 @@
         <v>43483</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43493</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>43503</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>43503</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>43505</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         <v>43516</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>43516</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>43516</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>43516</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>43516</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5508,7 +5508,7 @@
         <v>43521</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
         <v>43523</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         <v>43524</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5679,7 +5679,7 @@
         <v>43528</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         <v>43531</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>43535</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         <v>43536</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>43536</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>43542</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>43542</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>43542</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>43542</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>43544</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>43545</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>43545</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>43549</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>43549</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>43550</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>43550</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>43552</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>43552</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>43553</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>43557</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6824,7 +6824,7 @@
         <v>43558</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>43558</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>43563</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         <v>43564</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>43564</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>43565</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>43566</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>43570</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>43573</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>43581</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>43584</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43587</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7508,7 +7508,7 @@
         <v>43606</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7565,7 +7565,7 @@
         <v>43612</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7622,7 +7622,7 @@
         <v>43612</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7679,7 +7679,7 @@
         <v>43612</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7736,7 +7736,7 @@
         <v>43616</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         <v>43619</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7850,7 +7850,7 @@
         <v>43620</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>43620</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>43656</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8021,7 +8021,7 @@
         <v>43658</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>43663</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8135,7 +8135,7 @@
         <v>43664</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8192,7 +8192,7 @@
         <v>43665</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8249,7 +8249,7 @@
         <v>43665</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         <v>43668</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8363,7 +8363,7 @@
         <v>43668</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8420,7 +8420,7 @@
         <v>43668</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8477,7 +8477,7 @@
         <v>43668</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8534,7 +8534,7 @@
         <v>43682</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8591,7 +8591,7 @@
         <v>43682</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         <v>43682</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         <v>43682</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8762,7 +8762,7 @@
         <v>43682</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8819,7 +8819,7 @@
         <v>43689</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>43705</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8933,7 +8933,7 @@
         <v>43706</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8990,7 +8990,7 @@
         <v>43712</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9047,7 +9047,7 @@
         <v>43712</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9104,7 +9104,7 @@
         <v>43712</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9161,7 +9161,7 @@
         <v>43731</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9218,7 +9218,7 @@
         <v>43731</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9275,7 +9275,7 @@
         <v>43732</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9332,7 +9332,7 @@
         <v>43738</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9389,7 +9389,7 @@
         <v>43739</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9446,7 +9446,7 @@
         <v>43739</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>43741</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9560,7 +9560,7 @@
         <v>43742</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>43742</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>43742</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>43768</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>43770</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>43774</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>43775</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9959,7 +9959,7 @@
         <v>43775</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10016,7 +10016,7 @@
         <v>43790</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>43796</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10130,7 +10130,7 @@
         <v>43803</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10187,7 +10187,7 @@
         <v>43837</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>43837</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>43839</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10358,7 +10358,7 @@
         <v>43846</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>43850</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10472,7 +10472,7 @@
         <v>43852</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10529,7 +10529,7 @@
         <v>43854</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10586,7 +10586,7 @@
         <v>43858</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10643,7 +10643,7 @@
         <v>43859</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10705,7 +10705,7 @@
         <v>43871</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10762,7 +10762,7 @@
         <v>43871</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         <v>43875</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10876,7 +10876,7 @@
         <v>43880</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10933,7 +10933,7 @@
         <v>43880</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10990,7 +10990,7 @@
         <v>43886</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11052,7 +11052,7 @@
         <v>43901</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11109,7 +11109,7 @@
         <v>43901</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11166,7 +11166,7 @@
         <v>43901</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11223,7 +11223,7 @@
         <v>43903</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11280,7 +11280,7 @@
         <v>43908</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11337,7 +11337,7 @@
         <v>43908</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11394,7 +11394,7 @@
         <v>43913</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>43916</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11508,7 +11508,7 @@
         <v>43916</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>43927</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>43936</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>43937</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>43941</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>43943</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         <v>43943</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11907,7 +11907,7 @@
         <v>43949</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>43957</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>43957</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>43963</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>43966</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>43969</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>43983</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         <v>43983</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12363,7 +12363,7 @@
         <v>43983</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         <v>44000</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12477,7 +12477,7 @@
         <v>44007</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         <v>44019</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12591,7 +12591,7 @@
         <v>44020</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12648,7 +12648,7 @@
         <v>44020</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>44020</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12762,7 +12762,7 @@
         <v>44021</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12819,7 +12819,7 @@
         <v>44021</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12881,7 +12881,7 @@
         <v>44022</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12938,7 +12938,7 @@
         <v>44022</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12995,7 +12995,7 @@
         <v>44025</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13052,7 +13052,7 @@
         <v>44028</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13109,7 +13109,7 @@
         <v>44036</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13166,7 +13166,7 @@
         <v>44039</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13223,7 +13223,7 @@
         <v>44041</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13280,7 +13280,7 @@
         <v>44043</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13337,7 +13337,7 @@
         <v>44046</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13394,7 +13394,7 @@
         <v>44055</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13451,7 +13451,7 @@
         <v>44060</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>44062</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         <v>44088</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         <v>44092</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13679,7 +13679,7 @@
         <v>44095</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13736,7 +13736,7 @@
         <v>44095</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13793,7 +13793,7 @@
         <v>44095</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>44103</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>44107</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44107</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44122</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44122</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>44123</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>44123</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>44124</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>44132</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>44132</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>44133</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>44133</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44140</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44141</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>44144</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>44145</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>44146</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>44146</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14891,7 +14891,7 @@
         <v>44147</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>44147</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>44147</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15062,7 +15062,7 @@
         <v>44147</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>44147</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44159</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44159</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15290,7 +15290,7 @@
         <v>44162</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>44166</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15404,7 +15404,7 @@
         <v>44168</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15461,7 +15461,7 @@
         <v>44172</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15518,7 +15518,7 @@
         <v>44173</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15575,7 +15575,7 @@
         <v>44174</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15632,7 +15632,7 @@
         <v>44174</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15689,7 +15689,7 @@
         <v>44180</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         <v>44187</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15803,7 +15803,7 @@
         <v>44193</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>44199</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>44210</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15974,7 +15974,7 @@
         <v>44216</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16031,7 +16031,7 @@
         <v>44221</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16088,7 +16088,7 @@
         <v>44224</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16145,7 +16145,7 @@
         <v>44230</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16202,7 +16202,7 @@
         <v>44230</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16259,7 +16259,7 @@
         <v>44231</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16316,7 +16316,7 @@
         <v>44236</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16373,7 +16373,7 @@
         <v>44236</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16430,7 +16430,7 @@
         <v>44236</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16487,7 +16487,7 @@
         <v>44238</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16544,7 +16544,7 @@
         <v>44242</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16601,7 +16601,7 @@
         <v>44243</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16658,7 +16658,7 @@
         <v>44245</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16715,7 +16715,7 @@
         <v>44250</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16772,7 +16772,7 @@
         <v>44250</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16829,7 +16829,7 @@
         <v>44251</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>44256</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16943,7 +16943,7 @@
         <v>44261</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         <v>44263</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         <v>44263</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17119,7 +17119,7 @@
         <v>44266</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
         <v>44266</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17243,7 +17243,7 @@
         <v>44267</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17305,7 +17305,7 @@
         <v>44267</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17367,7 +17367,7 @@
         <v>44267</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17429,7 +17429,7 @@
         <v>44267</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17491,7 +17491,7 @@
         <v>44267</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17553,7 +17553,7 @@
         <v>44278</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17610,7 +17610,7 @@
         <v>44295</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17667,7 +17667,7 @@
         <v>44298</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17724,7 +17724,7 @@
         <v>44298</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17781,7 +17781,7 @@
         <v>44302</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
         <v>44302</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>44307</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17952,7 +17952,7 @@
         <v>44322</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18009,7 +18009,7 @@
         <v>44322</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         <v>44335</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18123,7 +18123,7 @@
         <v>44336</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18180,7 +18180,7 @@
         <v>44340</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>44356</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18294,7 +18294,7 @@
         <v>44356</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18351,7 +18351,7 @@
         <v>44357</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
         <v>44357</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18470,7 +18470,7 @@
         <v>44363</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18527,7 +18527,7 @@
         <v>44365</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18584,7 +18584,7 @@
         <v>44371</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18641,7 +18641,7 @@
         <v>44371</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18698,7 +18698,7 @@
         <v>44375</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18755,7 +18755,7 @@
         <v>44378</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18812,7 +18812,7 @@
         <v>44384</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18869,7 +18869,7 @@
         <v>44389</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18926,7 +18926,7 @@
         <v>44407</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18983,7 +18983,7 @@
         <v>44427</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19040,7 +19040,7 @@
         <v>44442</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19097,7 +19097,7 @@
         <v>44448</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19154,7 +19154,7 @@
         <v>44454</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19211,7 +19211,7 @@
         <v>44454</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19268,7 +19268,7 @@
         <v>44454</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19325,7 +19325,7 @@
         <v>44455</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19382,7 +19382,7 @@
         <v>44469</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19439,7 +19439,7 @@
         <v>44475</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19496,7 +19496,7 @@
         <v>44476</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19553,7 +19553,7 @@
         <v>44477</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19610,7 +19610,7 @@
         <v>44477</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19667,7 +19667,7 @@
         <v>44480</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19724,7 +19724,7 @@
         <v>44481</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19781,7 +19781,7 @@
         <v>44482</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19838,7 +19838,7 @@
         <v>44483</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19895,7 +19895,7 @@
         <v>44483</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -19952,7 +19952,7 @@
         <v>44487</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20014,7 +20014,7 @@
         <v>44487</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20076,7 +20076,7 @@
         <v>44488</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         <v>44489</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20190,7 +20190,7 @@
         <v>44489</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20247,7 +20247,7 @@
         <v>44489</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20304,7 +20304,7 @@
         <v>44501</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20361,7 +20361,7 @@
         <v>44502</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20418,7 +20418,7 @@
         <v>44508</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20475,7 +20475,7 @@
         <v>44510</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20532,7 +20532,7 @@
         <v>44515</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20594,7 +20594,7 @@
         <v>44529</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20651,7 +20651,7 @@
         <v>44530</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20708,7 +20708,7 @@
         <v>44557</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20765,7 +20765,7 @@
         <v>44559</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20822,7 +20822,7 @@
         <v>44559</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20879,7 +20879,7 @@
         <v>44573</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -20936,7 +20936,7 @@
         <v>44573</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -20993,7 +20993,7 @@
         <v>44575</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21050,7 +21050,7 @@
         <v>44592</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21107,7 +21107,7 @@
         <v>44592</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21164,7 +21164,7 @@
         <v>44596</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21226,7 +21226,7 @@
         <v>44600</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
         <v>44607</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>44613</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21397,7 +21397,7 @@
         <v>44621</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44631</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44634</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44637</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>44644</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21687,7 +21687,7 @@
         <v>44655</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         <v>44659</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21806,7 +21806,7 @@
         <v>44659</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>44659</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>44659</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -21987,7 +21987,7 @@
         <v>44671</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>44671</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>44693</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>44697</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>44711</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>44712</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>44714</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>44714</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22448,7 +22448,7 @@
         <v>44719</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22505,7 +22505,7 @@
         <v>44735</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22562,7 +22562,7 @@
         <v>44735</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22619,7 +22619,7 @@
         <v>44735</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22676,7 +22676,7 @@
         <v>44753</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22733,7 +22733,7 @@
         <v>44756</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22790,7 +22790,7 @@
         <v>44756</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22847,7 +22847,7 @@
         <v>44762</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -22904,7 +22904,7 @@
         <v>44778</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -22961,7 +22961,7 @@
         <v>44778</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23018,7 +23018,7 @@
         <v>44778</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23075,7 +23075,7 @@
         <v>44817</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23132,7 +23132,7 @@
         <v>44823</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23189,7 +23189,7 @@
         <v>44830</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23246,7 +23246,7 @@
         <v>44830</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23303,7 +23303,7 @@
         <v>44845</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23360,7 +23360,7 @@
         <v>44847</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23417,7 +23417,7 @@
         <v>44847</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23474,7 +23474,7 @@
         <v>44847</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23531,7 +23531,7 @@
         <v>44865</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23588,7 +23588,7 @@
         <v>44865</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23645,7 +23645,7 @@
         <v>44868</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23702,7 +23702,7 @@
         <v>44869</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23759,7 +23759,7 @@
         <v>44872</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23816,7 +23816,7 @@
         <v>44873</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -23873,7 +23873,7 @@
         <v>44876</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -23930,7 +23930,7 @@
         <v>44887</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -23987,7 +23987,7 @@
         <v>44889</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24044,7 +24044,7 @@
         <v>44893</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24101,7 +24101,7 @@
         <v>44900</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24158,7 +24158,7 @@
         <v>44900</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24215,7 +24215,7 @@
         <v>44900</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24272,7 +24272,7 @@
         <v>44900</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24329,7 +24329,7 @@
         <v>44903</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         <v>44903</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24443,7 +24443,7 @@
         <v>44926</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24505,7 +24505,7 @@
         <v>44951</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24562,7 +24562,7 @@
         <v>44964</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24619,7 +24619,7 @@
         <v>44964</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24676,7 +24676,7 @@
         <v>44970</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24733,7 +24733,7 @@
         <v>44970</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24790,7 +24790,7 @@
         <v>44974</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -24847,7 +24847,7 @@
         <v>44974</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -24904,7 +24904,7 @@
         <v>44974</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -24961,7 +24961,7 @@
         <v>44980</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25018,7 +25018,7 @@
         <v>44999</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         <v>45013</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25132,7 +25132,7 @@
         <v>45019</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25189,7 +25189,7 @@
         <v>45019</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25246,7 +25246,7 @@
         <v>45020</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25303,7 +25303,7 @@
         <v>45030</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25365,7 +25365,7 @@
         <v>45037</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25422,7 +25422,7 @@
         <v>45040</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25479,7 +25479,7 @@
         <v>45044</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25536,7 +25536,7 @@
         <v>45058</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25593,7 +25593,7 @@
         <v>45061</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25650,7 +25650,7 @@
         <v>45062</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25707,7 +25707,7 @@
         <v>45063</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25764,7 +25764,7 @@
         <v>45070</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25821,7 +25821,7 @@
         <v>45070</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -25878,7 +25878,7 @@
         <v>45070</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -25935,7 +25935,7 @@
         <v>45075</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -25992,7 +25992,7 @@
         <v>45084</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26049,7 +26049,7 @@
         <v>45084</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26106,7 +26106,7 @@
         <v>45089</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26163,7 +26163,7 @@
         <v>45091</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26220,7 +26220,7 @@
         <v>45092</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26277,7 +26277,7 @@
         <v>45092</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26334,7 +26334,7 @@
         <v>45097</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26391,7 +26391,7 @@
         <v>45097</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26448,7 +26448,7 @@
         <v>45097</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26505,7 +26505,7 @@
         <v>45097</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26562,7 +26562,7 @@
         <v>45099</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26619,7 +26619,7 @@
         <v>45109</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26676,7 +26676,7 @@
         <v>45109</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26733,7 +26733,7 @@
         <v>45110</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26790,7 +26790,7 @@
         <v>45110</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -26847,7 +26847,7 @@
         <v>45114</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -26904,7 +26904,7 @@
         <v>45117</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -26961,7 +26961,7 @@
         <v>45128</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27018,7 +27018,7 @@
         <v>45131</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27075,7 +27075,7 @@
         <v>45145</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27132,7 +27132,7 @@
         <v>45149</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27189,7 +27189,7 @@
         <v>45153</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27251,7 +27251,7 @@
         <v>45153</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27308,7 +27308,7 @@
         <v>45154</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27365,7 +27365,7 @@
         <v>45155</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27422,7 +27422,7 @@
         <v>45162</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27479,7 +27479,7 @@
         <v>45163</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27536,7 +27536,7 @@
         <v>45167</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27593,7 +27593,7 @@
         <v>45167</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27650,7 +27650,7 @@
         <v>45170</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27707,7 +27707,7 @@
         <v>45170</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27764,7 +27764,7 @@
         <v>45181</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>

--- a/Översikt HYLTE.xlsx
+++ b/Översikt HYLTE.xlsx
@@ -572,7 +572,7 @@
         <v>43986</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44873</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43923</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43769</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>44693</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>43342</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
         <v>43467</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>43983</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         <v>44601</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         <v>43319</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1404,7 +1404,7 @@
         <v>43348</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1461,7 +1461,7 @@
         <v>43374</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1518,7 +1518,7 @@
         <v>43409</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1632,7 +1632,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1689,7 +1689,7 @@
         <v>43413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         <v>43415</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>43415</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1860,7 +1860,7 @@
         <v>43415</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         <v>43418</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1974,7 +1974,7 @@
         <v>43419</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>43420</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>43420</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>43423</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         <v>43423</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>43425</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>43431</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
         <v>43432</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>43432</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>43432</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>43432</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>43432</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>43433</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>43433</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>43433</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>43433</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>43437</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>43437</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>43437</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         <v>43437</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>43437</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>43437</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         <v>43441</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         <v>43441</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3342,7 +3342,7 @@
         <v>43445</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         <v>43447</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>43447</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>43447</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3570,7 +3570,7 @@
         <v>43454</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         <v>43467</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
         <v>43467</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3741,7 +3741,7 @@
         <v>43467</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>43467</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3855,7 +3855,7 @@
         <v>43468</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
         <v>43468</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3969,7 +3969,7 @@
         <v>43468</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4026,7 +4026,7 @@
         <v>43472</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
         <v>43472</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4140,7 +4140,7 @@
         <v>43472</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4197,7 +4197,7 @@
         <v>43472</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4254,7 +4254,7 @@
         <v>43472</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         <v>43473</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>43473</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>43473</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>43473</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         <v>43475</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
         <v>43475</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>43475</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>43476</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4767,7 +4767,7 @@
         <v>43479</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>43479</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4881,7 +4881,7 @@
         <v>43482</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4938,7 +4938,7 @@
         <v>43483</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43493</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>43503</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>43503</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>43505</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         <v>43516</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>43516</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>43516</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>43516</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>43516</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5508,7 +5508,7 @@
         <v>43521</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
         <v>43523</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         <v>43524</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5679,7 +5679,7 @@
         <v>43528</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         <v>43531</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>43535</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         <v>43536</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>43536</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>43542</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>43542</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>43542</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>43542</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>43544</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>43545</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>43545</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>43549</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>43549</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>43550</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>43550</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>43552</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>43552</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>43553</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>43557</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6824,7 +6824,7 @@
         <v>43558</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>43558</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>43563</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         <v>43564</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>43564</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>43565</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>43566</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>43570</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>43573</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>43581</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>43584</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43587</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7508,7 +7508,7 @@
         <v>43606</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7565,7 +7565,7 @@
         <v>43612</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7622,7 +7622,7 @@
         <v>43612</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7679,7 +7679,7 @@
         <v>43612</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7736,7 +7736,7 @@
         <v>43616</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         <v>43619</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7850,7 +7850,7 @@
         <v>43620</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>43620</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>43656</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8021,7 +8021,7 @@
         <v>43658</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>43663</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8135,7 +8135,7 @@
         <v>43664</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8192,7 +8192,7 @@
         <v>43665</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8249,7 +8249,7 @@
         <v>43665</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         <v>43668</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8363,7 +8363,7 @@
         <v>43668</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8420,7 +8420,7 @@
         <v>43668</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8477,7 +8477,7 @@
         <v>43668</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8534,7 +8534,7 @@
         <v>43682</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8591,7 +8591,7 @@
         <v>43682</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         <v>43682</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         <v>43682</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8762,7 +8762,7 @@
         <v>43682</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8819,7 +8819,7 @@
         <v>43689</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>43705</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8933,7 +8933,7 @@
         <v>43706</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8990,7 +8990,7 @@
         <v>43712</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9047,7 +9047,7 @@
         <v>43712</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9104,7 +9104,7 @@
         <v>43712</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9161,7 +9161,7 @@
         <v>43731</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9218,7 +9218,7 @@
         <v>43731</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9275,7 +9275,7 @@
         <v>43732</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9332,7 +9332,7 @@
         <v>43738</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9389,7 +9389,7 @@
         <v>43739</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9446,7 +9446,7 @@
         <v>43739</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>43741</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9560,7 +9560,7 @@
         <v>43742</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>43742</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>43742</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>43768</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>43770</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>43774</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>43775</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9959,7 +9959,7 @@
         <v>43775</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10016,7 +10016,7 @@
         <v>43790</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>43796</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10130,7 +10130,7 @@
         <v>43803</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10187,7 +10187,7 @@
         <v>43837</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>43837</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>43839</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10358,7 +10358,7 @@
         <v>43846</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>43850</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10472,7 +10472,7 @@
         <v>43852</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10529,7 +10529,7 @@
         <v>43854</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10586,7 +10586,7 @@
         <v>43858</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10643,7 +10643,7 @@
         <v>43859</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10705,7 +10705,7 @@
         <v>43871</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10762,7 +10762,7 @@
         <v>43871</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         <v>43875</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10876,7 +10876,7 @@
         <v>43880</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10933,7 +10933,7 @@
         <v>43880</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10990,7 +10990,7 @@
         <v>43886</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11052,7 +11052,7 @@
         <v>43901</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11109,7 +11109,7 @@
         <v>43901</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11166,7 +11166,7 @@
         <v>43901</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11223,7 +11223,7 @@
         <v>43903</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11280,7 +11280,7 @@
         <v>43908</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11337,7 +11337,7 @@
         <v>43908</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11394,7 +11394,7 @@
         <v>43913</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>43916</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11508,7 +11508,7 @@
         <v>43916</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>43927</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>43936</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>43937</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>43941</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>43943</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         <v>43943</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11907,7 +11907,7 @@
         <v>43949</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>43957</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>43957</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>43963</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>43966</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>43969</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>43983</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         <v>43983</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12363,7 +12363,7 @@
         <v>43983</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         <v>44000</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12477,7 +12477,7 @@
         <v>44007</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         <v>44019</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12591,7 +12591,7 @@
         <v>44020</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12648,7 +12648,7 @@
         <v>44020</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>44020</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12762,7 +12762,7 @@
         <v>44021</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12819,7 +12819,7 @@
         <v>44021</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12881,7 +12881,7 @@
         <v>44022</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12938,7 +12938,7 @@
         <v>44022</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12995,7 +12995,7 @@
         <v>44025</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13052,7 +13052,7 @@
         <v>44028</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13109,7 +13109,7 @@
         <v>44036</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13166,7 +13166,7 @@
         <v>44039</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13223,7 +13223,7 @@
         <v>44041</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13280,7 +13280,7 @@
         <v>44043</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13337,7 +13337,7 @@
         <v>44046</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13394,7 +13394,7 @@
         <v>44055</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13451,7 +13451,7 @@
         <v>44060</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>44062</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         <v>44088</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         <v>44092</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13679,7 +13679,7 @@
         <v>44095</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13736,7 +13736,7 @@
         <v>44095</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13793,7 +13793,7 @@
         <v>44095</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>44103</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>44107</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44107</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44122</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44122</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>44123</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>44123</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>44124</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>44132</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>44132</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>44133</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>44133</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44140</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44141</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>44144</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>44145</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>44146</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>44146</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14891,7 +14891,7 @@
         <v>44147</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>44147</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>44147</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15062,7 +15062,7 @@
         <v>44147</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>44147</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44159</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44159</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15290,7 +15290,7 @@
         <v>44162</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>44166</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15404,7 +15404,7 @@
         <v>44168</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15461,7 +15461,7 @@
         <v>44172</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15518,7 +15518,7 @@
         <v>44173</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15575,7 +15575,7 @@
         <v>44174</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15632,7 +15632,7 @@
         <v>44174</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15689,7 +15689,7 @@
         <v>44180</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         <v>44187</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15803,7 +15803,7 @@
         <v>44193</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>44199</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>44210</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15974,7 +15974,7 @@
         <v>44216</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16031,7 +16031,7 @@
         <v>44221</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16088,7 +16088,7 @@
         <v>44224</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16145,7 +16145,7 @@
         <v>44230</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16202,7 +16202,7 @@
         <v>44230</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16259,7 +16259,7 @@
         <v>44231</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16316,7 +16316,7 @@
         <v>44236</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16373,7 +16373,7 @@
         <v>44236</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16430,7 +16430,7 @@
         <v>44236</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16487,7 +16487,7 @@
         <v>44238</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16544,7 +16544,7 @@
         <v>44242</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16601,7 +16601,7 @@
         <v>44243</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16658,7 +16658,7 @@
         <v>44245</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16715,7 +16715,7 @@
         <v>44250</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16772,7 +16772,7 @@
         <v>44250</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16829,7 +16829,7 @@
         <v>44251</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>44256</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16943,7 +16943,7 @@
         <v>44261</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         <v>44263</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         <v>44263</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17119,7 +17119,7 @@
         <v>44266</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
         <v>44266</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17243,7 +17243,7 @@
         <v>44267</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17305,7 +17305,7 @@
         <v>44267</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17367,7 +17367,7 @@
         <v>44267</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17429,7 +17429,7 @@
         <v>44267</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17491,7 +17491,7 @@
         <v>44267</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17553,7 +17553,7 @@
         <v>44278</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17610,7 +17610,7 @@
         <v>44295</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17667,7 +17667,7 @@
         <v>44298</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17724,7 +17724,7 @@
         <v>44298</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17781,7 +17781,7 @@
         <v>44302</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
         <v>44302</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>44307</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17952,7 +17952,7 @@
         <v>44322</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18009,7 +18009,7 @@
         <v>44322</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         <v>44335</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18123,7 +18123,7 @@
         <v>44336</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18180,7 +18180,7 @@
         <v>44340</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>44356</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18294,7 +18294,7 @@
         <v>44356</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18351,7 +18351,7 @@
         <v>44357</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
         <v>44357</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18470,7 +18470,7 @@
         <v>44363</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18527,7 +18527,7 @@
         <v>44365</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18584,7 +18584,7 @@
         <v>44371</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18641,7 +18641,7 @@
         <v>44371</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18698,7 +18698,7 @@
         <v>44375</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18755,7 +18755,7 @@
         <v>44378</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18812,7 +18812,7 @@
         <v>44384</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18869,7 +18869,7 @@
         <v>44389</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18926,7 +18926,7 @@
         <v>44407</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18983,7 +18983,7 @@
         <v>44427</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19040,7 +19040,7 @@
         <v>44442</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19097,7 +19097,7 @@
         <v>44448</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19154,7 +19154,7 @@
         <v>44454</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19211,7 +19211,7 @@
         <v>44454</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19268,7 +19268,7 @@
         <v>44454</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19325,7 +19325,7 @@
         <v>44455</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19382,7 +19382,7 @@
         <v>44469</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19439,7 +19439,7 @@
         <v>44475</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19496,7 +19496,7 @@
         <v>44476</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19553,7 +19553,7 @@
         <v>44477</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19610,7 +19610,7 @@
         <v>44477</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19667,7 +19667,7 @@
         <v>44480</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19724,7 +19724,7 @@
         <v>44481</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19781,7 +19781,7 @@
         <v>44482</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19838,7 +19838,7 @@
         <v>44483</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19895,7 +19895,7 @@
         <v>44483</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -19952,7 +19952,7 @@
         <v>44487</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20014,7 +20014,7 @@
         <v>44487</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20076,7 +20076,7 @@
         <v>44488</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         <v>44489</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20190,7 +20190,7 @@
         <v>44489</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20247,7 +20247,7 @@
         <v>44489</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20304,7 +20304,7 @@
         <v>44501</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20361,7 +20361,7 @@
         <v>44502</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20418,7 +20418,7 @@
         <v>44508</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20475,7 +20475,7 @@
         <v>44510</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20532,7 +20532,7 @@
         <v>44515</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20594,7 +20594,7 @@
         <v>44529</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20651,7 +20651,7 @@
         <v>44530</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20708,7 +20708,7 @@
         <v>44557</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20765,7 +20765,7 @@
         <v>44559</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20822,7 +20822,7 @@
         <v>44559</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20879,7 +20879,7 @@
         <v>44573</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -20936,7 +20936,7 @@
         <v>44573</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -20993,7 +20993,7 @@
         <v>44575</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21050,7 +21050,7 @@
         <v>44592</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21107,7 +21107,7 @@
         <v>44592</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21164,7 +21164,7 @@
         <v>44596</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21226,7 +21226,7 @@
         <v>44600</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
         <v>44607</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>44613</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21397,7 +21397,7 @@
         <v>44621</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44631</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44634</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44637</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>44644</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21687,7 +21687,7 @@
         <v>44655</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         <v>44659</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21806,7 +21806,7 @@
         <v>44659</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>44659</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>44659</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -21987,7 +21987,7 @@
         <v>44671</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>44671</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>44693</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>44697</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>44711</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>44712</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>44714</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>44714</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22448,7 +22448,7 @@
         <v>44719</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22505,7 +22505,7 @@
         <v>44735</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22562,7 +22562,7 @@
         <v>44735</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22619,7 +22619,7 @@
         <v>44735</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22676,7 +22676,7 @@
         <v>44753</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22733,7 +22733,7 @@
         <v>44756</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22790,7 +22790,7 @@
         <v>44756</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22847,7 +22847,7 @@
         <v>44762</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -22904,7 +22904,7 @@
         <v>44778</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -22961,7 +22961,7 @@
         <v>44778</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23018,7 +23018,7 @@
         <v>44778</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23075,7 +23075,7 @@
         <v>44817</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23132,7 +23132,7 @@
         <v>44823</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23189,7 +23189,7 @@
         <v>44830</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23246,7 +23246,7 @@
         <v>44830</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23303,7 +23303,7 @@
         <v>44845</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23360,7 +23360,7 @@
         <v>44847</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23417,7 +23417,7 @@
         <v>44847</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23474,7 +23474,7 @@
         <v>44847</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23531,7 +23531,7 @@
         <v>44865</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23588,7 +23588,7 @@
         <v>44865</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23645,7 +23645,7 @@
         <v>44868</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23702,7 +23702,7 @@
         <v>44869</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23759,7 +23759,7 @@
         <v>44872</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23816,7 +23816,7 @@
         <v>44873</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -23873,7 +23873,7 @@
         <v>44876</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -23930,7 +23930,7 @@
         <v>44887</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -23987,7 +23987,7 @@
         <v>44889</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24044,7 +24044,7 @@
         <v>44893</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24101,7 +24101,7 @@
         <v>44900</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24158,7 +24158,7 @@
         <v>44900</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24215,7 +24215,7 @@
         <v>44900</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24272,7 +24272,7 @@
         <v>44900</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24329,7 +24329,7 @@
         <v>44903</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         <v>44903</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24443,7 +24443,7 @@
         <v>44926</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24505,7 +24505,7 @@
         <v>44951</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24562,7 +24562,7 @@
         <v>44964</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24619,7 +24619,7 @@
         <v>44964</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24676,7 +24676,7 @@
         <v>44970</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24733,7 +24733,7 @@
         <v>44970</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24790,7 +24790,7 @@
         <v>44974</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -24847,7 +24847,7 @@
         <v>44974</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -24904,7 +24904,7 @@
         <v>44974</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -24961,7 +24961,7 @@
         <v>44980</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25018,7 +25018,7 @@
         <v>44999</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         <v>45013</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25132,7 +25132,7 @@
         <v>45019</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25189,7 +25189,7 @@
         <v>45019</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25246,7 +25246,7 @@
         <v>45020</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25303,7 +25303,7 @@
         <v>45030</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25365,7 +25365,7 @@
         <v>45037</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25422,7 +25422,7 @@
         <v>45040</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25479,7 +25479,7 @@
         <v>45044</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25536,7 +25536,7 @@
         <v>45058</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25593,7 +25593,7 @@
         <v>45061</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25650,7 +25650,7 @@
         <v>45062</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25707,7 +25707,7 @@
         <v>45063</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25764,7 +25764,7 @@
         <v>45070</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25821,7 +25821,7 @@
         <v>45070</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -25878,7 +25878,7 @@
         <v>45070</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -25935,7 +25935,7 @@
         <v>45075</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -25992,7 +25992,7 @@
         <v>45084</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26049,7 +26049,7 @@
         <v>45084</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26106,7 +26106,7 @@
         <v>45089</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26163,7 +26163,7 @@
         <v>45091</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26220,7 +26220,7 @@
         <v>45092</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26277,7 +26277,7 @@
         <v>45092</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26334,7 +26334,7 @@
         <v>45097</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26391,7 +26391,7 @@
         <v>45097</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26448,7 +26448,7 @@
         <v>45097</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26505,7 +26505,7 @@
         <v>45097</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26562,7 +26562,7 @@
         <v>45099</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26619,7 +26619,7 @@
         <v>45109</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26676,7 +26676,7 @@
         <v>45109</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26733,7 +26733,7 @@
         <v>45110</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26790,7 +26790,7 @@
         <v>45110</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -26847,7 +26847,7 @@
         <v>45114</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -26904,7 +26904,7 @@
         <v>45117</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -26961,7 +26961,7 @@
         <v>45128</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27018,7 +27018,7 @@
         <v>45131</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27075,7 +27075,7 @@
         <v>45145</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27132,7 +27132,7 @@
         <v>45149</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27189,7 +27189,7 @@
         <v>45153</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27251,7 +27251,7 @@
         <v>45153</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27308,7 +27308,7 @@
         <v>45154</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27365,7 +27365,7 @@
         <v>45155</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27422,7 +27422,7 @@
         <v>45162</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27479,7 +27479,7 @@
         <v>45163</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27536,7 +27536,7 @@
         <v>45167</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27593,7 +27593,7 @@
         <v>45167</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27650,7 +27650,7 @@
         <v>45170</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27707,7 +27707,7 @@
         <v>45170</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27764,7 +27764,7 @@
         <v>45181</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>

--- a/Översikt HYLTE.xlsx
+++ b/Översikt HYLTE.xlsx
@@ -572,7 +572,7 @@
         <v>43986</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44873</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43923</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43769</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>44693</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>43342</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
         <v>43467</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>43983</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         <v>44601</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         <v>43319</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1404,7 +1404,7 @@
         <v>43348</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1461,7 +1461,7 @@
         <v>43374</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1518,7 +1518,7 @@
         <v>43409</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1632,7 +1632,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1689,7 +1689,7 @@
         <v>43413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         <v>43415</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>43415</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1860,7 +1860,7 @@
         <v>43415</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         <v>43418</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1974,7 +1974,7 @@
         <v>43419</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>43420</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>43420</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>43423</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         <v>43423</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>43425</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>43431</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
         <v>43432</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>43432</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>43432</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>43432</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>43432</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>43433</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>43433</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>43433</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>43433</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>43437</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>43437</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>43437</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         <v>43437</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>43437</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>43437</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         <v>43441</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         <v>43441</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3342,7 +3342,7 @@
         <v>43445</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         <v>43447</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>43447</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>43447</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3570,7 +3570,7 @@
         <v>43454</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         <v>43467</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
         <v>43467</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3741,7 +3741,7 @@
         <v>43467</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>43467</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3855,7 +3855,7 @@
         <v>43468</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
         <v>43468</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3969,7 +3969,7 @@
         <v>43468</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4026,7 +4026,7 @@
         <v>43472</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
         <v>43472</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4140,7 +4140,7 @@
         <v>43472</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4197,7 +4197,7 @@
         <v>43472</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4254,7 +4254,7 @@
         <v>43472</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         <v>43473</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>43473</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>43473</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>43473</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         <v>43475</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
         <v>43475</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>43475</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>43476</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4767,7 +4767,7 @@
         <v>43479</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>43479</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4881,7 +4881,7 @@
         <v>43482</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4938,7 +4938,7 @@
         <v>43483</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43493</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>43503</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>43503</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>43505</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         <v>43516</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>43516</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>43516</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>43516</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>43516</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5508,7 +5508,7 @@
         <v>43521</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
         <v>43523</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         <v>43524</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5679,7 +5679,7 @@
         <v>43528</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         <v>43531</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>43535</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         <v>43536</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>43536</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>43542</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>43542</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>43542</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>43542</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>43544</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>43545</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>43545</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>43549</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>43549</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>43550</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>43550</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>43552</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>43552</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>43553</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>43557</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6824,7 +6824,7 @@
         <v>43558</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>43558</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>43563</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         <v>43564</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>43564</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>43565</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>43566</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>43570</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>43573</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>43581</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>43584</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43587</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7508,7 +7508,7 @@
         <v>43606</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7565,7 +7565,7 @@
         <v>43612</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7622,7 +7622,7 @@
         <v>43612</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7679,7 +7679,7 @@
         <v>43612</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7736,7 +7736,7 @@
         <v>43616</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         <v>43619</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7850,7 +7850,7 @@
         <v>43620</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>43620</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>43656</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8021,7 +8021,7 @@
         <v>43658</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>43663</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8135,7 +8135,7 @@
         <v>43664</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8192,7 +8192,7 @@
         <v>43665</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8249,7 +8249,7 @@
         <v>43665</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         <v>43668</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8363,7 +8363,7 @@
         <v>43668</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8420,7 +8420,7 @@
         <v>43668</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8477,7 +8477,7 @@
         <v>43668</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8534,7 +8534,7 @@
         <v>43682</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8591,7 +8591,7 @@
         <v>43682</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         <v>43682</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         <v>43682</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8762,7 +8762,7 @@
         <v>43682</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8819,7 +8819,7 @@
         <v>43689</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>43705</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8933,7 +8933,7 @@
         <v>43706</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8990,7 +8990,7 @@
         <v>43712</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9047,7 +9047,7 @@
         <v>43712</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9104,7 +9104,7 @@
         <v>43712</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9161,7 +9161,7 @@
         <v>43731</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9218,7 +9218,7 @@
         <v>43731</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9275,7 +9275,7 @@
         <v>43732</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9332,7 +9332,7 @@
         <v>43738</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9389,7 +9389,7 @@
         <v>43739</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9446,7 +9446,7 @@
         <v>43739</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>43741</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9560,7 +9560,7 @@
         <v>43742</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>43742</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>43742</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>43768</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>43770</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>43774</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>43775</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9959,7 +9959,7 @@
         <v>43775</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10016,7 +10016,7 @@
         <v>43790</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>43796</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10130,7 +10130,7 @@
         <v>43803</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10187,7 +10187,7 @@
         <v>43837</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>43837</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>43839</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10358,7 +10358,7 @@
         <v>43846</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>43850</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10472,7 +10472,7 @@
         <v>43852</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10529,7 +10529,7 @@
         <v>43854</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10586,7 +10586,7 @@
         <v>43858</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10643,7 +10643,7 @@
         <v>43859</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10705,7 +10705,7 @@
         <v>43871</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10762,7 +10762,7 @@
         <v>43871</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         <v>43875</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10876,7 +10876,7 @@
         <v>43880</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10933,7 +10933,7 @@
         <v>43880</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10990,7 +10990,7 @@
         <v>43886</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11052,7 +11052,7 @@
         <v>43901</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11109,7 +11109,7 @@
         <v>43901</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11166,7 +11166,7 @@
         <v>43901</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11223,7 +11223,7 @@
         <v>43903</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11280,7 +11280,7 @@
         <v>43908</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11337,7 +11337,7 @@
         <v>43908</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11394,7 +11394,7 @@
         <v>43913</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>43916</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11508,7 +11508,7 @@
         <v>43916</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>43927</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>43936</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>43937</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>43941</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>43943</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         <v>43943</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11907,7 +11907,7 @@
         <v>43949</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>43957</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>43957</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>43963</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>43966</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>43969</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>43983</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         <v>43983</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12363,7 +12363,7 @@
         <v>43983</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         <v>44000</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12477,7 +12477,7 @@
         <v>44007</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         <v>44019</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12591,7 +12591,7 @@
         <v>44020</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12648,7 +12648,7 @@
         <v>44020</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>44020</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12762,7 +12762,7 @@
         <v>44021</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12819,7 +12819,7 @@
         <v>44021</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12881,7 +12881,7 @@
         <v>44022</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12938,7 +12938,7 @@
         <v>44022</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12995,7 +12995,7 @@
         <v>44025</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13052,7 +13052,7 @@
         <v>44028</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13109,7 +13109,7 @@
         <v>44036</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13166,7 +13166,7 @@
         <v>44039</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13223,7 +13223,7 @@
         <v>44041</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13280,7 +13280,7 @@
         <v>44043</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13337,7 +13337,7 @@
         <v>44046</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13394,7 +13394,7 @@
         <v>44055</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13451,7 +13451,7 @@
         <v>44060</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>44062</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         <v>44088</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         <v>44092</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13679,7 +13679,7 @@
         <v>44095</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13736,7 +13736,7 @@
         <v>44095</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13793,7 +13793,7 @@
         <v>44095</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>44103</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>44107</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44107</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44122</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44122</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>44123</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>44123</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>44124</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>44132</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>44132</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>44133</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>44133</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44140</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44141</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>44144</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>44145</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>44146</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>44146</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14891,7 +14891,7 @@
         <v>44147</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>44147</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>44147</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15062,7 +15062,7 @@
         <v>44147</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>44147</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44159</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44159</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15290,7 +15290,7 @@
         <v>44162</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>44166</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15404,7 +15404,7 @@
         <v>44168</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15461,7 +15461,7 @@
         <v>44172</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15518,7 +15518,7 @@
         <v>44173</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15575,7 +15575,7 @@
         <v>44174</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15632,7 +15632,7 @@
         <v>44174</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15689,7 +15689,7 @@
         <v>44180</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         <v>44187</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15803,7 +15803,7 @@
         <v>44193</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>44199</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>44210</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15974,7 +15974,7 @@
         <v>44216</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16031,7 +16031,7 @@
         <v>44221</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16088,7 +16088,7 @@
         <v>44224</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16145,7 +16145,7 @@
         <v>44230</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16202,7 +16202,7 @@
         <v>44230</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16259,7 +16259,7 @@
         <v>44231</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16316,7 +16316,7 @@
         <v>44236</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16373,7 +16373,7 @@
         <v>44236</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16430,7 +16430,7 @@
         <v>44236</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16487,7 +16487,7 @@
         <v>44238</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16544,7 +16544,7 @@
         <v>44242</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16601,7 +16601,7 @@
         <v>44243</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16658,7 +16658,7 @@
         <v>44245</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16715,7 +16715,7 @@
         <v>44250</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16772,7 +16772,7 @@
         <v>44250</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16829,7 +16829,7 @@
         <v>44251</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>44256</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16943,7 +16943,7 @@
         <v>44261</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         <v>44263</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         <v>44263</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17119,7 +17119,7 @@
         <v>44266</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
         <v>44266</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17243,7 +17243,7 @@
         <v>44267</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17305,7 +17305,7 @@
         <v>44267</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17367,7 +17367,7 @@
         <v>44267</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17429,7 +17429,7 @@
         <v>44267</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17491,7 +17491,7 @@
         <v>44267</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17553,7 +17553,7 @@
         <v>44278</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17610,7 +17610,7 @@
         <v>44295</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17667,7 +17667,7 @@
         <v>44298</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17724,7 +17724,7 @@
         <v>44298</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17781,7 +17781,7 @@
         <v>44302</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
         <v>44302</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>44307</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17952,7 +17952,7 @@
         <v>44322</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18009,7 +18009,7 @@
         <v>44322</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         <v>44335</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18123,7 +18123,7 @@
         <v>44336</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18180,7 +18180,7 @@
         <v>44340</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>44356</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18294,7 +18294,7 @@
         <v>44356</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18351,7 +18351,7 @@
         <v>44357</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
         <v>44357</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18470,7 +18470,7 @@
         <v>44363</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18527,7 +18527,7 @@
         <v>44365</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18584,7 +18584,7 @@
         <v>44371</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18641,7 +18641,7 @@
         <v>44371</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18698,7 +18698,7 @@
         <v>44375</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18755,7 +18755,7 @@
         <v>44378</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18812,7 +18812,7 @@
         <v>44384</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18869,7 +18869,7 @@
         <v>44389</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18926,7 +18926,7 @@
         <v>44407</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18983,7 +18983,7 @@
         <v>44427</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19040,7 +19040,7 @@
         <v>44442</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19097,7 +19097,7 @@
         <v>44448</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19154,7 +19154,7 @@
         <v>44454</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19211,7 +19211,7 @@
         <v>44454</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19268,7 +19268,7 @@
         <v>44454</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19325,7 +19325,7 @@
         <v>44455</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19382,7 +19382,7 @@
         <v>44469</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19439,7 +19439,7 @@
         <v>44475</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19496,7 +19496,7 @@
         <v>44476</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19553,7 +19553,7 @@
         <v>44477</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19610,7 +19610,7 @@
         <v>44477</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19667,7 +19667,7 @@
         <v>44480</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19724,7 +19724,7 @@
         <v>44481</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19781,7 +19781,7 @@
         <v>44482</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19838,7 +19838,7 @@
         <v>44483</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19895,7 +19895,7 @@
         <v>44483</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -19952,7 +19952,7 @@
         <v>44487</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20014,7 +20014,7 @@
         <v>44487</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20076,7 +20076,7 @@
         <v>44488</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         <v>44489</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20190,7 +20190,7 @@
         <v>44489</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20247,7 +20247,7 @@
         <v>44489</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20304,7 +20304,7 @@
         <v>44501</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20361,7 +20361,7 @@
         <v>44502</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20418,7 +20418,7 @@
         <v>44508</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20475,7 +20475,7 @@
         <v>44510</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20532,7 +20532,7 @@
         <v>44515</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20594,7 +20594,7 @@
         <v>44529</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20651,7 +20651,7 @@
         <v>44530</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20708,7 +20708,7 @@
         <v>44557</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20765,7 +20765,7 @@
         <v>44559</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20822,7 +20822,7 @@
         <v>44559</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20879,7 +20879,7 @@
         <v>44573</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -20936,7 +20936,7 @@
         <v>44573</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -20993,7 +20993,7 @@
         <v>44575</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21050,7 +21050,7 @@
         <v>44592</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21107,7 +21107,7 @@
         <v>44592</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21164,7 +21164,7 @@
         <v>44596</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21226,7 +21226,7 @@
         <v>44600</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
         <v>44607</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>44613</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21397,7 +21397,7 @@
         <v>44621</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44631</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44634</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44637</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>44644</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21687,7 +21687,7 @@
         <v>44655</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         <v>44659</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21806,7 +21806,7 @@
         <v>44659</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>44659</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>44659</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -21987,7 +21987,7 @@
         <v>44671</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>44671</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>44693</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>44697</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>44711</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>44712</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>44714</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>44714</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22448,7 +22448,7 @@
         <v>44719</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22505,7 +22505,7 @@
         <v>44735</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22562,7 +22562,7 @@
         <v>44735</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22619,7 +22619,7 @@
         <v>44735</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22676,7 +22676,7 @@
         <v>44753</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22733,7 +22733,7 @@
         <v>44756</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22790,7 +22790,7 @@
         <v>44756</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22847,7 +22847,7 @@
         <v>44762</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -22904,7 +22904,7 @@
         <v>44778</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -22961,7 +22961,7 @@
         <v>44778</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23018,7 +23018,7 @@
         <v>44778</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23075,7 +23075,7 @@
         <v>44817</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23132,7 +23132,7 @@
         <v>44823</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23189,7 +23189,7 @@
         <v>44830</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23246,7 +23246,7 @@
         <v>44830</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23303,7 +23303,7 @@
         <v>44845</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23360,7 +23360,7 @@
         <v>44847</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23417,7 +23417,7 @@
         <v>44847</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23474,7 +23474,7 @@
         <v>44847</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23531,7 +23531,7 @@
         <v>44865</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23588,7 +23588,7 @@
         <v>44865</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23645,7 +23645,7 @@
         <v>44868</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23702,7 +23702,7 @@
         <v>44869</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23759,7 +23759,7 @@
         <v>44872</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23816,7 +23816,7 @@
         <v>44873</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -23873,7 +23873,7 @@
         <v>44876</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -23930,7 +23930,7 @@
         <v>44887</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -23987,7 +23987,7 @@
         <v>44889</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24044,7 +24044,7 @@
         <v>44893</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24101,7 +24101,7 @@
         <v>44900</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24158,7 +24158,7 @@
         <v>44900</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24215,7 +24215,7 @@
         <v>44900</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24272,7 +24272,7 @@
         <v>44900</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24329,7 +24329,7 @@
         <v>44903</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         <v>44903</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24443,7 +24443,7 @@
         <v>44926</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24505,7 +24505,7 @@
         <v>44951</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24562,7 +24562,7 @@
         <v>44964</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24619,7 +24619,7 @@
         <v>44964</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24676,7 +24676,7 @@
         <v>44970</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24733,7 +24733,7 @@
         <v>44970</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24790,7 +24790,7 @@
         <v>44974</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -24847,7 +24847,7 @@
         <v>44974</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -24904,7 +24904,7 @@
         <v>44974</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -24961,7 +24961,7 @@
         <v>44980</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25018,7 +25018,7 @@
         <v>44999</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         <v>45013</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25132,7 +25132,7 @@
         <v>45019</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25189,7 +25189,7 @@
         <v>45019</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25246,7 +25246,7 @@
         <v>45020</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25303,7 +25303,7 @@
         <v>45030</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25365,7 +25365,7 @@
         <v>45037</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25422,7 +25422,7 @@
         <v>45040</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25479,7 +25479,7 @@
         <v>45044</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25536,7 +25536,7 @@
         <v>45058</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25593,7 +25593,7 @@
         <v>45061</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25650,7 +25650,7 @@
         <v>45062</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25707,7 +25707,7 @@
         <v>45063</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25764,7 +25764,7 @@
         <v>45070</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25821,7 +25821,7 @@
         <v>45070</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -25878,7 +25878,7 @@
         <v>45070</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -25935,7 +25935,7 @@
         <v>45075</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -25992,7 +25992,7 @@
         <v>45084</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26049,7 +26049,7 @@
         <v>45084</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26106,7 +26106,7 @@
         <v>45089</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26163,7 +26163,7 @@
         <v>45091</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26220,7 +26220,7 @@
         <v>45092</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26277,7 +26277,7 @@
         <v>45092</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26334,7 +26334,7 @@
         <v>45097</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26391,7 +26391,7 @@
         <v>45097</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26448,7 +26448,7 @@
         <v>45097</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26505,7 +26505,7 @@
         <v>45097</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26562,7 +26562,7 @@
         <v>45099</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26619,7 +26619,7 @@
         <v>45109</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26676,7 +26676,7 @@
         <v>45109</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26733,7 +26733,7 @@
         <v>45110</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26790,7 +26790,7 @@
         <v>45110</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -26847,7 +26847,7 @@
         <v>45114</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -26904,7 +26904,7 @@
         <v>45117</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -26961,7 +26961,7 @@
         <v>45128</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27018,7 +27018,7 @@
         <v>45131</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27075,7 +27075,7 @@
         <v>45145</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27132,7 +27132,7 @@
         <v>45149</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27189,7 +27189,7 @@
         <v>45153</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27251,7 +27251,7 @@
         <v>45153</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27308,7 +27308,7 @@
         <v>45154</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27365,7 +27365,7 @@
         <v>45155</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27422,7 +27422,7 @@
         <v>45162</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27479,7 +27479,7 @@
         <v>45163</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27536,7 +27536,7 @@
         <v>45167</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27593,7 +27593,7 @@
         <v>45167</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27650,7 +27650,7 @@
         <v>45170</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27707,7 +27707,7 @@
         <v>45170</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27764,7 +27764,7 @@
         <v>45181</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>

--- a/Översikt HYLTE.xlsx
+++ b/Översikt HYLTE.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y472"/>
+  <dimension ref="A1:Y473"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43986</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44873</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43923</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43769</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>44693</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>43342</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
         <v>43467</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>43983</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         <v>44601</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         <v>43319</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1404,7 +1404,7 @@
         <v>43348</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1461,7 +1461,7 @@
         <v>43374</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1518,7 +1518,7 @@
         <v>43409</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1632,7 +1632,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1689,7 +1689,7 @@
         <v>43413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         <v>43415</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>43415</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1860,7 +1860,7 @@
         <v>43415</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         <v>43418</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1974,7 +1974,7 @@
         <v>43419</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>43420</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>43420</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>43423</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         <v>43423</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>43425</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>43431</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
         <v>43432</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>43432</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>43432</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>43432</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>43432</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>43433</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>43433</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>43433</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>43433</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>43437</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>43437</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>43437</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         <v>43437</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>43437</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>43437</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         <v>43441</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         <v>43441</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3342,7 +3342,7 @@
         <v>43445</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         <v>43447</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>43447</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>43447</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3570,7 +3570,7 @@
         <v>43454</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         <v>43467</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
         <v>43467</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3741,7 +3741,7 @@
         <v>43467</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>43467</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3855,7 +3855,7 @@
         <v>43468</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
         <v>43468</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3969,7 +3969,7 @@
         <v>43468</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4026,7 +4026,7 @@
         <v>43472</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
         <v>43472</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4140,7 +4140,7 @@
         <v>43472</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4197,7 +4197,7 @@
         <v>43472</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4254,7 +4254,7 @@
         <v>43472</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         <v>43473</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>43473</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>43473</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>43473</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         <v>43475</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
         <v>43475</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>43475</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>43476</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4767,7 +4767,7 @@
         <v>43479</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>43479</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4881,7 +4881,7 @@
         <v>43482</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4938,7 +4938,7 @@
         <v>43483</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43493</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>43503</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>43503</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>43505</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         <v>43516</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>43516</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>43516</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>43516</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>43516</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5508,7 +5508,7 @@
         <v>43521</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
         <v>43523</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         <v>43524</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5679,7 +5679,7 @@
         <v>43528</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         <v>43531</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>43535</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         <v>43536</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>43536</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>43542</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>43542</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>43542</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>43542</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>43544</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>43545</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>43545</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>43549</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>43549</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>43550</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>43550</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>43552</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>43552</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>43553</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>43557</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6824,7 +6824,7 @@
         <v>43558</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>43558</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>43563</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         <v>43564</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>43564</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>43565</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>43566</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>43570</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>43573</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>43581</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>43584</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43587</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7508,7 +7508,7 @@
         <v>43606</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7565,7 +7565,7 @@
         <v>43612</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7622,7 +7622,7 @@
         <v>43612</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7679,7 +7679,7 @@
         <v>43612</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7736,7 +7736,7 @@
         <v>43616</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         <v>43619</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7850,7 +7850,7 @@
         <v>43620</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>43620</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>43656</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8021,7 +8021,7 @@
         <v>43658</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>43663</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8135,7 +8135,7 @@
         <v>43664</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8192,7 +8192,7 @@
         <v>43665</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8249,7 +8249,7 @@
         <v>43665</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         <v>43668</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8363,7 +8363,7 @@
         <v>43668</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8420,7 +8420,7 @@
         <v>43668</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8477,7 +8477,7 @@
         <v>43668</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8534,7 +8534,7 @@
         <v>43682</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8591,7 +8591,7 @@
         <v>43682</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         <v>43682</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         <v>43682</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8762,7 +8762,7 @@
         <v>43682</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8819,7 +8819,7 @@
         <v>43689</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>43705</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8933,7 +8933,7 @@
         <v>43706</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8990,7 +8990,7 @@
         <v>43712</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9047,7 +9047,7 @@
         <v>43712</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9104,7 +9104,7 @@
         <v>43712</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9161,7 +9161,7 @@
         <v>43731</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9218,7 +9218,7 @@
         <v>43731</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9275,7 +9275,7 @@
         <v>43732</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9332,7 +9332,7 @@
         <v>43738</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9389,7 +9389,7 @@
         <v>43739</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9446,7 +9446,7 @@
         <v>43739</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>43741</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9560,7 +9560,7 @@
         <v>43742</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>43742</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>43742</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>43768</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>43770</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>43774</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>43775</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9959,7 +9959,7 @@
         <v>43775</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10016,7 +10016,7 @@
         <v>43790</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>43796</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10130,7 +10130,7 @@
         <v>43803</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10187,7 +10187,7 @@
         <v>43837</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>43837</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>43839</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10358,7 +10358,7 @@
         <v>43846</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>43850</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10472,7 +10472,7 @@
         <v>43852</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10529,7 +10529,7 @@
         <v>43854</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10586,7 +10586,7 @@
         <v>43858</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10643,7 +10643,7 @@
         <v>43859</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10705,7 +10705,7 @@
         <v>43871</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10762,7 +10762,7 @@
         <v>43871</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         <v>43875</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10876,7 +10876,7 @@
         <v>43880</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10933,7 +10933,7 @@
         <v>43880</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10990,7 +10990,7 @@
         <v>43886</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11052,7 +11052,7 @@
         <v>43901</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11109,7 +11109,7 @@
         <v>43901</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11166,7 +11166,7 @@
         <v>43901</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11223,7 +11223,7 @@
         <v>43903</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11280,7 +11280,7 @@
         <v>43908</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11337,7 +11337,7 @@
         <v>43908</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11394,7 +11394,7 @@
         <v>43913</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>43916</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11508,7 +11508,7 @@
         <v>43916</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>43927</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>43936</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>43937</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>43941</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>43943</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         <v>43943</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11907,7 +11907,7 @@
         <v>43949</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>43957</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>43957</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>43963</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>43966</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>43969</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>43983</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         <v>43983</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12363,7 +12363,7 @@
         <v>43983</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         <v>44000</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12477,7 +12477,7 @@
         <v>44007</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         <v>44019</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12591,7 +12591,7 @@
         <v>44020</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12648,7 +12648,7 @@
         <v>44020</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>44020</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12762,7 +12762,7 @@
         <v>44021</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12819,7 +12819,7 @@
         <v>44021</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12881,7 +12881,7 @@
         <v>44022</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12938,7 +12938,7 @@
         <v>44022</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12995,7 +12995,7 @@
         <v>44025</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13052,7 +13052,7 @@
         <v>44028</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13109,7 +13109,7 @@
         <v>44036</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13166,7 +13166,7 @@
         <v>44039</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13223,7 +13223,7 @@
         <v>44041</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13280,7 +13280,7 @@
         <v>44043</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13337,7 +13337,7 @@
         <v>44046</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13394,7 +13394,7 @@
         <v>44055</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13451,7 +13451,7 @@
         <v>44060</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>44062</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         <v>44088</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         <v>44092</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13679,7 +13679,7 @@
         <v>44095</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13736,7 +13736,7 @@
         <v>44095</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13793,7 +13793,7 @@
         <v>44095</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>44103</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>44107</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44107</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44122</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44122</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>44123</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>44123</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>44124</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>44132</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>44132</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>44133</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>44133</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44140</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44141</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>44144</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>44145</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>44146</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>44146</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14891,7 +14891,7 @@
         <v>44147</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>44147</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>44147</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15062,7 +15062,7 @@
         <v>44147</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>44147</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44159</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44159</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15290,7 +15290,7 @@
         <v>44162</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>44166</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15404,7 +15404,7 @@
         <v>44168</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15461,7 +15461,7 @@
         <v>44172</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15518,7 +15518,7 @@
         <v>44173</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15575,7 +15575,7 @@
         <v>44174</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15632,7 +15632,7 @@
         <v>44174</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15689,7 +15689,7 @@
         <v>44180</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         <v>44187</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15803,7 +15803,7 @@
         <v>44193</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>44199</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>44210</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15974,7 +15974,7 @@
         <v>44216</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16031,7 +16031,7 @@
         <v>44221</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16088,7 +16088,7 @@
         <v>44224</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16145,7 +16145,7 @@
         <v>44230</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16202,7 +16202,7 @@
         <v>44230</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16259,7 +16259,7 @@
         <v>44231</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16316,7 +16316,7 @@
         <v>44236</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16373,7 +16373,7 @@
         <v>44236</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16430,7 +16430,7 @@
         <v>44236</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16487,7 +16487,7 @@
         <v>44238</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16544,7 +16544,7 @@
         <v>44242</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16601,7 +16601,7 @@
         <v>44243</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16658,7 +16658,7 @@
         <v>44245</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16715,7 +16715,7 @@
         <v>44250</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16772,7 +16772,7 @@
         <v>44250</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16829,7 +16829,7 @@
         <v>44251</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>44256</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16943,7 +16943,7 @@
         <v>44261</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         <v>44263</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         <v>44263</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17119,7 +17119,7 @@
         <v>44266</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
         <v>44266</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17243,7 +17243,7 @@
         <v>44267</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17305,7 +17305,7 @@
         <v>44267</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17367,7 +17367,7 @@
         <v>44267</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17429,7 +17429,7 @@
         <v>44267</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17491,7 +17491,7 @@
         <v>44267</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17553,7 +17553,7 @@
         <v>44278</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17610,7 +17610,7 @@
         <v>44295</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17667,7 +17667,7 @@
         <v>44298</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17724,7 +17724,7 @@
         <v>44298</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17781,7 +17781,7 @@
         <v>44302</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
         <v>44302</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>44307</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17952,7 +17952,7 @@
         <v>44322</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18009,7 +18009,7 @@
         <v>44322</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         <v>44335</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18123,7 +18123,7 @@
         <v>44336</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18180,7 +18180,7 @@
         <v>44340</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>44356</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18294,7 +18294,7 @@
         <v>44356</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18351,7 +18351,7 @@
         <v>44357</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
         <v>44357</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18470,7 +18470,7 @@
         <v>44363</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18527,7 +18527,7 @@
         <v>44365</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18584,7 +18584,7 @@
         <v>44371</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18641,7 +18641,7 @@
         <v>44371</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18698,7 +18698,7 @@
         <v>44375</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18755,7 +18755,7 @@
         <v>44378</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18812,7 +18812,7 @@
         <v>44384</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18869,7 +18869,7 @@
         <v>44389</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18926,7 +18926,7 @@
         <v>44407</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18983,7 +18983,7 @@
         <v>44427</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19040,7 +19040,7 @@
         <v>44442</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19097,7 +19097,7 @@
         <v>44448</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19154,7 +19154,7 @@
         <v>44454</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19211,7 +19211,7 @@
         <v>44454</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19268,7 +19268,7 @@
         <v>44454</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19325,7 +19325,7 @@
         <v>44455</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19382,7 +19382,7 @@
         <v>44469</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19439,7 +19439,7 @@
         <v>44475</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19496,7 +19496,7 @@
         <v>44476</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19553,7 +19553,7 @@
         <v>44477</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19610,7 +19610,7 @@
         <v>44477</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19667,7 +19667,7 @@
         <v>44480</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19724,7 +19724,7 @@
         <v>44481</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19781,7 +19781,7 @@
         <v>44482</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19838,7 +19838,7 @@
         <v>44483</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19895,7 +19895,7 @@
         <v>44483</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -19952,7 +19952,7 @@
         <v>44487</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20014,7 +20014,7 @@
         <v>44487</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20076,7 +20076,7 @@
         <v>44488</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         <v>44489</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20190,7 +20190,7 @@
         <v>44489</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20247,7 +20247,7 @@
         <v>44489</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20304,7 +20304,7 @@
         <v>44501</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20361,7 +20361,7 @@
         <v>44502</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20418,7 +20418,7 @@
         <v>44508</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20475,7 +20475,7 @@
         <v>44510</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20532,7 +20532,7 @@
         <v>44515</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20594,7 +20594,7 @@
         <v>44529</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20651,7 +20651,7 @@
         <v>44530</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20708,7 +20708,7 @@
         <v>44557</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20765,7 +20765,7 @@
         <v>44559</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20822,7 +20822,7 @@
         <v>44559</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20879,7 +20879,7 @@
         <v>44573</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -20936,7 +20936,7 @@
         <v>44573</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -20993,7 +20993,7 @@
         <v>44575</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21050,7 +21050,7 @@
         <v>44592</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21107,7 +21107,7 @@
         <v>44592</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21164,7 +21164,7 @@
         <v>44596</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21226,7 +21226,7 @@
         <v>44600</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
         <v>44607</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>44613</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21397,7 +21397,7 @@
         <v>44621</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44631</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44634</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44637</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>44644</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21687,7 +21687,7 @@
         <v>44655</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         <v>44659</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21806,7 +21806,7 @@
         <v>44659</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>44659</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>44659</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -21987,7 +21987,7 @@
         <v>44671</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>44671</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>44693</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>44697</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>44711</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>44712</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>44714</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>44714</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22448,7 +22448,7 @@
         <v>44719</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22505,7 +22505,7 @@
         <v>44735</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22562,7 +22562,7 @@
         <v>44735</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22619,7 +22619,7 @@
         <v>44735</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22676,7 +22676,7 @@
         <v>44753</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22733,7 +22733,7 @@
         <v>44756</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22790,7 +22790,7 @@
         <v>44756</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22847,7 +22847,7 @@
         <v>44762</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -22904,7 +22904,7 @@
         <v>44778</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -22961,7 +22961,7 @@
         <v>44778</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23018,7 +23018,7 @@
         <v>44778</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23075,7 +23075,7 @@
         <v>44817</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23132,7 +23132,7 @@
         <v>44823</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23189,7 +23189,7 @@
         <v>44830</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23246,7 +23246,7 @@
         <v>44830</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23303,7 +23303,7 @@
         <v>44845</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23360,7 +23360,7 @@
         <v>44847</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23417,7 +23417,7 @@
         <v>44847</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23474,7 +23474,7 @@
         <v>44847</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23531,7 +23531,7 @@
         <v>44865</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23588,7 +23588,7 @@
         <v>44865</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23645,7 +23645,7 @@
         <v>44868</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23702,7 +23702,7 @@
         <v>44869</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23759,7 +23759,7 @@
         <v>44872</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23816,7 +23816,7 @@
         <v>44873</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -23873,7 +23873,7 @@
         <v>44876</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -23930,7 +23930,7 @@
         <v>44887</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -23987,7 +23987,7 @@
         <v>44889</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24044,7 +24044,7 @@
         <v>44893</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24101,7 +24101,7 @@
         <v>44900</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24158,7 +24158,7 @@
         <v>44900</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24215,7 +24215,7 @@
         <v>44900</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24272,7 +24272,7 @@
         <v>44900</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24329,7 +24329,7 @@
         <v>44903</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         <v>44903</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24443,7 +24443,7 @@
         <v>44926</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24505,7 +24505,7 @@
         <v>44951</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24562,7 +24562,7 @@
         <v>44964</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24619,7 +24619,7 @@
         <v>44964</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24676,7 +24676,7 @@
         <v>44970</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24733,7 +24733,7 @@
         <v>44970</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24790,7 +24790,7 @@
         <v>44974</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -24847,7 +24847,7 @@
         <v>44974</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -24904,7 +24904,7 @@
         <v>44974</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -24961,7 +24961,7 @@
         <v>44980</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25018,7 +25018,7 @@
         <v>44999</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         <v>45013</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25132,7 +25132,7 @@
         <v>45019</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25189,7 +25189,7 @@
         <v>45019</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25246,7 +25246,7 @@
         <v>45020</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25303,7 +25303,7 @@
         <v>45030</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25365,7 +25365,7 @@
         <v>45037</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25422,7 +25422,7 @@
         <v>45040</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25479,7 +25479,7 @@
         <v>45044</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25536,7 +25536,7 @@
         <v>45058</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25593,7 +25593,7 @@
         <v>45061</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25650,7 +25650,7 @@
         <v>45062</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25707,7 +25707,7 @@
         <v>45063</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25764,7 +25764,7 @@
         <v>45070</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25821,7 +25821,7 @@
         <v>45070</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -25878,7 +25878,7 @@
         <v>45070</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -25935,7 +25935,7 @@
         <v>45075</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -25992,7 +25992,7 @@
         <v>45084</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26049,7 +26049,7 @@
         <v>45084</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26106,7 +26106,7 @@
         <v>45089</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26163,7 +26163,7 @@
         <v>45091</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26220,7 +26220,7 @@
         <v>45092</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26277,7 +26277,7 @@
         <v>45092</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26334,7 +26334,7 @@
         <v>45097</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26391,7 +26391,7 @@
         <v>45097</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26448,7 +26448,7 @@
         <v>45097</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26505,7 +26505,7 @@
         <v>45097</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26562,7 +26562,7 @@
         <v>45099</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26619,7 +26619,7 @@
         <v>45109</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26676,7 +26676,7 @@
         <v>45109</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26733,7 +26733,7 @@
         <v>45110</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26790,7 +26790,7 @@
         <v>45110</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -26847,7 +26847,7 @@
         <v>45114</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -26904,7 +26904,7 @@
         <v>45117</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -26961,7 +26961,7 @@
         <v>45128</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27018,7 +27018,7 @@
         <v>45131</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27075,7 +27075,7 @@
         <v>45145</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27132,7 +27132,7 @@
         <v>45149</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27189,7 +27189,7 @@
         <v>45153</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27251,7 +27251,7 @@
         <v>45153</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27308,7 +27308,7 @@
         <v>45154</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27365,7 +27365,7 @@
         <v>45155</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27422,7 +27422,7 @@
         <v>45162</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27479,7 +27479,7 @@
         <v>45163</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27536,7 +27536,7 @@
         <v>45167</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27593,7 +27593,7 @@
         <v>45167</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27650,7 +27650,7 @@
         <v>45170</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27707,7 +27707,7 @@
         <v>45170</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27754,7 +27754,7 @@
       </c>
       <c r="R471" s="2" t="inlineStr"/>
     </row>
-    <row r="472">
+    <row r="472" ht="15" customHeight="1">
       <c r="A472" t="inlineStr">
         <is>
           <t>A 42653-2023</t>
@@ -27764,7 +27764,7 @@
         <v>45181</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -27810,6 +27810,63 @@
         <v>0</v>
       </c>
       <c r="R472" s="2" t="inlineStr"/>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>A 47998-2023</t>
+        </is>
+      </c>
+      <c r="B473" s="1" t="n">
+        <v>45204</v>
+      </c>
+      <c r="C473" s="1" t="n">
+        <v>45206</v>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>HALLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>HYLTE</t>
+        </is>
+      </c>
+      <c r="G473" t="n">
+        <v>1</v>
+      </c>
+      <c r="H473" t="n">
+        <v>0</v>
+      </c>
+      <c r="I473" t="n">
+        <v>0</v>
+      </c>
+      <c r="J473" t="n">
+        <v>0</v>
+      </c>
+      <c r="K473" t="n">
+        <v>0</v>
+      </c>
+      <c r="L473" t="n">
+        <v>0</v>
+      </c>
+      <c r="M473" t="n">
+        <v>0</v>
+      </c>
+      <c r="N473" t="n">
+        <v>0</v>
+      </c>
+      <c r="O473" t="n">
+        <v>0</v>
+      </c>
+      <c r="P473" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q473" t="n">
+        <v>0</v>
+      </c>
+      <c r="R473" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt HYLTE.xlsx
+++ b/Översikt HYLTE.xlsx
@@ -572,7 +572,7 @@
         <v>43986</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44873</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43923</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43769</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>44693</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>43342</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
         <v>43467</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>43983</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         <v>44601</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         <v>43319</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1404,7 +1404,7 @@
         <v>43348</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1461,7 +1461,7 @@
         <v>43374</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1518,7 +1518,7 @@
         <v>43409</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1632,7 +1632,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1689,7 +1689,7 @@
         <v>43413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         <v>43415</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>43415</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1860,7 +1860,7 @@
         <v>43415</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         <v>43418</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1974,7 +1974,7 @@
         <v>43419</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>43420</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>43420</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>43423</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         <v>43423</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>43425</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>43431</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
         <v>43432</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>43432</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>43432</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>43432</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>43432</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>43433</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>43433</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>43433</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>43433</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>43437</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>43437</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>43437</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         <v>43437</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>43437</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>43437</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         <v>43441</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         <v>43441</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3342,7 +3342,7 @@
         <v>43445</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         <v>43447</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>43447</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>43447</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3570,7 +3570,7 @@
         <v>43454</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         <v>43467</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
         <v>43467</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3741,7 +3741,7 @@
         <v>43467</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>43467</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3855,7 +3855,7 @@
         <v>43468</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
         <v>43468</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3969,7 +3969,7 @@
         <v>43468</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4026,7 +4026,7 @@
         <v>43472</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
         <v>43472</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4140,7 +4140,7 @@
         <v>43472</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4197,7 +4197,7 @@
         <v>43472</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4254,7 +4254,7 @@
         <v>43472</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         <v>43473</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>43473</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>43473</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>43473</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         <v>43475</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
         <v>43475</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>43475</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>43476</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4767,7 +4767,7 @@
         <v>43479</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>43479</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4881,7 +4881,7 @@
         <v>43482</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4938,7 +4938,7 @@
         <v>43483</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43493</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>43503</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>43503</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>43505</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         <v>43516</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>43516</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>43516</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>43516</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>43516</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5508,7 +5508,7 @@
         <v>43521</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
         <v>43523</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         <v>43524</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5679,7 +5679,7 @@
         <v>43528</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         <v>43531</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>43535</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         <v>43536</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>43536</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>43542</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>43542</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>43542</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>43542</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>43544</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>43545</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>43545</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>43549</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>43549</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>43550</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>43550</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>43552</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>43552</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>43553</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>43557</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6824,7 +6824,7 @@
         <v>43558</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>43558</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>43563</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         <v>43564</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>43564</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>43565</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>43566</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>43570</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>43573</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>43581</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>43584</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43587</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7508,7 +7508,7 @@
         <v>43606</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7565,7 +7565,7 @@
         <v>43612</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7622,7 +7622,7 @@
         <v>43612</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7679,7 +7679,7 @@
         <v>43612</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7736,7 +7736,7 @@
         <v>43616</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         <v>43619</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7850,7 +7850,7 @@
         <v>43620</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>43620</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>43656</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8021,7 +8021,7 @@
         <v>43658</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>43663</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8135,7 +8135,7 @@
         <v>43664</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8192,7 +8192,7 @@
         <v>43665</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8249,7 +8249,7 @@
         <v>43665</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         <v>43668</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8363,7 +8363,7 @@
         <v>43668</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8420,7 +8420,7 @@
         <v>43668</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8477,7 +8477,7 @@
         <v>43668</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8534,7 +8534,7 @@
         <v>43682</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8591,7 +8591,7 @@
         <v>43682</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         <v>43682</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         <v>43682</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8762,7 +8762,7 @@
         <v>43682</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8819,7 +8819,7 @@
         <v>43689</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>43705</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8933,7 +8933,7 @@
         <v>43706</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8990,7 +8990,7 @@
         <v>43712</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9047,7 +9047,7 @@
         <v>43712</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9104,7 +9104,7 @@
         <v>43712</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9161,7 +9161,7 @@
         <v>43731</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9218,7 +9218,7 @@
         <v>43731</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9275,7 +9275,7 @@
         <v>43732</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9332,7 +9332,7 @@
         <v>43738</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9389,7 +9389,7 @@
         <v>43739</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9446,7 +9446,7 @@
         <v>43739</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>43741</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9560,7 +9560,7 @@
         <v>43742</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>43742</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>43742</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>43768</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>43770</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>43774</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>43775</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9959,7 +9959,7 @@
         <v>43775</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10016,7 +10016,7 @@
         <v>43790</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>43796</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10130,7 +10130,7 @@
         <v>43803</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10187,7 +10187,7 @@
         <v>43837</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>43837</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>43839</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10358,7 +10358,7 @@
         <v>43846</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>43850</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10472,7 +10472,7 @@
         <v>43852</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10529,7 +10529,7 @@
         <v>43854</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10586,7 +10586,7 @@
         <v>43858</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10643,7 +10643,7 @@
         <v>43859</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10705,7 +10705,7 @@
         <v>43871</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10762,7 +10762,7 @@
         <v>43871</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         <v>43875</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10876,7 +10876,7 @@
         <v>43880</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10933,7 +10933,7 @@
         <v>43880</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10990,7 +10990,7 @@
         <v>43886</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11052,7 +11052,7 @@
         <v>43901</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11109,7 +11109,7 @@
         <v>43901</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11166,7 +11166,7 @@
         <v>43901</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11223,7 +11223,7 @@
         <v>43903</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11280,7 +11280,7 @@
         <v>43908</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11337,7 +11337,7 @@
         <v>43908</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11394,7 +11394,7 @@
         <v>43913</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>43916</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11508,7 +11508,7 @@
         <v>43916</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>43927</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>43936</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>43937</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>43941</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>43943</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         <v>43943</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11907,7 +11907,7 @@
         <v>43949</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>43957</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>43957</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>43963</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>43966</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>43969</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>43983</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         <v>43983</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12363,7 +12363,7 @@
         <v>43983</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         <v>44000</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12477,7 +12477,7 @@
         <v>44007</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         <v>44019</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12591,7 +12591,7 @@
         <v>44020</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12648,7 +12648,7 @@
         <v>44020</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>44020</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12762,7 +12762,7 @@
         <v>44021</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12819,7 +12819,7 @@
         <v>44021</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12881,7 +12881,7 @@
         <v>44022</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12938,7 +12938,7 @@
         <v>44022</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12995,7 +12995,7 @@
         <v>44025</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13052,7 +13052,7 @@
         <v>44028</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13109,7 +13109,7 @@
         <v>44036</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13166,7 +13166,7 @@
         <v>44039</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13223,7 +13223,7 @@
         <v>44041</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13280,7 +13280,7 @@
         <v>44043</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13337,7 +13337,7 @@
         <v>44046</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13394,7 +13394,7 @@
         <v>44055</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13451,7 +13451,7 @@
         <v>44060</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>44062</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         <v>44088</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         <v>44092</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13679,7 +13679,7 @@
         <v>44095</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13736,7 +13736,7 @@
         <v>44095</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13793,7 +13793,7 @@
         <v>44095</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>44103</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>44107</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44107</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44122</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44122</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>44123</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>44123</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>44124</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>44132</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>44132</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>44133</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>44133</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44140</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44141</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>44144</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>44145</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>44146</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>44146</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14891,7 +14891,7 @@
         <v>44147</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>44147</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>44147</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15062,7 +15062,7 @@
         <v>44147</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>44147</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44159</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44159</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15290,7 +15290,7 @@
         <v>44162</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>44166</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15404,7 +15404,7 @@
         <v>44168</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15461,7 +15461,7 @@
         <v>44172</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15518,7 +15518,7 @@
         <v>44173</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15575,7 +15575,7 @@
         <v>44174</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15632,7 +15632,7 @@
         <v>44174</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15689,7 +15689,7 @@
         <v>44180</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         <v>44187</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15803,7 +15803,7 @@
         <v>44193</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>44199</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>44210</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15974,7 +15974,7 @@
         <v>44216</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16031,7 +16031,7 @@
         <v>44221</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16088,7 +16088,7 @@
         <v>44224</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16145,7 +16145,7 @@
         <v>44230</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16202,7 +16202,7 @@
         <v>44230</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16259,7 +16259,7 @@
         <v>44231</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16316,7 +16316,7 @@
         <v>44236</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16373,7 +16373,7 @@
         <v>44236</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16430,7 +16430,7 @@
         <v>44236</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16487,7 +16487,7 @@
         <v>44238</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16544,7 +16544,7 @@
         <v>44242</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16601,7 +16601,7 @@
         <v>44243</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16658,7 +16658,7 @@
         <v>44245</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16715,7 +16715,7 @@
         <v>44250</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16772,7 +16772,7 @@
         <v>44250</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16829,7 +16829,7 @@
         <v>44251</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>44256</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16943,7 +16943,7 @@
         <v>44261</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         <v>44263</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         <v>44263</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17119,7 +17119,7 @@
         <v>44266</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
         <v>44266</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17243,7 +17243,7 @@
         <v>44267</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17305,7 +17305,7 @@
         <v>44267</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17367,7 +17367,7 @@
         <v>44267</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17429,7 +17429,7 @@
         <v>44267</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17491,7 +17491,7 @@
         <v>44267</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17553,7 +17553,7 @@
         <v>44278</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17610,7 +17610,7 @@
         <v>44295</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17667,7 +17667,7 @@
         <v>44298</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17724,7 +17724,7 @@
         <v>44298</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17781,7 +17781,7 @@
         <v>44302</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
         <v>44302</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>44307</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17952,7 +17952,7 @@
         <v>44322</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18009,7 +18009,7 @@
         <v>44322</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         <v>44335</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18123,7 +18123,7 @@
         <v>44336</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18180,7 +18180,7 @@
         <v>44340</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>44356</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18294,7 +18294,7 @@
         <v>44356</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18351,7 +18351,7 @@
         <v>44357</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
         <v>44357</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18470,7 +18470,7 @@
         <v>44363</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18527,7 +18527,7 @@
         <v>44365</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18584,7 +18584,7 @@
         <v>44371</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18641,7 +18641,7 @@
         <v>44371</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18698,7 +18698,7 @@
         <v>44375</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18755,7 +18755,7 @@
         <v>44378</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18812,7 +18812,7 @@
         <v>44384</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18869,7 +18869,7 @@
         <v>44389</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18926,7 +18926,7 @@
         <v>44407</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18983,7 +18983,7 @@
         <v>44427</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19040,7 +19040,7 @@
         <v>44442</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19097,7 +19097,7 @@
         <v>44448</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19154,7 +19154,7 @@
         <v>44454</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19211,7 +19211,7 @@
         <v>44454</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19268,7 +19268,7 @@
         <v>44454</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19325,7 +19325,7 @@
         <v>44455</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19382,7 +19382,7 @@
         <v>44469</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19439,7 +19439,7 @@
         <v>44475</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19496,7 +19496,7 @@
         <v>44476</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19553,7 +19553,7 @@
         <v>44477</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19610,7 +19610,7 @@
         <v>44477</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19667,7 +19667,7 @@
         <v>44480</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19724,7 +19724,7 @@
         <v>44481</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19781,7 +19781,7 @@
         <v>44482</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19838,7 +19838,7 @@
         <v>44483</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19895,7 +19895,7 @@
         <v>44483</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -19952,7 +19952,7 @@
         <v>44487</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20014,7 +20014,7 @@
         <v>44487</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20076,7 +20076,7 @@
         <v>44488</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         <v>44489</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20190,7 +20190,7 @@
         <v>44489</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20247,7 +20247,7 @@
         <v>44489</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20304,7 +20304,7 @@
         <v>44501</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20361,7 +20361,7 @@
         <v>44502</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20418,7 +20418,7 @@
         <v>44508</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20475,7 +20475,7 @@
         <v>44510</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20532,7 +20532,7 @@
         <v>44515</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20594,7 +20594,7 @@
         <v>44529</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20651,7 +20651,7 @@
         <v>44530</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20708,7 +20708,7 @@
         <v>44557</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20765,7 +20765,7 @@
         <v>44559</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20822,7 +20822,7 @@
         <v>44559</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20879,7 +20879,7 @@
         <v>44573</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -20936,7 +20936,7 @@
         <v>44573</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -20993,7 +20993,7 @@
         <v>44575</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21050,7 +21050,7 @@
         <v>44592</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21107,7 +21107,7 @@
         <v>44592</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21164,7 +21164,7 @@
         <v>44596</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21226,7 +21226,7 @@
         <v>44600</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
         <v>44607</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>44613</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21397,7 +21397,7 @@
         <v>44621</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44631</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44634</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44637</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>44644</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21687,7 +21687,7 @@
         <v>44655</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         <v>44659</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21806,7 +21806,7 @@
         <v>44659</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>44659</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>44659</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -21987,7 +21987,7 @@
         <v>44671</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>44671</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>44693</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>44697</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>44711</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>44712</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>44714</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>44714</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22448,7 +22448,7 @@
         <v>44719</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22505,7 +22505,7 @@
         <v>44735</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22562,7 +22562,7 @@
         <v>44735</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22619,7 +22619,7 @@
         <v>44735</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22676,7 +22676,7 @@
         <v>44753</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22733,7 +22733,7 @@
         <v>44756</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22790,7 +22790,7 @@
         <v>44756</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22847,7 +22847,7 @@
         <v>44762</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -22904,7 +22904,7 @@
         <v>44778</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -22961,7 +22961,7 @@
         <v>44778</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23018,7 +23018,7 @@
         <v>44778</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23075,7 +23075,7 @@
         <v>44817</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23132,7 +23132,7 @@
         <v>44823</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23189,7 +23189,7 @@
         <v>44830</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23246,7 +23246,7 @@
         <v>44830</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23303,7 +23303,7 @@
         <v>44845</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23360,7 +23360,7 @@
         <v>44847</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23417,7 +23417,7 @@
         <v>44847</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23474,7 +23474,7 @@
         <v>44847</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23531,7 +23531,7 @@
         <v>44865</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23588,7 +23588,7 @@
         <v>44865</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23645,7 +23645,7 @@
         <v>44868</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23702,7 +23702,7 @@
         <v>44869</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23759,7 +23759,7 @@
         <v>44872</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23816,7 +23816,7 @@
         <v>44873</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -23873,7 +23873,7 @@
         <v>44876</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -23930,7 +23930,7 @@
         <v>44887</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -23987,7 +23987,7 @@
         <v>44889</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24044,7 +24044,7 @@
         <v>44893</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24101,7 +24101,7 @@
         <v>44900</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24158,7 +24158,7 @@
         <v>44900</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24215,7 +24215,7 @@
         <v>44900</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24272,7 +24272,7 @@
         <v>44900</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24329,7 +24329,7 @@
         <v>44903</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         <v>44903</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24443,7 +24443,7 @@
         <v>44926</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24505,7 +24505,7 @@
         <v>44951</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24562,7 +24562,7 @@
         <v>44964</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24619,7 +24619,7 @@
         <v>44964</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24676,7 +24676,7 @@
         <v>44970</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24733,7 +24733,7 @@
         <v>44970</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24790,7 +24790,7 @@
         <v>44974</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -24847,7 +24847,7 @@
         <v>44974</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -24904,7 +24904,7 @@
         <v>44974</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -24961,7 +24961,7 @@
         <v>44980</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25018,7 +25018,7 @@
         <v>44999</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         <v>45013</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25132,7 +25132,7 @@
         <v>45019</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25189,7 +25189,7 @@
         <v>45019</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25246,7 +25246,7 @@
         <v>45020</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25303,7 +25303,7 @@
         <v>45030</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25365,7 +25365,7 @@
         <v>45037</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25422,7 +25422,7 @@
         <v>45040</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25479,7 +25479,7 @@
         <v>45044</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25536,7 +25536,7 @@
         <v>45058</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25593,7 +25593,7 @@
         <v>45061</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25650,7 +25650,7 @@
         <v>45062</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25707,7 +25707,7 @@
         <v>45063</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25764,7 +25764,7 @@
         <v>45070</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25821,7 +25821,7 @@
         <v>45070</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -25878,7 +25878,7 @@
         <v>45070</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -25935,7 +25935,7 @@
         <v>45075</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -25992,7 +25992,7 @@
         <v>45084</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26049,7 +26049,7 @@
         <v>45084</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26106,7 +26106,7 @@
         <v>45089</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26163,7 +26163,7 @@
         <v>45091</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26220,7 +26220,7 @@
         <v>45092</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26277,7 +26277,7 @@
         <v>45092</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26334,7 +26334,7 @@
         <v>45097</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26391,7 +26391,7 @@
         <v>45097</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26448,7 +26448,7 @@
         <v>45097</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26505,7 +26505,7 @@
         <v>45097</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26562,7 +26562,7 @@
         <v>45099</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26619,7 +26619,7 @@
         <v>45109</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26676,7 +26676,7 @@
         <v>45109</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26733,7 +26733,7 @@
         <v>45110</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26790,7 +26790,7 @@
         <v>45110</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -26847,7 +26847,7 @@
         <v>45114</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -26904,7 +26904,7 @@
         <v>45117</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -26961,7 +26961,7 @@
         <v>45128</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27018,7 +27018,7 @@
         <v>45131</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27075,7 +27075,7 @@
         <v>45145</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27132,7 +27132,7 @@
         <v>45149</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27189,7 +27189,7 @@
         <v>45153</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27251,7 +27251,7 @@
         <v>45153</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27308,7 +27308,7 @@
         <v>45154</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27365,7 +27365,7 @@
         <v>45155</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27422,7 +27422,7 @@
         <v>45162</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27479,7 +27479,7 @@
         <v>45163</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27536,7 +27536,7 @@
         <v>45167</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27593,7 +27593,7 @@
         <v>45167</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27650,7 +27650,7 @@
         <v>45170</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27707,7 +27707,7 @@
         <v>45170</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27764,7 +27764,7 @@
         <v>45181</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -27821,7 +27821,7 @@
         <v>45204</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
